--- a/Code/Results/Cases/Case_3_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9827721790532513</v>
+        <v>0.9827721790532515</v>
       </c>
       <c r="D2">
         <v>1.004047040377511</v>
       </c>
       <c r="E2">
-        <v>0.9914041227398683</v>
+        <v>0.9914041227398688</v>
       </c>
       <c r="F2">
-        <v>0.9842614365209308</v>
+        <v>0.9842614365209311</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038570594019026</v>
+        <v>1.038570594019027</v>
       </c>
       <c r="J2">
         <v>1.005480671309009</v>
       </c>
       <c r="K2">
-        <v>1.015450279976887</v>
+        <v>1.015450279976888</v>
       </c>
       <c r="L2">
         <v>1.002984525169073</v>
       </c>
       <c r="M2">
-        <v>0.9959444782313386</v>
+        <v>0.9959444782313392</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.99066778942689</v>
+        <v>0.9906677894268888</v>
       </c>
       <c r="D3">
-        <v>1.010279250131778</v>
+        <v>1.010279250131777</v>
       </c>
       <c r="E3">
-        <v>0.9982133799425114</v>
+        <v>0.9982133799425104</v>
       </c>
       <c r="F3">
-        <v>0.993119130431571</v>
+        <v>0.9931191304315699</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.041230769594981</v>
       </c>
       <c r="J3">
-        <v>1.011416133819505</v>
+        <v>1.011416133819504</v>
       </c>
       <c r="K3">
-        <v>1.020782274046144</v>
+        <v>1.020782274046143</v>
       </c>
       <c r="L3">
-        <v>1.008869172063826</v>
+        <v>1.008869172063825</v>
       </c>
       <c r="M3">
-        <v>1.003840817003294</v>
+        <v>1.003840817003293</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,13 +500,13 @@
         <v>0.9956061460843669</v>
       </c>
       <c r="D4">
-        <v>1.014177916052544</v>
+        <v>1.014177916052545</v>
       </c>
       <c r="E4">
         <v>1.002477899114413</v>
       </c>
       <c r="F4">
-        <v>0.9986641012351523</v>
+        <v>0.9986641012351526</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -518,7 +518,7 @@
         <v>1.015122918840454</v>
       </c>
       <c r="K4">
-        <v>1.024108185428639</v>
+        <v>1.02410818542864</v>
       </c>
       <c r="L4">
         <v>1.012546509792828</v>
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9976438993456648</v>
+        <v>0.9976438993456662</v>
       </c>
       <c r="D5">
-        <v>1.015786697066649</v>
+        <v>1.01578669706665</v>
       </c>
       <c r="E5">
-        <v>1.004238864411388</v>
+        <v>1.004238864411389</v>
       </c>
       <c r="F5">
-        <v>1.000953406192958</v>
+        <v>1.000953406192959</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043552230112736</v>
+        <v>1.043552230112737</v>
       </c>
       <c r="J5">
-        <v>1.016651073492486</v>
+        <v>1.016651073492487</v>
       </c>
       <c r="K5">
-        <v>1.025478333387906</v>
+        <v>1.025478333387907</v>
       </c>
       <c r="L5">
-        <v>1.014063074563666</v>
+        <v>1.014063074563667</v>
       </c>
       <c r="M5">
-        <v>1.010816026342778</v>
+        <v>1.010816026342779</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.997983868037328</v>
+        <v>0.9979838680373282</v>
       </c>
       <c r="D6">
-        <v>1.016055097304257</v>
+        <v>1.016055097304258</v>
       </c>
       <c r="E6">
         <v>1.004532727044752</v>
       </c>
       <c r="F6">
-        <v>1.001335417375387</v>
+        <v>1.001335417375388</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -597,7 +597,7 @@
         <v>1.025706787391969</v>
       </c>
       <c r="L6">
-        <v>1.014316039285855</v>
+        <v>1.014316039285856</v>
       </c>
       <c r="M6">
         <v>1.011155916982635</v>
@@ -611,31 +611,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9956335221112353</v>
+        <v>0.9956335221112361</v>
       </c>
       <c r="D7">
         <v>1.014199529070655</v>
       </c>
       <c r="E7">
-        <v>1.002501551764309</v>
+        <v>1.00250155176431</v>
       </c>
       <c r="F7">
-        <v>0.9986948517136066</v>
+        <v>0.9986948517136073</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042886226098172</v>
+        <v>1.042886226098173</v>
       </c>
       <c r="J7">
-        <v>1.015143454357519</v>
+        <v>1.01514345435752</v>
       </c>
       <c r="K7">
-        <v>1.024126601586898</v>
+        <v>1.024126601586899</v>
       </c>
       <c r="L7">
-        <v>1.012566887382413</v>
+        <v>1.012566887382415</v>
       </c>
       <c r="M7">
         <v>1.008806047520102</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9854774627815296</v>
+        <v>0.9854774627815295</v>
       </c>
       <c r="D8">
-        <v>1.006182165477804</v>
+        <v>1.006182165477805</v>
       </c>
       <c r="E8">
-        <v>0.9937359402146778</v>
+        <v>0.9937359402146777</v>
       </c>
       <c r="F8">
-        <v>0.987295374765027</v>
+        <v>0.9872953747650268</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>1.005001436105423</v>
       </c>
       <c r="M8">
-        <v>0.9986502335126416</v>
+        <v>0.9986502335126415</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9661466337814565</v>
+        <v>0.966146633781457</v>
       </c>
       <c r="D9">
-        <v>0.9909342115829727</v>
+        <v>0.9909342115829736</v>
       </c>
       <c r="E9">
-        <v>0.9771024398689805</v>
+        <v>0.9771024398689806</v>
       </c>
       <c r="F9">
-        <v>0.9656339484057819</v>
+        <v>0.9656339484057822</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.032874093283334</v>
       </c>
       <c r="J9">
-        <v>0.992954210043887</v>
+        <v>0.9929542100438874</v>
       </c>
       <c r="K9">
-        <v>1.00417610753396</v>
+        <v>1.004176107533961</v>
       </c>
       <c r="L9">
         <v>0.9905782697428864</v>
       </c>
       <c r="M9">
-        <v>0.9793103366872021</v>
+        <v>0.9793103366872026</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9520887178865057</v>
+        <v>0.9520887178865081</v>
       </c>
       <c r="D10">
-        <v>0.9798641304819727</v>
+        <v>0.9798641304819747</v>
       </c>
       <c r="E10">
-        <v>0.9650484714658248</v>
+        <v>0.9650484714658273</v>
       </c>
       <c r="F10">
-        <v>0.949899463078179</v>
+        <v>0.9498994630781815</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.027976614655743</v>
       </c>
       <c r="J10">
-        <v>0.9823412189473633</v>
+        <v>0.9823412189473655</v>
       </c>
       <c r="K10">
-        <v>0.9946067171784793</v>
+        <v>0.9946067171784809</v>
       </c>
       <c r="L10">
-        <v>0.9800788248864613</v>
+        <v>0.9800788248864635</v>
       </c>
       <c r="M10">
-        <v>0.9652363153465987</v>
+        <v>0.965236315346601</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9456677229059893</v>
+        <v>0.9456677229059887</v>
       </c>
       <c r="D11">
-        <v>0.9748149979782067</v>
+        <v>0.9748149979782063</v>
       </c>
       <c r="E11">
-        <v>0.9595548901348191</v>
+        <v>0.9595548901348186</v>
       </c>
       <c r="F11">
-        <v>0.9427152421203377</v>
+        <v>0.9427152421203373</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.025719926697014</v>
       </c>
       <c r="J11">
-        <v>0.977489491795321</v>
+        <v>0.9774894917953202</v>
       </c>
       <c r="K11">
-        <v>0.9902280257402446</v>
+        <v>0.990228025740244</v>
       </c>
       <c r="L11">
-        <v>0.975282090223469</v>
+        <v>0.9752820902234686</v>
       </c>
       <c r="M11">
-        <v>0.9588048400662492</v>
+        <v>0.9588048400662486</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9432267994845045</v>
+        <v>0.9432267994845049</v>
       </c>
       <c r="D12">
         <v>0.9728969281072313</v>
       </c>
       <c r="E12">
-        <v>0.9574685398233489</v>
+        <v>0.9574685398233493</v>
       </c>
       <c r="F12">
-        <v>0.9399843756484562</v>
+        <v>0.9399843756484566</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,13 +819,13 @@
         <v>1.024859230579105</v>
       </c>
       <c r="J12">
-        <v>0.9756446269142749</v>
+        <v>0.9756446269142752</v>
       </c>
       <c r="K12">
         <v>0.9885624765827322</v>
       </c>
       <c r="L12">
-        <v>0.9734586022733113</v>
+        <v>0.9734586022733116</v>
       </c>
       <c r="M12">
         <v>0.9563593715924084</v>
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9437530167949824</v>
+        <v>0.9437530167949785</v>
       </c>
       <c r="D13">
-        <v>0.9733103627149975</v>
+        <v>0.9733103627149938</v>
       </c>
       <c r="E13">
-        <v>0.9579182232365516</v>
+        <v>0.9579182232365482</v>
       </c>
       <c r="F13">
-        <v>0.9405730938316971</v>
+        <v>0.9405730938316929</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025044905303317</v>
+        <v>1.025044905303314</v>
       </c>
       <c r="J13">
-        <v>0.976042365056032</v>
+        <v>0.9760423650560286</v>
       </c>
       <c r="K13">
-        <v>0.9889215798470999</v>
+        <v>0.9889215798470965</v>
       </c>
       <c r="L13">
-        <v>0.9738517106506912</v>
+        <v>0.9738517106506877</v>
       </c>
       <c r="M13">
-        <v>0.9568865956961911</v>
+        <v>0.9568865956961869</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9454671318230694</v>
+        <v>0.9454671318230671</v>
       </c>
       <c r="D14">
-        <v>0.9746573452683446</v>
+        <v>0.974657345268342</v>
       </c>
       <c r="E14">
-        <v>0.9593833951509657</v>
+        <v>0.9593833951509636</v>
       </c>
       <c r="F14">
-        <v>0.942490821244913</v>
+        <v>0.9424908212449107</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02564925235752</v>
+        <v>1.025649252357519</v>
       </c>
       <c r="J14">
-        <v>0.9773378929731069</v>
+        <v>0.9773378929731046</v>
       </c>
       <c r="K14">
-        <v>0.9900911728312671</v>
+        <v>0.9900911728312648</v>
       </c>
       <c r="L14">
-        <v>0.9751322385624287</v>
+        <v>0.9751322385624265</v>
       </c>
       <c r="M14">
-        <v>0.9586038874277998</v>
+        <v>0.9586038874277976</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9465156627870991</v>
+        <v>0.9465156627870975</v>
       </c>
       <c r="D15">
-        <v>0.9754814846959988</v>
+        <v>0.9754814846959973</v>
       </c>
       <c r="E15">
-        <v>0.9602799179848168</v>
+        <v>0.9602799179848155</v>
       </c>
       <c r="F15">
-        <v>0.9436639221614957</v>
+        <v>0.9436639221614938</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026018568112647</v>
+        <v>1.026018568112646</v>
       </c>
       <c r="J15">
-        <v>0.9781303121031736</v>
+        <v>0.9781303121031721</v>
       </c>
       <c r="K15">
-        <v>0.9908064916815229</v>
+        <v>0.9908064916815212</v>
       </c>
       <c r="L15">
-        <v>0.9759155440648949</v>
+        <v>0.9759155440648937</v>
       </c>
       <c r="M15">
-        <v>0.9596542849690299</v>
+        <v>0.9596542849690283</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9525073567996324</v>
+        <v>0.9525073567996318</v>
       </c>
       <c r="D16">
-        <v>0.9801934953240613</v>
+        <v>0.980193495324061</v>
       </c>
       <c r="E16">
-        <v>0.9654069101514531</v>
+        <v>0.9654069101514523</v>
       </c>
       <c r="F16">
-        <v>0.9503679007600159</v>
+        <v>0.9503679007600155</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.02812335182782</v>
       </c>
       <c r="J16">
-        <v>0.9826574683932279</v>
+        <v>0.9826574683932274</v>
       </c>
       <c r="K16">
-        <v>0.9948920536613777</v>
+        <v>0.994892053661377</v>
       </c>
       <c r="L16">
-        <v>0.9803915535394743</v>
+        <v>0.9803915535394737</v>
       </c>
       <c r="M16">
-        <v>0.9656555658926739</v>
+        <v>0.9656555658926734</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9561726506264575</v>
+        <v>0.9561726506264565</v>
       </c>
       <c r="D17">
-        <v>0.983078003384834</v>
+        <v>0.9830780033848333</v>
       </c>
       <c r="E17">
-        <v>0.9685465152135273</v>
+        <v>0.9685465152135265</v>
       </c>
       <c r="F17">
-        <v>0.9544694636301643</v>
+        <v>0.9544694636301635</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029405872746195</v>
+        <v>1.029405872746194</v>
       </c>
       <c r="J17">
-        <v>0.985425857329255</v>
+        <v>0.9854258573292539</v>
       </c>
       <c r="K17">
-        <v>0.9973893878730338</v>
+        <v>0.9973893878730328</v>
       </c>
       <c r="L17">
-        <v>0.9831294685192378</v>
+        <v>0.9831294685192371</v>
       </c>
       <c r="M17">
-        <v>0.9693258550123861</v>
+        <v>0.9693258550123853</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9582787771166702</v>
+        <v>0.9582787771166716</v>
       </c>
       <c r="D18">
-        <v>0.9847361300201564</v>
+        <v>0.9847361300201575</v>
       </c>
       <c r="E18">
-        <v>0.9703516905965757</v>
+        <v>0.9703516905965768</v>
       </c>
       <c r="F18">
-        <v>0.95682652820564</v>
+        <v>0.9568265282056418</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030140971136043</v>
+        <v>1.030140971136044</v>
       </c>
       <c r="J18">
-        <v>0.9870162071346633</v>
+        <v>0.9870162071346644</v>
       </c>
       <c r="K18">
-        <v>0.9988236440790365</v>
+        <v>0.9988236440790376</v>
       </c>
       <c r="L18">
-        <v>0.9847025998716864</v>
+        <v>0.9847025998716874</v>
       </c>
       <c r="M18">
-        <v>0.971434566727012</v>
+        <v>0.9714345667270136</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9589916811112843</v>
+        <v>0.958991681111284</v>
       </c>
       <c r="D19">
-        <v>0.9852974932163441</v>
+        <v>0.9852974932163435</v>
       </c>
       <c r="E19">
-        <v>0.970962909416978</v>
+        <v>0.9709629094169774</v>
       </c>
       <c r="F19">
-        <v>0.9576244201452535</v>
+        <v>0.9576244201452527</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.030389476348032</v>
       </c>
       <c r="J19">
-        <v>0.987554453392347</v>
+        <v>0.9875544533923466</v>
       </c>
       <c r="K19">
-        <v>0.9993089950610589</v>
+        <v>0.9993089950610586</v>
       </c>
       <c r="L19">
-        <v>0.9852350673878744</v>
+        <v>0.9852350673878736</v>
       </c>
       <c r="M19">
-        <v>0.9721482998436121</v>
+        <v>0.9721482998436113</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9557827246337569</v>
+        <v>0.9557827246337562</v>
       </c>
       <c r="D20">
-        <v>0.982771070548529</v>
+        <v>0.9827710705485282</v>
       </c>
       <c r="E20">
-        <v>0.9682123962258914</v>
+        <v>0.9682123962258911</v>
       </c>
       <c r="F20">
-        <v>0.9540331008956221</v>
+        <v>0.9540331008956214</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029269625988778</v>
+        <v>1.029269625988777</v>
       </c>
       <c r="J20">
-        <v>0.985131388054868</v>
+        <v>0.9851313880548676</v>
       </c>
       <c r="K20">
-        <v>0.997123789609053</v>
+        <v>0.9971237896090523</v>
       </c>
       <c r="L20">
-        <v>0.9828382107481926</v>
+        <v>0.9828382107481923</v>
       </c>
       <c r="M20">
-        <v>0.9689354278562191</v>
+        <v>0.9689354278562183</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9449639609435283</v>
+        <v>0.9449639609435252</v>
       </c>
       <c r="D21">
-        <v>0.9742619053178732</v>
+        <v>0.9742619053178705</v>
       </c>
       <c r="E21">
-        <v>0.9589532432811906</v>
+        <v>0.9589532432811876</v>
       </c>
       <c r="F21">
-        <v>0.9419278771721314</v>
+        <v>0.9419278771721287</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025471925143547</v>
+        <v>1.025471925143546</v>
       </c>
       <c r="J21">
-        <v>0.976957608849555</v>
+        <v>0.9769576088495521</v>
       </c>
       <c r="K21">
-        <v>0.9897478699462106</v>
+        <v>0.9897478699462078</v>
       </c>
       <c r="L21">
-        <v>0.9747563446707413</v>
+        <v>0.9747563446707384</v>
       </c>
       <c r="M21">
-        <v>0.9580998002535088</v>
+        <v>0.9580998002535059</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9378349019595691</v>
+        <v>0.9378349019595694</v>
       </c>
       <c r="D22">
-        <v>0.9686628066760999</v>
+        <v>0.9686628066761004</v>
       </c>
       <c r="E22">
-        <v>0.9528638606263845</v>
+        <v>0.9528638606263848</v>
       </c>
       <c r="F22">
-        <v>0.9339521252229195</v>
+        <v>0.9339521252229201</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.022952948124815</v>
       </c>
       <c r="J22">
-        <v>0.9715686547870214</v>
+        <v>0.9715686547870216</v>
       </c>
       <c r="K22">
-        <v>0.9848817135464709</v>
+        <v>0.9848817135464711</v>
       </c>
       <c r="L22">
-        <v>0.9694307247008157</v>
+        <v>0.9694307247008163</v>
       </c>
       <c r="M22">
-        <v>0.9509562783037639</v>
+        <v>0.9509562783037644</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9416473052751676</v>
+        <v>0.9416473052751666</v>
       </c>
       <c r="D23">
-        <v>0.9716561822320247</v>
+        <v>0.9716561822320231</v>
       </c>
       <c r="E23">
-        <v>0.9561190829035262</v>
+        <v>0.9561190829035251</v>
       </c>
       <c r="F23">
-        <v>0.9382172908584213</v>
+        <v>0.93821729085842</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024301507573317</v>
+        <v>1.024301507573316</v>
       </c>
       <c r="J23">
-        <v>0.9744507151248231</v>
+        <v>0.974450715124822</v>
       </c>
       <c r="K23">
-        <v>0.9874844600502545</v>
+        <v>0.9874844600502531</v>
       </c>
       <c r="L23">
-        <v>0.9722786564667982</v>
+        <v>0.972278656466797</v>
       </c>
       <c r="M23">
-        <v>0.9547767650194783</v>
+        <v>0.9547767650194769</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,10 +1257,10 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9559590131853533</v>
+        <v>0.9559590131853534</v>
       </c>
       <c r="D24">
-        <v>0.9829098352513882</v>
+        <v>0.9829098352513884</v>
       </c>
       <c r="E24">
         <v>0.9683634505416752</v>
@@ -1275,13 +1275,13 @@
         <v>1.029331229979239</v>
       </c>
       <c r="J24">
-        <v>0.9852645211511313</v>
+        <v>0.9852645211511315</v>
       </c>
       <c r="K24">
-        <v>0.9972438709647986</v>
+        <v>0.9972438709647987</v>
       </c>
       <c r="L24">
-        <v>0.982969890990162</v>
+        <v>0.9829698909901622</v>
       </c>
       <c r="M24">
         <v>0.9691119438680401</v>
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9713336367000962</v>
+        <v>0.9713336367000953</v>
       </c>
       <c r="D25">
-        <v>0.9950233049914183</v>
+        <v>0.9950233049914172</v>
       </c>
       <c r="E25">
-        <v>0.981559102222647</v>
+        <v>0.9815591022226459</v>
       </c>
       <c r="F25">
-        <v>0.9714427193149636</v>
+        <v>0.9714427193149621</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034663702845169</v>
+        <v>1.034663702845168</v>
       </c>
       <c r="J25">
-        <v>0.996865808462073</v>
+        <v>0.9968658084620722</v>
       </c>
       <c r="K25">
-        <v>1.007699372154197</v>
+        <v>1.007699372154196</v>
       </c>
       <c r="L25">
-        <v>0.9944505979336966</v>
+        <v>0.9944505979336957</v>
       </c>
       <c r="M25">
-        <v>0.9845011408164717</v>
+        <v>0.9845011408164702</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9827721790532515</v>
+        <v>0.9827721790532513</v>
       </c>
       <c r="D2">
         <v>1.004047040377511</v>
       </c>
       <c r="E2">
-        <v>0.9914041227398688</v>
+        <v>0.9914041227398683</v>
       </c>
       <c r="F2">
-        <v>0.9842614365209311</v>
+        <v>0.9842614365209308</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038570594019027</v>
+        <v>1.038570594019026</v>
       </c>
       <c r="J2">
         <v>1.005480671309009</v>
       </c>
       <c r="K2">
-        <v>1.015450279976888</v>
+        <v>1.015450279976887</v>
       </c>
       <c r="L2">
         <v>1.002984525169073</v>
       </c>
       <c r="M2">
-        <v>0.9959444782313392</v>
+        <v>0.9959444782313386</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9906677894268888</v>
+        <v>0.99066778942689</v>
       </c>
       <c r="D3">
-        <v>1.010279250131777</v>
+        <v>1.010279250131778</v>
       </c>
       <c r="E3">
-        <v>0.9982133799425104</v>
+        <v>0.9982133799425114</v>
       </c>
       <c r="F3">
-        <v>0.9931191304315699</v>
+        <v>0.993119130431571</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.041230769594981</v>
       </c>
       <c r="J3">
-        <v>1.011416133819504</v>
+        <v>1.011416133819505</v>
       </c>
       <c r="K3">
-        <v>1.020782274046143</v>
+        <v>1.020782274046144</v>
       </c>
       <c r="L3">
-        <v>1.008869172063825</v>
+        <v>1.008869172063826</v>
       </c>
       <c r="M3">
-        <v>1.003840817003293</v>
+        <v>1.003840817003294</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,13 +500,13 @@
         <v>0.9956061460843669</v>
       </c>
       <c r="D4">
-        <v>1.014177916052545</v>
+        <v>1.014177916052544</v>
       </c>
       <c r="E4">
         <v>1.002477899114413</v>
       </c>
       <c r="F4">
-        <v>0.9986641012351526</v>
+        <v>0.9986641012351523</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -518,7 +518,7 @@
         <v>1.015122918840454</v>
       </c>
       <c r="K4">
-        <v>1.02410818542864</v>
+        <v>1.024108185428639</v>
       </c>
       <c r="L4">
         <v>1.012546509792828</v>
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9976438993456662</v>
+        <v>0.9976438993456648</v>
       </c>
       <c r="D5">
-        <v>1.01578669706665</v>
+        <v>1.015786697066649</v>
       </c>
       <c r="E5">
-        <v>1.004238864411389</v>
+        <v>1.004238864411388</v>
       </c>
       <c r="F5">
-        <v>1.000953406192959</v>
+        <v>1.000953406192958</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043552230112737</v>
+        <v>1.043552230112736</v>
       </c>
       <c r="J5">
-        <v>1.016651073492487</v>
+        <v>1.016651073492486</v>
       </c>
       <c r="K5">
-        <v>1.025478333387907</v>
+        <v>1.025478333387906</v>
       </c>
       <c r="L5">
-        <v>1.014063074563667</v>
+        <v>1.014063074563666</v>
       </c>
       <c r="M5">
-        <v>1.010816026342779</v>
+        <v>1.010816026342778</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9979838680373282</v>
+        <v>0.997983868037328</v>
       </c>
       <c r="D6">
-        <v>1.016055097304258</v>
+        <v>1.016055097304257</v>
       </c>
       <c r="E6">
         <v>1.004532727044752</v>
       </c>
       <c r="F6">
-        <v>1.001335417375388</v>
+        <v>1.001335417375387</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -597,7 +597,7 @@
         <v>1.025706787391969</v>
       </c>
       <c r="L6">
-        <v>1.014316039285856</v>
+        <v>1.014316039285855</v>
       </c>
       <c r="M6">
         <v>1.011155916982635</v>
@@ -611,31 +611,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9956335221112361</v>
+        <v>0.9956335221112353</v>
       </c>
       <c r="D7">
         <v>1.014199529070655</v>
       </c>
       <c r="E7">
-        <v>1.00250155176431</v>
+        <v>1.002501551764309</v>
       </c>
       <c r="F7">
-        <v>0.9986948517136073</v>
+        <v>0.9986948517136066</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042886226098173</v>
+        <v>1.042886226098172</v>
       </c>
       <c r="J7">
-        <v>1.01514345435752</v>
+        <v>1.015143454357519</v>
       </c>
       <c r="K7">
-        <v>1.024126601586899</v>
+        <v>1.024126601586898</v>
       </c>
       <c r="L7">
-        <v>1.012566887382415</v>
+        <v>1.012566887382413</v>
       </c>
       <c r="M7">
         <v>1.008806047520102</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9854774627815295</v>
+        <v>0.9854774627815296</v>
       </c>
       <c r="D8">
-        <v>1.006182165477805</v>
+        <v>1.006182165477804</v>
       </c>
       <c r="E8">
-        <v>0.9937359402146777</v>
+        <v>0.9937359402146778</v>
       </c>
       <c r="F8">
-        <v>0.9872953747650268</v>
+        <v>0.987295374765027</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>1.005001436105423</v>
       </c>
       <c r="M8">
-        <v>0.9986502335126415</v>
+        <v>0.9986502335126416</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.966146633781457</v>
+        <v>0.9661466337814565</v>
       </c>
       <c r="D9">
-        <v>0.9909342115829736</v>
+        <v>0.9909342115829727</v>
       </c>
       <c r="E9">
-        <v>0.9771024398689806</v>
+        <v>0.9771024398689805</v>
       </c>
       <c r="F9">
-        <v>0.9656339484057822</v>
+        <v>0.9656339484057819</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.032874093283334</v>
       </c>
       <c r="J9">
-        <v>0.9929542100438874</v>
+        <v>0.992954210043887</v>
       </c>
       <c r="K9">
-        <v>1.004176107533961</v>
+        <v>1.00417610753396</v>
       </c>
       <c r="L9">
         <v>0.9905782697428864</v>
       </c>
       <c r="M9">
-        <v>0.9793103366872026</v>
+        <v>0.9793103366872021</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9520887178865081</v>
+        <v>0.9520887178865057</v>
       </c>
       <c r="D10">
-        <v>0.9798641304819747</v>
+        <v>0.9798641304819727</v>
       </c>
       <c r="E10">
-        <v>0.9650484714658273</v>
+        <v>0.9650484714658248</v>
       </c>
       <c r="F10">
-        <v>0.9498994630781815</v>
+        <v>0.949899463078179</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.027976614655743</v>
       </c>
       <c r="J10">
-        <v>0.9823412189473655</v>
+        <v>0.9823412189473633</v>
       </c>
       <c r="K10">
-        <v>0.9946067171784809</v>
+        <v>0.9946067171784793</v>
       </c>
       <c r="L10">
-        <v>0.9800788248864635</v>
+        <v>0.9800788248864613</v>
       </c>
       <c r="M10">
-        <v>0.965236315346601</v>
+        <v>0.9652363153465987</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9456677229059887</v>
+        <v>0.9456677229059893</v>
       </c>
       <c r="D11">
-        <v>0.9748149979782063</v>
+        <v>0.9748149979782067</v>
       </c>
       <c r="E11">
-        <v>0.9595548901348186</v>
+        <v>0.9595548901348191</v>
       </c>
       <c r="F11">
-        <v>0.9427152421203373</v>
+        <v>0.9427152421203377</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.025719926697014</v>
       </c>
       <c r="J11">
-        <v>0.9774894917953202</v>
+        <v>0.977489491795321</v>
       </c>
       <c r="K11">
-        <v>0.990228025740244</v>
+        <v>0.9902280257402446</v>
       </c>
       <c r="L11">
-        <v>0.9752820902234686</v>
+        <v>0.975282090223469</v>
       </c>
       <c r="M11">
-        <v>0.9588048400662486</v>
+        <v>0.9588048400662492</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9432267994845049</v>
+        <v>0.9432267994845045</v>
       </c>
       <c r="D12">
         <v>0.9728969281072313</v>
       </c>
       <c r="E12">
-        <v>0.9574685398233493</v>
+        <v>0.9574685398233489</v>
       </c>
       <c r="F12">
-        <v>0.9399843756484566</v>
+        <v>0.9399843756484562</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,13 +819,13 @@
         <v>1.024859230579105</v>
       </c>
       <c r="J12">
-        <v>0.9756446269142752</v>
+        <v>0.9756446269142749</v>
       </c>
       <c r="K12">
         <v>0.9885624765827322</v>
       </c>
       <c r="L12">
-        <v>0.9734586022733116</v>
+        <v>0.9734586022733113</v>
       </c>
       <c r="M12">
         <v>0.9563593715924084</v>
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9437530167949785</v>
+        <v>0.9437530167949824</v>
       </c>
       <c r="D13">
-        <v>0.9733103627149938</v>
+        <v>0.9733103627149975</v>
       </c>
       <c r="E13">
-        <v>0.9579182232365482</v>
+        <v>0.9579182232365516</v>
       </c>
       <c r="F13">
-        <v>0.9405730938316929</v>
+        <v>0.9405730938316971</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025044905303314</v>
+        <v>1.025044905303317</v>
       </c>
       <c r="J13">
-        <v>0.9760423650560286</v>
+        <v>0.976042365056032</v>
       </c>
       <c r="K13">
-        <v>0.9889215798470965</v>
+        <v>0.9889215798470999</v>
       </c>
       <c r="L13">
-        <v>0.9738517106506877</v>
+        <v>0.9738517106506912</v>
       </c>
       <c r="M13">
-        <v>0.9568865956961869</v>
+        <v>0.9568865956961911</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9454671318230671</v>
+        <v>0.9454671318230694</v>
       </c>
       <c r="D14">
-        <v>0.974657345268342</v>
+        <v>0.9746573452683446</v>
       </c>
       <c r="E14">
-        <v>0.9593833951509636</v>
+        <v>0.9593833951509657</v>
       </c>
       <c r="F14">
-        <v>0.9424908212449107</v>
+        <v>0.942490821244913</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025649252357519</v>
+        <v>1.02564925235752</v>
       </c>
       <c r="J14">
-        <v>0.9773378929731046</v>
+        <v>0.9773378929731069</v>
       </c>
       <c r="K14">
-        <v>0.9900911728312648</v>
+        <v>0.9900911728312671</v>
       </c>
       <c r="L14">
-        <v>0.9751322385624265</v>
+        <v>0.9751322385624287</v>
       </c>
       <c r="M14">
-        <v>0.9586038874277976</v>
+        <v>0.9586038874277998</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9465156627870975</v>
+        <v>0.9465156627870991</v>
       </c>
       <c r="D15">
-        <v>0.9754814846959973</v>
+        <v>0.9754814846959988</v>
       </c>
       <c r="E15">
-        <v>0.9602799179848155</v>
+        <v>0.9602799179848168</v>
       </c>
       <c r="F15">
-        <v>0.9436639221614938</v>
+        <v>0.9436639221614957</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026018568112646</v>
+        <v>1.026018568112647</v>
       </c>
       <c r="J15">
-        <v>0.9781303121031721</v>
+        <v>0.9781303121031736</v>
       </c>
       <c r="K15">
-        <v>0.9908064916815212</v>
+        <v>0.9908064916815229</v>
       </c>
       <c r="L15">
-        <v>0.9759155440648937</v>
+        <v>0.9759155440648949</v>
       </c>
       <c r="M15">
-        <v>0.9596542849690283</v>
+        <v>0.9596542849690299</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9525073567996318</v>
+        <v>0.9525073567996324</v>
       </c>
       <c r="D16">
-        <v>0.980193495324061</v>
+        <v>0.9801934953240613</v>
       </c>
       <c r="E16">
-        <v>0.9654069101514523</v>
+        <v>0.9654069101514531</v>
       </c>
       <c r="F16">
-        <v>0.9503679007600155</v>
+        <v>0.9503679007600159</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.02812335182782</v>
       </c>
       <c r="J16">
-        <v>0.9826574683932274</v>
+        <v>0.9826574683932279</v>
       </c>
       <c r="K16">
-        <v>0.994892053661377</v>
+        <v>0.9948920536613777</v>
       </c>
       <c r="L16">
-        <v>0.9803915535394737</v>
+        <v>0.9803915535394743</v>
       </c>
       <c r="M16">
-        <v>0.9656555658926734</v>
+        <v>0.9656555658926739</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9561726506264565</v>
+        <v>0.9561726506264575</v>
       </c>
       <c r="D17">
-        <v>0.9830780033848333</v>
+        <v>0.983078003384834</v>
       </c>
       <c r="E17">
-        <v>0.9685465152135265</v>
+        <v>0.9685465152135273</v>
       </c>
       <c r="F17">
-        <v>0.9544694636301635</v>
+        <v>0.9544694636301643</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029405872746194</v>
+        <v>1.029405872746195</v>
       </c>
       <c r="J17">
-        <v>0.9854258573292539</v>
+        <v>0.985425857329255</v>
       </c>
       <c r="K17">
-        <v>0.9973893878730328</v>
+        <v>0.9973893878730338</v>
       </c>
       <c r="L17">
-        <v>0.9831294685192371</v>
+        <v>0.9831294685192378</v>
       </c>
       <c r="M17">
-        <v>0.9693258550123853</v>
+        <v>0.9693258550123861</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9582787771166716</v>
+        <v>0.9582787771166702</v>
       </c>
       <c r="D18">
-        <v>0.9847361300201575</v>
+        <v>0.9847361300201564</v>
       </c>
       <c r="E18">
-        <v>0.9703516905965768</v>
+        <v>0.9703516905965757</v>
       </c>
       <c r="F18">
-        <v>0.9568265282056418</v>
+        <v>0.95682652820564</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030140971136044</v>
+        <v>1.030140971136043</v>
       </c>
       <c r="J18">
-        <v>0.9870162071346644</v>
+        <v>0.9870162071346633</v>
       </c>
       <c r="K18">
-        <v>0.9988236440790376</v>
+        <v>0.9988236440790365</v>
       </c>
       <c r="L18">
-        <v>0.9847025998716874</v>
+        <v>0.9847025998716864</v>
       </c>
       <c r="M18">
-        <v>0.9714345667270136</v>
+        <v>0.971434566727012</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.958991681111284</v>
+        <v>0.9589916811112843</v>
       </c>
       <c r="D19">
-        <v>0.9852974932163435</v>
+        <v>0.9852974932163441</v>
       </c>
       <c r="E19">
-        <v>0.9709629094169774</v>
+        <v>0.970962909416978</v>
       </c>
       <c r="F19">
-        <v>0.9576244201452527</v>
+        <v>0.9576244201452535</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.030389476348032</v>
       </c>
       <c r="J19">
-        <v>0.9875544533923466</v>
+        <v>0.987554453392347</v>
       </c>
       <c r="K19">
-        <v>0.9993089950610586</v>
+        <v>0.9993089950610589</v>
       </c>
       <c r="L19">
-        <v>0.9852350673878736</v>
+        <v>0.9852350673878744</v>
       </c>
       <c r="M19">
-        <v>0.9721482998436113</v>
+        <v>0.9721482998436121</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9557827246337562</v>
+        <v>0.9557827246337569</v>
       </c>
       <c r="D20">
-        <v>0.9827710705485282</v>
+        <v>0.982771070548529</v>
       </c>
       <c r="E20">
-        <v>0.9682123962258911</v>
+        <v>0.9682123962258914</v>
       </c>
       <c r="F20">
-        <v>0.9540331008956214</v>
+        <v>0.9540331008956221</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029269625988777</v>
+        <v>1.029269625988778</v>
       </c>
       <c r="J20">
-        <v>0.9851313880548676</v>
+        <v>0.985131388054868</v>
       </c>
       <c r="K20">
-        <v>0.9971237896090523</v>
+        <v>0.997123789609053</v>
       </c>
       <c r="L20">
-        <v>0.9828382107481923</v>
+        <v>0.9828382107481926</v>
       </c>
       <c r="M20">
-        <v>0.9689354278562183</v>
+        <v>0.9689354278562191</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9449639609435252</v>
+        <v>0.9449639609435283</v>
       </c>
       <c r="D21">
-        <v>0.9742619053178705</v>
+        <v>0.9742619053178732</v>
       </c>
       <c r="E21">
-        <v>0.9589532432811876</v>
+        <v>0.9589532432811906</v>
       </c>
       <c r="F21">
-        <v>0.9419278771721287</v>
+        <v>0.9419278771721314</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025471925143546</v>
+        <v>1.025471925143547</v>
       </c>
       <c r="J21">
-        <v>0.9769576088495521</v>
+        <v>0.976957608849555</v>
       </c>
       <c r="K21">
-        <v>0.9897478699462078</v>
+        <v>0.9897478699462106</v>
       </c>
       <c r="L21">
-        <v>0.9747563446707384</v>
+        <v>0.9747563446707413</v>
       </c>
       <c r="M21">
-        <v>0.9580998002535059</v>
+        <v>0.9580998002535088</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9378349019595694</v>
+        <v>0.9378349019595691</v>
       </c>
       <c r="D22">
-        <v>0.9686628066761004</v>
+        <v>0.9686628066760999</v>
       </c>
       <c r="E22">
-        <v>0.9528638606263848</v>
+        <v>0.9528638606263845</v>
       </c>
       <c r="F22">
-        <v>0.9339521252229201</v>
+        <v>0.9339521252229195</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.022952948124815</v>
       </c>
       <c r="J22">
-        <v>0.9715686547870216</v>
+        <v>0.9715686547870214</v>
       </c>
       <c r="K22">
-        <v>0.9848817135464711</v>
+        <v>0.9848817135464709</v>
       </c>
       <c r="L22">
-        <v>0.9694307247008163</v>
+        <v>0.9694307247008157</v>
       </c>
       <c r="M22">
-        <v>0.9509562783037644</v>
+        <v>0.9509562783037639</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9416473052751666</v>
+        <v>0.9416473052751676</v>
       </c>
       <c r="D23">
-        <v>0.9716561822320231</v>
+        <v>0.9716561822320247</v>
       </c>
       <c r="E23">
-        <v>0.9561190829035251</v>
+        <v>0.9561190829035262</v>
       </c>
       <c r="F23">
-        <v>0.93821729085842</v>
+        <v>0.9382172908584213</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024301507573316</v>
+        <v>1.024301507573317</v>
       </c>
       <c r="J23">
-        <v>0.974450715124822</v>
+        <v>0.9744507151248231</v>
       </c>
       <c r="K23">
-        <v>0.9874844600502531</v>
+        <v>0.9874844600502545</v>
       </c>
       <c r="L23">
-        <v>0.972278656466797</v>
+        <v>0.9722786564667982</v>
       </c>
       <c r="M23">
-        <v>0.9547767650194769</v>
+        <v>0.9547767650194783</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,10 +1257,10 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9559590131853534</v>
+        <v>0.9559590131853533</v>
       </c>
       <c r="D24">
-        <v>0.9829098352513884</v>
+        <v>0.9829098352513882</v>
       </c>
       <c r="E24">
         <v>0.9683634505416752</v>
@@ -1275,13 +1275,13 @@
         <v>1.029331229979239</v>
       </c>
       <c r="J24">
-        <v>0.9852645211511315</v>
+        <v>0.9852645211511313</v>
       </c>
       <c r="K24">
-        <v>0.9972438709647987</v>
+        <v>0.9972438709647986</v>
       </c>
       <c r="L24">
-        <v>0.9829698909901622</v>
+        <v>0.982969890990162</v>
       </c>
       <c r="M24">
         <v>0.9691119438680401</v>
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9713336367000953</v>
+        <v>0.9713336367000962</v>
       </c>
       <c r="D25">
-        <v>0.9950233049914172</v>
+        <v>0.9950233049914183</v>
       </c>
       <c r="E25">
-        <v>0.9815591022226459</v>
+        <v>0.981559102222647</v>
       </c>
       <c r="F25">
-        <v>0.9714427193149621</v>
+        <v>0.9714427193149636</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034663702845168</v>
+        <v>1.034663702845169</v>
       </c>
       <c r="J25">
-        <v>0.9968658084620722</v>
+        <v>0.996865808462073</v>
       </c>
       <c r="K25">
-        <v>1.007699372154196</v>
+        <v>1.007699372154197</v>
       </c>
       <c r="L25">
-        <v>0.9944505979336957</v>
+        <v>0.9944505979336966</v>
       </c>
       <c r="M25">
-        <v>0.9845011408164702</v>
+        <v>0.9845011408164717</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9827721790532513</v>
+        <v>0.9827894833526707</v>
       </c>
       <c r="D2">
-        <v>1.004047040377511</v>
+        <v>1.004060937514405</v>
       </c>
       <c r="E2">
-        <v>0.9914041227398683</v>
+        <v>0.991420671046555</v>
       </c>
       <c r="F2">
-        <v>0.9842614365209308</v>
+        <v>0.9842772975076812</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038570594019026</v>
+        <v>1.038577644748786</v>
       </c>
       <c r="J2">
-        <v>1.005480671309009</v>
+        <v>1.00549743264391</v>
       </c>
       <c r="K2">
-        <v>1.015450279976887</v>
+        <v>1.015463985470367</v>
       </c>
       <c r="L2">
-        <v>1.002984525169073</v>
+        <v>1.003000837851707</v>
       </c>
       <c r="M2">
-        <v>0.9959444782313386</v>
+        <v>0.9959601092061457</v>
+      </c>
+      <c r="N2">
+        <v>1.005112163043016</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.99066778942689</v>
+        <v>0.9906799215333256</v>
       </c>
       <c r="D3">
-        <v>1.010279250131778</v>
+        <v>1.010289008953184</v>
       </c>
       <c r="E3">
-        <v>0.9982133799425114</v>
+        <v>0.9982252638315381</v>
       </c>
       <c r="F3">
-        <v>0.993119130431571</v>
+        <v>0.9931303432544064</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041230769594981</v>
+        <v>1.041235726802534</v>
       </c>
       <c r="J3">
-        <v>1.011416133819505</v>
+        <v>1.011427926631977</v>
       </c>
       <c r="K3">
-        <v>1.020782274046144</v>
+        <v>1.020791911149927</v>
       </c>
       <c r="L3">
-        <v>1.008869172063826</v>
+        <v>1.008880903217212</v>
       </c>
       <c r="M3">
-        <v>1.003840817003294</v>
+        <v>1.003851883858025</v>
+      </c>
+      <c r="N3">
+        <v>1.009249130464564</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9956061460843669</v>
+        <v>0.9956151118331421</v>
       </c>
       <c r="D4">
-        <v>1.014177916052544</v>
+        <v>1.014185136319214</v>
       </c>
       <c r="E4">
-        <v>1.002477899114413</v>
+        <v>1.002486924706291</v>
       </c>
       <c r="F4">
-        <v>0.9986641012351523</v>
+        <v>0.9986724834191504</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042877139661258</v>
+        <v>1.042880810237253</v>
       </c>
       <c r="J4">
-        <v>1.015122918840454</v>
+        <v>1.015131652497782</v>
       </c>
       <c r="K4">
-        <v>1.024108185428639</v>
+        <v>1.024115321541574</v>
       </c>
       <c r="L4">
-        <v>1.012546509792828</v>
+        <v>1.012555427122074</v>
       </c>
       <c r="M4">
-        <v>1.008778676163149</v>
+        <v>1.008786956846215</v>
+      </c>
+      <c r="N4">
+        <v>1.011830344768747</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9976438993456648</v>
+        <v>0.9976515729981309</v>
       </c>
       <c r="D5">
-        <v>1.015786697066649</v>
+        <v>1.015792880321946</v>
       </c>
       <c r="E5">
-        <v>1.004238864411388</v>
+        <v>1.004246723141721</v>
       </c>
       <c r="F5">
-        <v>1.000953406192958</v>
+        <v>1.000960636535176</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043552230112736</v>
+        <v>1.043555374537807</v>
       </c>
       <c r="J5">
-        <v>1.016651073492486</v>
+        <v>1.016658554996465</v>
       </c>
       <c r="K5">
-        <v>1.025478333387906</v>
+        <v>1.025484446652279</v>
       </c>
       <c r="L5">
-        <v>1.014063074563666</v>
+        <v>1.014070841790852</v>
       </c>
       <c r="M5">
-        <v>1.010816026342778</v>
+        <v>1.010823171813107</v>
+      </c>
+      <c r="N5">
+        <v>1.012893880202156</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.997983868037328</v>
+        <v>0.997991326919937</v>
       </c>
       <c r="D6">
-        <v>1.016055097304257</v>
+        <v>1.016061108127928</v>
       </c>
       <c r="E6">
-        <v>1.004532727044752</v>
+        <v>1.004540391798804</v>
       </c>
       <c r="F6">
-        <v>1.001335417375387</v>
+        <v>1.001342456443695</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043664605853249</v>
+        <v>1.043667662759139</v>
       </c>
       <c r="J6">
-        <v>1.016905938772833</v>
+        <v>1.016913211933028</v>
       </c>
       <c r="K6">
-        <v>1.025706787391969</v>
+        <v>1.025712730512763</v>
       </c>
       <c r="L6">
-        <v>1.014316039285855</v>
+        <v>1.014323615243955</v>
       </c>
       <c r="M6">
-        <v>1.011155916982635</v>
+        <v>1.011162873858123</v>
+      </c>
+      <c r="N6">
+        <v>1.013071220935366</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9956335221112353</v>
+        <v>0.9956424704466282</v>
       </c>
       <c r="D7">
-        <v>1.014199529070655</v>
+        <v>1.014206735365911</v>
       </c>
       <c r="E7">
-        <v>1.002501551764309</v>
+        <v>1.002510561632222</v>
       </c>
       <c r="F7">
-        <v>0.9986948517136066</v>
+        <v>0.9987032183618546</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042886226098172</v>
+        <v>1.042889889587641</v>
       </c>
       <c r="J7">
-        <v>1.015143454357519</v>
+        <v>1.015152171154403</v>
       </c>
       <c r="K7">
-        <v>1.024126601586898</v>
+        <v>1.024133723923808</v>
       </c>
       <c r="L7">
-        <v>1.012566887382413</v>
+        <v>1.012575789218936</v>
       </c>
       <c r="M7">
-        <v>1.008806047520102</v>
+        <v>1.008814312897358</v>
+      </c>
+      <c r="N7">
+        <v>1.011844639055428</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9854774627815296</v>
+        <v>0.9854929790840037</v>
       </c>
       <c r="D8">
-        <v>1.006182165477804</v>
+        <v>1.006194633208459</v>
       </c>
       <c r="E8">
-        <v>0.9937359402146778</v>
+        <v>0.9937508767885466</v>
       </c>
       <c r="F8">
-        <v>0.987295374765027</v>
+        <v>0.9873096254934208</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039485698328888</v>
+        <v>1.03949202647071</v>
       </c>
       <c r="J8">
-        <v>1.00751548714401</v>
+        <v>1.007530534900687</v>
       </c>
       <c r="K8">
-        <v>1.017279041559536</v>
+        <v>1.017291343005544</v>
       </c>
       <c r="L8">
-        <v>1.005001436105423</v>
+        <v>1.005016167130954</v>
       </c>
       <c r="M8">
-        <v>0.9986502335126416</v>
+        <v>0.99866428488736</v>
+      </c>
+      <c r="N8">
+        <v>1.006530904164223</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9661466337814565</v>
+        <v>0.9661753266101507</v>
       </c>
       <c r="D9">
-        <v>0.9909342115829727</v>
+        <v>0.9909571832277119</v>
       </c>
       <c r="E9">
-        <v>0.9771024398689805</v>
+        <v>0.9771292312758317</v>
       </c>
       <c r="F9">
-        <v>0.9656339484057819</v>
+        <v>0.9656601503005202</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032874093283334</v>
+        <v>1.032885719280902</v>
       </c>
       <c r="J9">
-        <v>0.992954210043887</v>
+        <v>0.9929817866431764</v>
       </c>
       <c r="K9">
-        <v>1.00417610753396</v>
+        <v>1.004198697658643</v>
       </c>
       <c r="L9">
-        <v>0.9905782697428864</v>
+        <v>0.9906045997547356</v>
       </c>
       <c r="M9">
-        <v>0.9793103366872021</v>
+        <v>0.9793360733239379</v>
+      </c>
+      <c r="N9">
+        <v>0.9963688418873186</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9520887178865057</v>
+        <v>0.9521276532057151</v>
       </c>
       <c r="D10">
-        <v>0.9798641304819727</v>
+        <v>0.9798952181200563</v>
       </c>
       <c r="E10">
-        <v>0.9650484714658248</v>
+        <v>0.9650844341134222</v>
       </c>
       <c r="F10">
-        <v>0.949899463078179</v>
+        <v>0.9499350893518389</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027976614655743</v>
+        <v>1.027992316764019</v>
       </c>
       <c r="J10">
-        <v>0.9823412189473633</v>
+        <v>0.9823783775098844</v>
       </c>
       <c r="K10">
-        <v>0.9946067171784793</v>
+        <v>0.9946372129625366</v>
       </c>
       <c r="L10">
-        <v>0.9800788248864613</v>
+        <v>0.980114074969561</v>
       </c>
       <c r="M10">
-        <v>0.9652363153465987</v>
+        <v>0.9652712056782959</v>
+      </c>
+      <c r="N10">
+        <v>0.9889512498294049</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9456677229059893</v>
+        <v>0.9457115518363293</v>
       </c>
       <c r="D11">
-        <v>0.9748149979782067</v>
+        <v>0.9748499477856203</v>
       </c>
       <c r="E11">
-        <v>0.9595548901348191</v>
+        <v>0.9595952186961724</v>
       </c>
       <c r="F11">
-        <v>0.9427152421203377</v>
+        <v>0.942755412303087</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025719926697014</v>
+        <v>1.025737563783584</v>
       </c>
       <c r="J11">
-        <v>0.977489491795321</v>
+        <v>0.9775311809103063</v>
       </c>
       <c r="K11">
-        <v>0.9902280257402446</v>
+        <v>0.9902622708692513</v>
       </c>
       <c r="L11">
-        <v>0.975282090223469</v>
+        <v>0.9753215710859169</v>
       </c>
       <c r="M11">
-        <v>0.9588048400662492</v>
+        <v>0.9588441252764337</v>
+      </c>
+      <c r="N11">
+        <v>0.9855581309098387</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9432267994845045</v>
+        <v>0.9432725273747401</v>
       </c>
       <c r="D12">
-        <v>0.9728969281072313</v>
+        <v>0.9729333739120761</v>
       </c>
       <c r="E12">
-        <v>0.9574685398233489</v>
+        <v>0.9575105596329174</v>
       </c>
       <c r="F12">
-        <v>0.9399843756484562</v>
+        <v>0.9400263162159033</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024859230579105</v>
+        <v>1.024877616403919</v>
       </c>
       <c r="J12">
-        <v>0.9756446269142749</v>
+        <v>0.9756880659822372</v>
       </c>
       <c r="K12">
-        <v>0.9885624765827322</v>
+        <v>0.9885981718815674</v>
       </c>
       <c r="L12">
-        <v>0.9734586022733113</v>
+        <v>0.9734997194206374</v>
       </c>
       <c r="M12">
-        <v>0.9563593715924084</v>
+        <v>0.9564003659407594</v>
+      </c>
+      <c r="N12">
+        <v>0.9842676180687719</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9437530167949824</v>
+        <v>0.9437983334451415</v>
       </c>
       <c r="D13">
-        <v>0.9733103627149975</v>
+        <v>0.9733464846745296</v>
       </c>
       <c r="E13">
-        <v>0.9579182232365516</v>
+        <v>0.9579598769301605</v>
       </c>
       <c r="F13">
-        <v>0.9405730938316971</v>
+        <v>0.9406146506662536</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025044905303317</v>
+        <v>1.025063129080975</v>
       </c>
       <c r="J13">
-        <v>0.976042365056032</v>
+        <v>0.9760854255353475</v>
       </c>
       <c r="K13">
-        <v>0.9889215798470999</v>
+        <v>0.9889569613203377</v>
       </c>
       <c r="L13">
-        <v>0.9738517106506912</v>
+        <v>0.9738924737027179</v>
       </c>
       <c r="M13">
-        <v>0.9568865956961911</v>
+        <v>0.9569272197368663</v>
+      </c>
+      <c r="N13">
+        <v>0.9845458543179021</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9454671318230694</v>
+        <v>0.9455111159827595</v>
       </c>
       <c r="D14">
-        <v>0.9746573452683446</v>
+        <v>0.9746924174222021</v>
       </c>
       <c r="E14">
-        <v>0.9593833951509657</v>
+        <v>0.959423862024977</v>
       </c>
       <c r="F14">
-        <v>0.942490821244913</v>
+        <v>0.9425311359974661</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02564925235752</v>
+        <v>1.025666950693623</v>
       </c>
       <c r="J14">
-        <v>0.9773378929731069</v>
+        <v>0.9773797253064094</v>
       </c>
       <c r="K14">
-        <v>0.9900911728312671</v>
+        <v>0.9901255366028776</v>
       </c>
       <c r="L14">
-        <v>0.9751322385624287</v>
+        <v>0.9751718532968731</v>
       </c>
       <c r="M14">
-        <v>0.9586038874277998</v>
+        <v>0.9586433122727692</v>
+      </c>
+      <c r="N14">
+        <v>0.9854520905297894</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9465156627870991</v>
+        <v>0.9465588371405645</v>
       </c>
       <c r="D15">
-        <v>0.9754814846959988</v>
+        <v>0.9755159184768137</v>
       </c>
       <c r="E15">
-        <v>0.9602799179848168</v>
+        <v>0.9603196631825258</v>
       </c>
       <c r="F15">
-        <v>0.9436639221614957</v>
+        <v>0.9437034830095162</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026018568112647</v>
+        <v>1.026035946832755</v>
       </c>
       <c r="J15">
-        <v>0.9781303121031736</v>
+        <v>0.9781713969570027</v>
       </c>
       <c r="K15">
-        <v>0.9908064916815229</v>
+        <v>0.9908402363189412</v>
       </c>
       <c r="L15">
-        <v>0.9759155440648949</v>
+        <v>0.9759544601861656</v>
       </c>
       <c r="M15">
-        <v>0.9596542849690299</v>
+        <v>0.9596929815144181</v>
+      </c>
+      <c r="N15">
+        <v>0.986006360865658</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9525073567996324</v>
+        <v>0.9525459780001531</v>
       </c>
       <c r="D16">
-        <v>0.9801934953240613</v>
+        <v>0.9802243347081359</v>
       </c>
       <c r="E16">
-        <v>0.9654069101514531</v>
+        <v>0.9654425921883758</v>
       </c>
       <c r="F16">
-        <v>0.9503679007600159</v>
+        <v>0.9504032362684254</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02812335182782</v>
+        <v>1.02813892945845</v>
       </c>
       <c r="J16">
-        <v>0.9826574683932279</v>
+        <v>0.9826943351033082</v>
       </c>
       <c r="K16">
-        <v>0.9948920536613777</v>
+        <v>0.9949223081687032</v>
       </c>
       <c r="L16">
-        <v>0.9803915535394743</v>
+        <v>0.980426531360055</v>
       </c>
       <c r="M16">
-        <v>0.9656555658926739</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9656901745911727</v>
+      </c>
+      <c r="N16">
+        <v>0.9891723818392709</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9561726506264575</v>
+        <v>0.9562085464153827</v>
       </c>
       <c r="D17">
-        <v>0.983078003384834</v>
+        <v>0.9831066870929464</v>
       </c>
       <c r="E17">
-        <v>0.9685465152135273</v>
+        <v>0.9685797607721059</v>
       </c>
       <c r="F17">
-        <v>0.9544694636301643</v>
+        <v>0.95450228095231</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029405872746195</v>
+        <v>1.029420368969344</v>
       </c>
       <c r="J17">
-        <v>0.985425857329255</v>
+        <v>0.9854601865164173</v>
       </c>
       <c r="K17">
-        <v>0.9973893878730338</v>
+        <v>0.9974175458702461</v>
       </c>
       <c r="L17">
-        <v>0.9831294685192378</v>
+        <v>0.9831620806089211</v>
       </c>
       <c r="M17">
-        <v>0.9693258550123861</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9693580225543406</v>
+      </c>
+      <c r="N17">
+        <v>0.9911078917076183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9582787771166702</v>
+        <v>0.9583131264961529</v>
       </c>
       <c r="D18">
-        <v>0.9847361300201564</v>
+        <v>0.9847635892122071</v>
       </c>
       <c r="E18">
-        <v>0.9703516905965757</v>
+        <v>0.9703835522828407</v>
       </c>
       <c r="F18">
-        <v>0.95682652820564</v>
+        <v>0.9568579203743846</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030140971136043</v>
+        <v>1.030154852647054</v>
       </c>
       <c r="J18">
-        <v>0.9870162071346633</v>
+        <v>0.9870490922747501</v>
       </c>
       <c r="K18">
-        <v>0.9988236440790365</v>
+        <v>0.9988506100233687</v>
       </c>
       <c r="L18">
-        <v>0.9847025998716864</v>
+        <v>0.9847338668731852</v>
       </c>
       <c r="M18">
-        <v>0.971434566727012</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9714653510636505</v>
+      </c>
+      <c r="N18">
+        <v>0.9922195739811019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9589916811112843</v>
+        <v>0.9590255102137657</v>
       </c>
       <c r="D19">
-        <v>0.9852974932163441</v>
+        <v>0.9853245402063591</v>
       </c>
       <c r="E19">
-        <v>0.970962909416978</v>
+        <v>0.9709943052866788</v>
       </c>
       <c r="F19">
-        <v>0.9576244201452535</v>
+        <v>0.957655333431797</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030389476348032</v>
+        <v>1.030403150861108</v>
       </c>
       <c r="J19">
-        <v>0.987554453392347</v>
+        <v>0.9875868520002076</v>
       </c>
       <c r="K19">
-        <v>0.9993089950610589</v>
+        <v>0.9993355595426512</v>
       </c>
       <c r="L19">
-        <v>0.9852350673878744</v>
+        <v>0.9852658813977738</v>
       </c>
       <c r="M19">
-        <v>0.9721482998436121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.972178619124586</v>
+      </c>
+      <c r="N19">
+        <v>0.9925957814729794</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9557827246337569</v>
+        <v>0.955818908276614</v>
       </c>
       <c r="D20">
-        <v>0.982771070548529</v>
+        <v>0.9827999820823441</v>
       </c>
       <c r="E20">
-        <v>0.9682123962258914</v>
+        <v>0.9682458992720705</v>
       </c>
       <c r="F20">
-        <v>0.9540331008956221</v>
+        <v>0.9540661837946982</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029269625988778</v>
+        <v>1.029284236546965</v>
       </c>
       <c r="J20">
-        <v>0.985131388054868</v>
+        <v>0.9851659857017016</v>
       </c>
       <c r="K20">
-        <v>0.997123789609053</v>
+        <v>0.9971521693000275</v>
       </c>
       <c r="L20">
-        <v>0.9828382107481926</v>
+        <v>0.9828710729968628</v>
       </c>
       <c r="M20">
-        <v>0.9689354278562191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9689678530260889</v>
+      </c>
+      <c r="N20">
+        <v>0.9909020355903477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9449639609435283</v>
+        <v>0.945008335131826</v>
       </c>
       <c r="D21">
-        <v>0.9742619053178732</v>
+        <v>0.9742972848341032</v>
       </c>
       <c r="E21">
-        <v>0.9589532432811906</v>
+        <v>0.9589940576300102</v>
       </c>
       <c r="F21">
-        <v>0.9419278771721314</v>
+        <v>0.9419685552874822</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025471925143547</v>
+        <v>1.025489777340046</v>
       </c>
       <c r="J21">
-        <v>0.976957608849555</v>
+        <v>0.9769998008992447</v>
       </c>
       <c r="K21">
-        <v>0.9897478699462106</v>
+        <v>0.9897825317405657</v>
       </c>
       <c r="L21">
-        <v>0.9747563446707413</v>
+        <v>0.974796295681182</v>
       </c>
       <c r="M21">
-        <v>0.9580998002535088</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9581395760053292</v>
+      </c>
+      <c r="N21">
+        <v>0.9851860849222933</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9378349019595691</v>
+        <v>0.9378849043705365</v>
       </c>
       <c r="D22">
-        <v>0.9686628066760999</v>
+        <v>0.9687026143743359</v>
       </c>
       <c r="E22">
-        <v>0.9528638606263845</v>
+        <v>0.9529096812113225</v>
       </c>
       <c r="F22">
-        <v>0.9339521252229195</v>
+        <v>0.9339980654037113</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022952948124815</v>
+        <v>1.022973015051201</v>
       </c>
       <c r="J22">
-        <v>0.9715686547870214</v>
+        <v>0.9716160165673028</v>
       </c>
       <c r="K22">
-        <v>0.9848817135464709</v>
+        <v>0.9849206635297754</v>
       </c>
       <c r="L22">
-        <v>0.9694307247008157</v>
+        <v>0.9694755138858221</v>
       </c>
       <c r="M22">
-        <v>0.9509562783037639</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9510011274432343</v>
+      </c>
+      <c r="N22">
+        <v>0.9814159407798989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9416473052751676</v>
+        <v>0.9416942737805069</v>
       </c>
       <c r="D23">
-        <v>0.9716561822320247</v>
+        <v>0.9716936045702131</v>
       </c>
       <c r="E23">
-        <v>0.9561190829035262</v>
+        <v>0.9561622067201655</v>
       </c>
       <c r="F23">
-        <v>0.9382172908584213</v>
+        <v>0.9382603901860459</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024301507573317</v>
+        <v>1.024320381922444</v>
       </c>
       <c r="J23">
-        <v>0.9744507151248231</v>
+        <v>0.9744952950302673</v>
       </c>
       <c r="K23">
-        <v>0.9874844600502545</v>
+        <v>0.9875211013391796</v>
       </c>
       <c r="L23">
-        <v>0.9722786564667982</v>
+        <v>0.9723208409664983</v>
       </c>
       <c r="M23">
-        <v>0.9547767650194783</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9548188770865921</v>
+      </c>
+      <c r="N23">
+        <v>0.983432383738762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9559590131853533</v>
+        <v>0.9559950666265782</v>
       </c>
       <c r="D24">
-        <v>0.9829098352513882</v>
+        <v>0.9829386437397225</v>
       </c>
       <c r="E24">
-        <v>0.9683634505416752</v>
+        <v>0.9683968371258268</v>
       </c>
       <c r="F24">
-        <v>0.9542303830595216</v>
+        <v>0.9542633458218369</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029331229979239</v>
+        <v>1.029345788825059</v>
       </c>
       <c r="J24">
-        <v>0.9852645211511313</v>
+        <v>0.9852989973819204</v>
       </c>
       <c r="K24">
-        <v>0.9972438709647986</v>
+        <v>0.997272150387331</v>
       </c>
       <c r="L24">
-        <v>0.982969890990162</v>
+        <v>0.9830026400959</v>
       </c>
       <c r="M24">
-        <v>0.9691119438680401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9691442525021025</v>
+      </c>
+      <c r="N24">
+        <v>0.9909951062559869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9713336367000962</v>
+        <v>0.9713586983417315</v>
       </c>
       <c r="D25">
-        <v>0.9950233049914183</v>
+        <v>0.9950433889576092</v>
       </c>
       <c r="E25">
-        <v>0.981559102222647</v>
+        <v>0.9815826323674194</v>
       </c>
       <c r="F25">
-        <v>0.9714427193149636</v>
+        <v>0.9714656082239008</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034663702845169</v>
+        <v>1.034673875063671</v>
       </c>
       <c r="J25">
-        <v>0.996865808462073</v>
+        <v>0.9968899552354515</v>
       </c>
       <c r="K25">
-        <v>1.007699372154197</v>
+        <v>1.007719140347496</v>
       </c>
       <c r="L25">
-        <v>0.9944505979336966</v>
+        <v>0.9944737449712828</v>
       </c>
       <c r="M25">
-        <v>0.9845011408164717</v>
+        <v>0.9845236469893547</v>
+      </c>
+      <c r="N25">
+        <v>0.9991006579908271</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9827894833526707</v>
+        <v>1.019449897121516</v>
       </c>
       <c r="D2">
-        <v>1.004060937514405</v>
+        <v>1.035906857333639</v>
       </c>
       <c r="E2">
-        <v>0.991420671046555</v>
+        <v>1.031736789816514</v>
       </c>
       <c r="F2">
-        <v>0.9842772975076812</v>
+        <v>1.041094870244933</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038577644748786</v>
+        <v>1.04871461820126</v>
       </c>
       <c r="J2">
-        <v>1.00549743264391</v>
+        <v>1.041064029889567</v>
       </c>
       <c r="K2">
-        <v>1.015463985470367</v>
+        <v>1.046887630120375</v>
       </c>
       <c r="L2">
-        <v>1.003000837851707</v>
+        <v>1.0427710019076</v>
       </c>
       <c r="M2">
-        <v>0.9959601092061457</v>
+        <v>1.052009904413552</v>
       </c>
       <c r="N2">
-        <v>1.005112163043016</v>
+        <v>1.042542460223724</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9906799215333256</v>
+        <v>1.028019158946817</v>
       </c>
       <c r="D3">
-        <v>1.010289008953184</v>
+        <v>1.042637881327151</v>
       </c>
       <c r="E3">
-        <v>0.9982252638315381</v>
+        <v>1.039083594036764</v>
       </c>
       <c r="F3">
-        <v>0.9931303432544064</v>
+        <v>1.048653442444441</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041235726802534</v>
+        <v>1.051151448528754</v>
       </c>
       <c r="J3">
-        <v>1.011427926631977</v>
+        <v>1.047774081254365</v>
       </c>
       <c r="K3">
-        <v>1.020791911149927</v>
+        <v>1.052752789606421</v>
       </c>
       <c r="L3">
-        <v>1.008880903217212</v>
+        <v>1.049239671559257</v>
       </c>
       <c r="M3">
-        <v>1.003851883858025</v>
+        <v>1.05869945691887</v>
       </c>
       <c r="N3">
-        <v>1.009249130464564</v>
+        <v>1.049262040631113</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9956151118331421</v>
+        <v>1.033385535339324</v>
       </c>
       <c r="D4">
-        <v>1.014185136319214</v>
+        <v>1.046855070950873</v>
       </c>
       <c r="E4">
-        <v>1.002486924706291</v>
+        <v>1.043690290195126</v>
       </c>
       <c r="F4">
-        <v>0.9986724834191504</v>
+        <v>1.053393583761387</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042880810237253</v>
+        <v>1.052663892693046</v>
       </c>
       <c r="J4">
-        <v>1.015131652497782</v>
+        <v>1.051972144365858</v>
       </c>
       <c r="K4">
-        <v>1.024115321541574</v>
+        <v>1.05641906520314</v>
       </c>
       <c r="L4">
-        <v>1.012555427122074</v>
+        <v>1.053288527032015</v>
       </c>
       <c r="M4">
-        <v>1.008786956846215</v>
+        <v>1.062887629714769</v>
       </c>
       <c r="N4">
-        <v>1.011830344768747</v>
+        <v>1.053466065473748</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9976515729981309</v>
+        <v>1.035601472482303</v>
       </c>
       <c r="D5">
-        <v>1.015792880321946</v>
+        <v>1.048596816026978</v>
       </c>
       <c r="E5">
-        <v>1.004246723141721</v>
+        <v>1.045593826288322</v>
       </c>
       <c r="F5">
-        <v>1.000960636535176</v>
+        <v>1.055352410614384</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043555374537807</v>
+        <v>1.053285090471594</v>
       </c>
       <c r="J5">
-        <v>1.016658554996465</v>
+        <v>1.053704607389091</v>
       </c>
       <c r="K5">
-        <v>1.025484446652279</v>
+        <v>1.057931271106583</v>
       </c>
       <c r="L5">
-        <v>1.014070841790852</v>
+        <v>1.054959832759727</v>
       </c>
       <c r="M5">
-        <v>1.010823171813107</v>
+        <v>1.064616687730443</v>
       </c>
       <c r="N5">
-        <v>1.012893880202156</v>
+        <v>1.055200988793192</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.997991326919937</v>
+        <v>1.035971259730359</v>
       </c>
       <c r="D6">
-        <v>1.016061108127928</v>
+        <v>1.048887488262117</v>
       </c>
       <c r="E6">
-        <v>1.004540391798804</v>
+        <v>1.045911554178052</v>
       </c>
       <c r="F6">
-        <v>1.001342456443695</v>
+        <v>1.055679375915843</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043667662759139</v>
+        <v>1.053388555295794</v>
       </c>
       <c r="J6">
-        <v>1.016913211933028</v>
+        <v>1.053993650736989</v>
       </c>
       <c r="K6">
-        <v>1.025712730512763</v>
+        <v>1.05818351898735</v>
       </c>
       <c r="L6">
-        <v>1.014323615243955</v>
+        <v>1.055238696790589</v>
       </c>
       <c r="M6">
-        <v>1.011162873858123</v>
+        <v>1.064905202030756</v>
       </c>
       <c r="N6">
-        <v>1.013071220935366</v>
+        <v>1.055490442615797</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9956424704466282</v>
+        <v>1.033415298999699</v>
       </c>
       <c r="D7">
-        <v>1.014206735365911</v>
+        <v>1.046878464253872</v>
       </c>
       <c r="E7">
-        <v>1.002510561632222</v>
+        <v>1.043715852819473</v>
       </c>
       <c r="F7">
-        <v>0.9987032183618546</v>
+        <v>1.053419888304035</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042889889587641</v>
+        <v>1.052672249701191</v>
       </c>
       <c r="J7">
-        <v>1.015152171154403</v>
+        <v>1.051995418408993</v>
       </c>
       <c r="K7">
-        <v>1.024133723923808</v>
+        <v>1.056439383498518</v>
       </c>
       <c r="L7">
-        <v>1.012575789218936</v>
+        <v>1.053310977848318</v>
       </c>
       <c r="M7">
-        <v>1.008814312897358</v>
+        <v>1.062910855369616</v>
       </c>
       <c r="N7">
-        <v>1.011844639055428</v>
+        <v>1.053489372568695</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9854929790840037</v>
+        <v>1.022384556590118</v>
       </c>
       <c r="D8">
-        <v>1.006194633208459</v>
+        <v>1.03821148171932</v>
       </c>
       <c r="E8">
-        <v>0.9937508767885466</v>
+        <v>1.034251488413803</v>
       </c>
       <c r="F8">
-        <v>0.9873096254934208</v>
+        <v>1.043681909030649</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03949202647071</v>
+        <v>1.049551967770997</v>
       </c>
       <c r="J8">
-        <v>1.007530534900687</v>
+        <v>1.043362773585996</v>
       </c>
       <c r="K8">
-        <v>1.017291343005544</v>
+        <v>1.048897583317519</v>
       </c>
       <c r="L8">
-        <v>1.005016167130954</v>
+        <v>1.044986659013223</v>
       </c>
       <c r="M8">
-        <v>0.99866428488736</v>
+        <v>1.054300986837348</v>
       </c>
       <c r="N8">
-        <v>1.006530904164223</v>
+        <v>1.044844468399871</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9661753266101507</v>
+        <v>1.001445826214858</v>
       </c>
       <c r="D9">
-        <v>0.9909571832277119</v>
+        <v>1.02178298716017</v>
       </c>
       <c r="E9">
-        <v>0.9771292312758317</v>
+        <v>1.016340083820604</v>
       </c>
       <c r="F9">
-        <v>0.9656601503005202</v>
+        <v>1.025258510241291</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032885719280902</v>
+        <v>1.043521879617892</v>
       </c>
       <c r="J9">
-        <v>0.9929817866431764</v>
+        <v>1.026947631735944</v>
       </c>
       <c r="K9">
-        <v>1.004198697658643</v>
+        <v>1.034532267069319</v>
       </c>
       <c r="L9">
-        <v>0.9906045997547356</v>
+        <v>1.029173502886703</v>
       </c>
       <c r="M9">
-        <v>0.9793360733239379</v>
+        <v>1.037954659584331</v>
       </c>
       <c r="N9">
-        <v>0.9963688418873186</v>
+        <v>1.028406015165548</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9521276532057151</v>
+        <v>0.986261807129588</v>
       </c>
       <c r="D10">
-        <v>0.9798952181200563</v>
+        <v>1.009897075646166</v>
       </c>
       <c r="E10">
-        <v>0.9650844341134222</v>
+        <v>1.003398210720605</v>
       </c>
       <c r="F10">
-        <v>0.9499350893518389</v>
+        <v>1.011951416503547</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027992316764019</v>
+        <v>1.039081901243288</v>
       </c>
       <c r="J10">
-        <v>0.9823783775098844</v>
+        <v>1.015031300708238</v>
       </c>
       <c r="K10">
-        <v>0.9946372129625366</v>
+        <v>1.024089905390801</v>
       </c>
       <c r="L10">
-        <v>0.980114074969561</v>
+        <v>1.017706379297029</v>
       </c>
       <c r="M10">
-        <v>0.9652712056782959</v>
+        <v>1.026108185983364</v>
       </c>
       <c r="N10">
-        <v>0.9889512498294049</v>
+        <v>1.016472761580961</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9457115518363293</v>
+        <v>0.979338073348362</v>
       </c>
       <c r="D11">
-        <v>0.9748499477856203</v>
+        <v>1.004486821878535</v>
       </c>
       <c r="E11">
-        <v>0.9595952186961724</v>
+        <v>0.9975106517852577</v>
       </c>
       <c r="F11">
-        <v>0.942755412303087</v>
+        <v>1.005899031482826</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025737563783584</v>
+        <v>1.037042937580746</v>
       </c>
       <c r="J11">
-        <v>0.9775311809103063</v>
+        <v>1.009596411027721</v>
       </c>
       <c r="K11">
-        <v>0.9902622708692513</v>
+        <v>1.0193246164693</v>
       </c>
       <c r="L11">
-        <v>0.9753215710859169</v>
+        <v>1.012479666755068</v>
       </c>
       <c r="M11">
-        <v>0.9588441252764337</v>
+        <v>1.020710551604495</v>
       </c>
       <c r="N11">
-        <v>0.9855581309098387</v>
+        <v>1.011030153733708</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9432725273747401</v>
+        <v>0.9767079312405323</v>
       </c>
       <c r="D12">
-        <v>0.9729333739120761</v>
+        <v>1.002433353104152</v>
       </c>
       <c r="E12">
-        <v>0.9575105596329174</v>
+        <v>0.9952764589256592</v>
       </c>
       <c r="F12">
-        <v>0.9400263162159033</v>
+        <v>1.003602509346678</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024877616403919</v>
+        <v>1.036266384030943</v>
       </c>
       <c r="J12">
-        <v>0.9756880659822372</v>
+        <v>1.007531845458487</v>
       </c>
       <c r="K12">
-        <v>0.9885981718815674</v>
+        <v>1.017514081926013</v>
       </c>
       <c r="L12">
-        <v>0.9734997194206374</v>
+        <v>1.010494717514507</v>
       </c>
       <c r="M12">
-        <v>0.9564003659407594</v>
+        <v>1.018661014892715</v>
       </c>
       <c r="N12">
-        <v>0.9842676180687719</v>
+        <v>1.008962656244556</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9437983334451415</v>
+        <v>0.9772748521970931</v>
       </c>
       <c r="D13">
-        <v>0.9733464846745296</v>
+        <v>1.002875889574552</v>
       </c>
       <c r="E13">
-        <v>0.9579598769301605</v>
+        <v>0.995757924058153</v>
       </c>
       <c r="F13">
-        <v>0.9406146506662536</v>
+        <v>1.004097396138814</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025063129080975</v>
+        <v>1.036433856070243</v>
       </c>
       <c r="J13">
-        <v>0.9760854255353475</v>
+        <v>1.007976854328589</v>
       </c>
       <c r="K13">
-        <v>0.9889569613203377</v>
+        <v>1.017904349219137</v>
       </c>
       <c r="L13">
-        <v>0.9738924737027179</v>
+        <v>1.010922540545159</v>
       </c>
       <c r="M13">
-        <v>0.9569272197368663</v>
+        <v>1.019102743651287</v>
       </c>
       <c r="N13">
-        <v>0.9845458543179021</v>
+        <v>1.009408297078297</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9455111159827595</v>
+        <v>0.979121893187282</v>
       </c>
       <c r="D14">
-        <v>0.9746924174222021</v>
+        <v>1.004318003244812</v>
       </c>
       <c r="E14">
-        <v>0.959423862024977</v>
+        <v>0.9973269671018546</v>
       </c>
       <c r="F14">
-        <v>0.9425311359974661</v>
+        <v>1.00571021783372</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025666950693623</v>
+        <v>1.036979149703225</v>
       </c>
       <c r="J14">
-        <v>0.9773797253064094</v>
+        <v>1.009426716266128</v>
       </c>
       <c r="K14">
-        <v>0.9901255366028776</v>
+        <v>1.019175807821035</v>
       </c>
       <c r="L14">
-        <v>0.9751718532968731</v>
+        <v>1.012316504876644</v>
       </c>
       <c r="M14">
-        <v>0.9586433122727692</v>
+        <v>1.020542073956696</v>
       </c>
       <c r="N14">
-        <v>0.9854520905297894</v>
+        <v>1.010860217986088</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9465588371405645</v>
+        <v>0.9802519893929491</v>
       </c>
       <c r="D15">
-        <v>0.9755159184768137</v>
+        <v>1.005200586524734</v>
       </c>
       <c r="E15">
-        <v>0.9603196631825258</v>
+        <v>0.9982872874000751</v>
       </c>
       <c r="F15">
-        <v>0.9437034830095162</v>
+        <v>1.006697361825765</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026035946832755</v>
+        <v>1.037312524679497</v>
       </c>
       <c r="J15">
-        <v>0.9781713969570027</v>
+        <v>1.010313808268195</v>
       </c>
       <c r="K15">
-        <v>0.9908402363189412</v>
+        <v>1.019953703062985</v>
       </c>
       <c r="L15">
-        <v>0.9759544601861656</v>
+        <v>1.013169467729</v>
       </c>
       <c r="M15">
-        <v>0.9596929815144181</v>
+        <v>1.021422839394216</v>
       </c>
       <c r="N15">
-        <v>0.986006360865658</v>
+        <v>1.01174856976055</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9525459780001531</v>
+        <v>0.9867134750382818</v>
       </c>
       <c r="D16">
-        <v>0.9802243347081359</v>
+        <v>1.010250234177448</v>
       </c>
       <c r="E16">
-        <v>0.9654425921883758</v>
+        <v>1.003782589558288</v>
       </c>
       <c r="F16">
-        <v>0.9504032362684254</v>
+        <v>1.012346585164745</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02813892945845</v>
+        <v>1.039214628342818</v>
       </c>
       <c r="J16">
-        <v>0.9826943351033082</v>
+        <v>1.015385834534455</v>
       </c>
       <c r="K16">
-        <v>0.9949223081687032</v>
+        <v>1.024400709810596</v>
       </c>
       <c r="L16">
-        <v>0.980426531360055</v>
+        <v>1.018047404376522</v>
       </c>
       <c r="M16">
-        <v>0.9656901745911727</v>
+        <v>1.026460406129373</v>
       </c>
       <c r="N16">
-        <v>0.9891723818392709</v>
+        <v>1.016827798885877</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9562085464153827</v>
+        <v>0.9906692639545673</v>
       </c>
       <c r="D17">
-        <v>0.9831066870929464</v>
+        <v>1.013344368764248</v>
       </c>
       <c r="E17">
-        <v>0.9685797607721059</v>
+        <v>1.007150624955878</v>
       </c>
       <c r="F17">
-        <v>0.95450228095231</v>
+        <v>1.015809314759293</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029420368969344</v>
+        <v>1.040375476319928</v>
       </c>
       <c r="J17">
-        <v>0.9854601865164173</v>
+        <v>1.018490791785652</v>
       </c>
       <c r="K17">
-        <v>0.9974175458702461</v>
+        <v>1.027122399580761</v>
       </c>
       <c r="L17">
-        <v>0.9831620806089211</v>
+        <v>1.021034428774484</v>
       </c>
       <c r="M17">
-        <v>0.9693580225543406</v>
+        <v>1.029545713490185</v>
       </c>
       <c r="N17">
-        <v>0.9911078917076183</v>
+        <v>1.019937165532515</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9583131264961529</v>
+        <v>0.9929433861547302</v>
       </c>
       <c r="D18">
-        <v>0.9847635892122071</v>
+        <v>1.015124013728176</v>
       </c>
       <c r="E18">
-        <v>0.9703835522828407</v>
+        <v>1.009088126898585</v>
       </c>
       <c r="F18">
-        <v>0.9568579203743846</v>
+        <v>1.01780141296654</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030154852647054</v>
+        <v>1.041041473712354</v>
       </c>
       <c r="J18">
-        <v>0.9870490922747501</v>
+        <v>1.020275660378872</v>
       </c>
       <c r="K18">
-        <v>0.9988506100233687</v>
+        <v>1.028686695536047</v>
       </c>
       <c r="L18">
-        <v>0.9847338668731852</v>
+        <v>1.022751809939876</v>
       </c>
       <c r="M18">
-        <v>0.9714653510636505</v>
+        <v>1.031319786137409</v>
       </c>
       <c r="N18">
-        <v>0.9922195739811019</v>
+        <v>1.021724568843864</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9590255102137657</v>
+        <v>0.993713333318083</v>
       </c>
       <c r="D19">
-        <v>0.9853245402063591</v>
+        <v>1.015726686347879</v>
       </c>
       <c r="E19">
-        <v>0.9709943052866788</v>
+        <v>1.00974431319299</v>
       </c>
       <c r="F19">
-        <v>0.957655333431797</v>
+        <v>1.018476109937173</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030403150861108</v>
+        <v>1.041266725419982</v>
       </c>
       <c r="J19">
-        <v>0.9875868520002076</v>
+        <v>1.020879935549284</v>
       </c>
       <c r="K19">
-        <v>0.9993355595426512</v>
+        <v>1.029216250046975</v>
       </c>
       <c r="L19">
-        <v>0.9852658813977738</v>
+        <v>1.023333287710533</v>
       </c>
       <c r="M19">
-        <v>0.972178619124586</v>
+        <v>1.031920489257063</v>
       </c>
       <c r="N19">
-        <v>0.9925957814729794</v>
+        <v>1.022329702154329</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.955818908276614</v>
+        <v>0.9902483215264554</v>
       </c>
       <c r="D20">
-        <v>0.9827999820823441</v>
+        <v>1.013015023512072</v>
       </c>
       <c r="E20">
-        <v>0.9682458992720705</v>
+        <v>1.006792092554787</v>
       </c>
       <c r="F20">
-        <v>0.9540661837946982</v>
+        <v>1.015440689169019</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029284236546965</v>
+        <v>1.040252088485852</v>
       </c>
       <c r="J20">
-        <v>0.9851659857017016</v>
+        <v>1.018160399496894</v>
       </c>
       <c r="K20">
-        <v>0.9971521693000275</v>
+        <v>1.026832815918695</v>
       </c>
       <c r="L20">
-        <v>0.9828710729968628</v>
+        <v>1.020716553428684</v>
       </c>
       <c r="M20">
-        <v>0.9689678530260889</v>
+        <v>1.029217359695099</v>
       </c>
       <c r="N20">
-        <v>0.9909020355903477</v>
+        <v>1.01960630404881</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.945008335131826</v>
+        <v>0.9785796490627154</v>
       </c>
       <c r="D21">
-        <v>0.9742972848341032</v>
+        <v>1.003894585010337</v>
       </c>
       <c r="E21">
-        <v>0.9589940576300102</v>
+        <v>0.9968662697521814</v>
       </c>
       <c r="F21">
-        <v>0.9419685552874822</v>
+        <v>1.005236660169262</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025489777340046</v>
+        <v>1.036819119087237</v>
       </c>
       <c r="J21">
-        <v>0.9769998008992447</v>
+        <v>1.009001072079779</v>
       </c>
       <c r="K21">
-        <v>0.9897825317405657</v>
+        <v>1.018802547039295</v>
       </c>
       <c r="L21">
-        <v>0.974796295681182</v>
+        <v>1.011907255824552</v>
       </c>
       <c r="M21">
-        <v>0.9581395760053292</v>
+        <v>1.020119496971939</v>
       </c>
       <c r="N21">
-        <v>0.9851860849222933</v>
+        <v>1.010433969336173</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9378849043705365</v>
+        <v>0.9709017674409319</v>
       </c>
       <c r="D22">
-        <v>0.9687026143743359</v>
+        <v>0.9979038182375964</v>
       </c>
       <c r="E22">
-        <v>0.9529096812113225</v>
+        <v>0.9903490116960308</v>
       </c>
       <c r="F22">
-        <v>0.9339980654037113</v>
+        <v>0.9985380249373842</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022973015051201</v>
+        <v>1.034548590425215</v>
       </c>
       <c r="J22">
-        <v>0.9716160165673028</v>
+        <v>1.002974452807763</v>
       </c>
       <c r="K22">
-        <v>0.9849206635297754</v>
+        <v>1.013516915585456</v>
       </c>
       <c r="L22">
-        <v>0.9694755138858221</v>
+        <v>1.006114111991296</v>
       </c>
       <c r="M22">
-        <v>0.9510011274432343</v>
+        <v>1.014138499580421</v>
       </c>
       <c r="N22">
-        <v>0.9814159407798989</v>
+        <v>1.004398791573528</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9416942737805069</v>
+        <v>0.9750065528638283</v>
       </c>
       <c r="D23">
-        <v>0.9716936045702131</v>
+        <v>1.001105544440701</v>
       </c>
       <c r="E23">
-        <v>0.9561622067201655</v>
+        <v>0.9938319053930019</v>
       </c>
       <c r="F23">
-        <v>0.9382603901860459</v>
+        <v>1.002117720147892</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024320381922444</v>
+        <v>1.035763505233661</v>
       </c>
       <c r="J23">
-        <v>0.9744952950302673</v>
+        <v>1.00619635185517</v>
       </c>
       <c r="K23">
-        <v>0.9875211013391796</v>
+        <v>1.016342827535671</v>
       </c>
       <c r="L23">
-        <v>0.9723208409664983</v>
+        <v>1.009210881385434</v>
       </c>
       <c r="M23">
-        <v>0.9548188770865921</v>
+        <v>1.017335499222264</v>
       </c>
       <c r="N23">
-        <v>0.983432383738762</v>
+        <v>1.007625266087139</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9559950666265782</v>
+        <v>0.9904386295205344</v>
       </c>
       <c r="D24">
-        <v>0.9829386437397225</v>
+        <v>1.013163917742465</v>
       </c>
       <c r="E24">
-        <v>0.9683968371258268</v>
+        <v>1.006954181056904</v>
       </c>
       <c r="F24">
-        <v>0.9542633458218369</v>
+        <v>1.015607340310708</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029345788825059</v>
+        <v>1.040307876330924</v>
       </c>
       <c r="J24">
-        <v>0.9852989973819204</v>
+        <v>1.018309770187</v>
       </c>
       <c r="K24">
-        <v>0.997272150387331</v>
+        <v>1.026963737779605</v>
       </c>
       <c r="L24">
-        <v>0.9830026400959</v>
+        <v>1.020860264248618</v>
       </c>
       <c r="M24">
-        <v>0.9691442525021025</v>
+        <v>1.029365807231235</v>
       </c>
       <c r="N24">
-        <v>0.9909951062559869</v>
+        <v>1.019755886862429</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9713586983417315</v>
+        <v>1.007057329170476</v>
       </c>
       <c r="D25">
-        <v>0.9950433889576092</v>
+        <v>1.026182005795134</v>
       </c>
       <c r="E25">
-        <v>0.9815826323674194</v>
+        <v>1.021133115808868</v>
       </c>
       <c r="F25">
-        <v>0.9714656082239008</v>
+        <v>1.030187807631476</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034673875063671</v>
+        <v>1.045149747577209</v>
       </c>
       <c r="J25">
-        <v>0.9968899552354515</v>
+        <v>1.03134949809325</v>
       </c>
       <c r="K25">
-        <v>1.007719140347496</v>
+        <v>1.038387034483217</v>
       </c>
       <c r="L25">
-        <v>0.9944737449712828</v>
+        <v>1.033411991842848</v>
       </c>
       <c r="M25">
-        <v>0.9845236469893547</v>
+        <v>1.04233489801305</v>
       </c>
       <c r="N25">
-        <v>0.9991006579908271</v>
+        <v>1.032814132677983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019449897121516</v>
+        <v>1.066278323345225</v>
       </c>
       <c r="D2">
-        <v>1.035906857333639</v>
+        <v>1.080603647651889</v>
       </c>
       <c r="E2">
-        <v>1.031736789816514</v>
+        <v>1.072735418433218</v>
       </c>
       <c r="F2">
-        <v>1.041094870244933</v>
+        <v>1.086404652093308</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04871461820126</v>
+        <v>1.085428765940927</v>
       </c>
       <c r="J2">
-        <v>1.041064029889567</v>
+        <v>1.086642516609893</v>
       </c>
       <c r="K2">
-        <v>1.046887630120375</v>
+        <v>1.09104364673932</v>
       </c>
       <c r="L2">
-        <v>1.0427710019076</v>
+        <v>1.083266568600412</v>
       </c>
       <c r="M2">
-        <v>1.052009904413552</v>
+        <v>1.096778490860024</v>
       </c>
       <c r="N2">
-        <v>1.042542460223724</v>
+        <v>1.088185673623117</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028019158946817</v>
+        <v>1.07317187916419</v>
       </c>
       <c r="D3">
-        <v>1.042637881327151</v>
+        <v>1.086297305498456</v>
       </c>
       <c r="E3">
-        <v>1.039083594036764</v>
+        <v>1.078813895080814</v>
       </c>
       <c r="F3">
-        <v>1.048653442444441</v>
+        <v>1.092597345637605</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051151448528754</v>
+        <v>1.088631111820889</v>
       </c>
       <c r="J3">
-        <v>1.047774081254365</v>
+        <v>1.091848769577433</v>
       </c>
       <c r="K3">
-        <v>1.052752789606421</v>
+        <v>1.095933387614816</v>
       </c>
       <c r="L3">
-        <v>1.049239671559257</v>
+        <v>1.088528680918042</v>
       </c>
       <c r="M3">
-        <v>1.05869945691887</v>
+        <v>1.102168189255336</v>
       </c>
       <c r="N3">
-        <v>1.049262040631113</v>
+        <v>1.093399320067038</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033385535339324</v>
+        <v>1.077509035637123</v>
       </c>
       <c r="D4">
-        <v>1.046855070950873</v>
+        <v>1.089881485089798</v>
       </c>
       <c r="E4">
-        <v>1.043690290195126</v>
+        <v>1.082638709674963</v>
       </c>
       <c r="F4">
-        <v>1.053393583761387</v>
+        <v>1.096497177846752</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052663892693046</v>
+        <v>1.090634546868089</v>
       </c>
       <c r="J4">
-        <v>1.051972144365858</v>
+        <v>1.09511833909261</v>
       </c>
       <c r="K4">
-        <v>1.05641906520314</v>
+        <v>1.099003897488792</v>
       </c>
       <c r="L4">
-        <v>1.053288527032015</v>
+        <v>1.091832469035023</v>
       </c>
       <c r="M4">
-        <v>1.062887629714769</v>
+        <v>1.105555418074976</v>
       </c>
       <c r="N4">
-        <v>1.053466065473748</v>
+        <v>1.096673532745951</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035601472482303</v>
+        <v>1.079304325500998</v>
       </c>
       <c r="D5">
-        <v>1.048596816026978</v>
+        <v>1.091365499870532</v>
       </c>
       <c r="E5">
-        <v>1.045593826288322</v>
+        <v>1.084221986769481</v>
       </c>
       <c r="F5">
-        <v>1.055352410614384</v>
+        <v>1.098112257175523</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053285090471594</v>
+        <v>1.091461072050369</v>
       </c>
       <c r="J5">
-        <v>1.053704607389091</v>
+        <v>1.096470241970529</v>
       </c>
       <c r="K5">
-        <v>1.057931271106583</v>
+        <v>1.100273414573103</v>
       </c>
       <c r="L5">
-        <v>1.054959832759727</v>
+        <v>1.093198308908688</v>
       </c>
       <c r="M5">
-        <v>1.064616687730443</v>
+        <v>1.106956550553791</v>
       </c>
       <c r="N5">
-        <v>1.055200988793192</v>
+        <v>1.098027355481022</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035971259730359</v>
+        <v>1.079604159189604</v>
       </c>
       <c r="D6">
-        <v>1.048887488262117</v>
+        <v>1.091613369276952</v>
       </c>
       <c r="E6">
-        <v>1.045911554178052</v>
+        <v>1.084486414147088</v>
       </c>
       <c r="F6">
-        <v>1.055679375915843</v>
+        <v>1.098382039784686</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053388555295794</v>
+        <v>1.091598947643837</v>
       </c>
       <c r="J6">
-        <v>1.053993650736989</v>
+        <v>1.096695937031169</v>
       </c>
       <c r="K6">
-        <v>1.05818351898735</v>
+        <v>1.100485350748661</v>
       </c>
       <c r="L6">
-        <v>1.055238696790589</v>
+        <v>1.093426318106393</v>
       </c>
       <c r="M6">
-        <v>1.064905202030756</v>
+        <v>1.107190498163518</v>
       </c>
       <c r="N6">
-        <v>1.055490442615797</v>
+        <v>1.098253371054536</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033415298999699</v>
+        <v>1.077533132707661</v>
       </c>
       <c r="D7">
-        <v>1.046878464253872</v>
+        <v>1.089901402577388</v>
       </c>
       <c r="E7">
-        <v>1.043715852819473</v>
+        <v>1.082659960848438</v>
       </c>
       <c r="F7">
-        <v>1.053419888304035</v>
+        <v>1.096518852924181</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052672249701191</v>
+        <v>1.090645651780399</v>
       </c>
       <c r="J7">
-        <v>1.051995418408993</v>
+        <v>1.0951364907493</v>
       </c>
       <c r="K7">
-        <v>1.056439383498518</v>
+        <v>1.099020943295526</v>
       </c>
       <c r="L7">
-        <v>1.053310977848318</v>
+        <v>1.091850808664613</v>
       </c>
       <c r="M7">
-        <v>1.062910855369616</v>
+        <v>1.105574228441436</v>
       </c>
       <c r="N7">
-        <v>1.053489372568695</v>
+        <v>1.096691710180076</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022384556590118</v>
+        <v>1.068634530576523</v>
       </c>
       <c r="D8">
-        <v>1.03821148171932</v>
+        <v>1.082549280814006</v>
       </c>
       <c r="E8">
-        <v>1.034251488413803</v>
+        <v>1.074812900056936</v>
       </c>
       <c r="F8">
-        <v>1.043681909030649</v>
+        <v>1.088520502815052</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049551967770997</v>
+        <v>1.086525693370294</v>
       </c>
       <c r="J8">
-        <v>1.043362773585996</v>
+        <v>1.088423247163256</v>
       </c>
       <c r="K8">
-        <v>1.048897583317519</v>
+        <v>1.092716173109644</v>
       </c>
       <c r="L8">
-        <v>1.044986659013223</v>
+        <v>1.085066583707915</v>
       </c>
       <c r="M8">
-        <v>1.054300986837348</v>
+        <v>1.098621442783536</v>
       </c>
       <c r="N8">
-        <v>1.044844468399871</v>
+        <v>1.089968933018119</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001445826214858</v>
+        <v>1.051934806149023</v>
       </c>
       <c r="D9">
-        <v>1.02178298716017</v>
+        <v>1.0687707308358</v>
       </c>
       <c r="E9">
-        <v>1.016340083820604</v>
+        <v>1.060093049664593</v>
       </c>
       <c r="F9">
-        <v>1.025258510241291</v>
+        <v>1.073542648312162</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043521879617892</v>
+        <v>1.078703870581229</v>
       </c>
       <c r="J9">
-        <v>1.026947631735944</v>
+        <v>1.075778084996036</v>
       </c>
       <c r="K9">
-        <v>1.034532267069319</v>
+        <v>1.080838564900236</v>
       </c>
       <c r="L9">
-        <v>1.029173502886703</v>
+        <v>1.072280989808602</v>
       </c>
       <c r="M9">
-        <v>1.037954659584331</v>
+        <v>1.085545476236767</v>
       </c>
       <c r="N9">
-        <v>1.028406015165548</v>
+        <v>1.077305813270201</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.986261807129588</v>
+        <v>1.040001524159007</v>
       </c>
       <c r="D10">
-        <v>1.009897075646166</v>
+        <v>1.058942679436148</v>
       </c>
       <c r="E10">
-        <v>1.003398210720605</v>
+        <v>1.049583104483136</v>
       </c>
       <c r="F10">
-        <v>1.011951416503547</v>
+        <v>1.062866601549575</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039081901243288</v>
+        <v>1.073055946439197</v>
       </c>
       <c r="J10">
-        <v>1.015031300708238</v>
+        <v>1.06671326950124</v>
       </c>
       <c r="K10">
-        <v>1.024089905390801</v>
+        <v>1.072323449255996</v>
       </c>
       <c r="L10">
-        <v>1.017706379297029</v>
+        <v>1.063111332960115</v>
       </c>
       <c r="M10">
-        <v>1.026108185983364</v>
+        <v>1.076186537170964</v>
       </c>
       <c r="N10">
-        <v>1.016472761580961</v>
+        <v>1.068228124697654</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.979338073348362</v>
+        <v>1.034614913190976</v>
       </c>
       <c r="D11">
-        <v>1.004486821878535</v>
+        <v>1.054511830272547</v>
       </c>
       <c r="E11">
-        <v>0.9975106517852577</v>
+        <v>1.044842069614297</v>
       </c>
       <c r="F11">
-        <v>1.005899031482826</v>
+        <v>1.05805507964778</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037042937580746</v>
+        <v>1.070493255629462</v>
       </c>
       <c r="J11">
-        <v>1.009596411027721</v>
+        <v>1.0626153499877</v>
       </c>
       <c r="K11">
-        <v>1.0193246164693</v>
+        <v>1.068474087571956</v>
       </c>
       <c r="L11">
-        <v>1.012479666755068</v>
+        <v>1.058965136970226</v>
       </c>
       <c r="M11">
-        <v>1.020710551604495</v>
+        <v>1.071959357498117</v>
       </c>
       <c r="N11">
-        <v>1.011030153733708</v>
+        <v>1.064124385668366</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9767079312405323</v>
+        <v>1.032578245120308</v>
       </c>
       <c r="D12">
-        <v>1.002433353104152</v>
+        <v>1.052837474025273</v>
       </c>
       <c r="E12">
-        <v>0.9952764589256592</v>
+        <v>1.043050058224539</v>
       </c>
       <c r="F12">
-        <v>1.003602509346678</v>
+        <v>1.05623710588727</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036266384030943</v>
+        <v>1.069522378996173</v>
       </c>
       <c r="J12">
-        <v>1.007531845458487</v>
+        <v>1.061065084714492</v>
       </c>
       <c r="K12">
-        <v>1.017514081926013</v>
+        <v>1.067017878431742</v>
       </c>
       <c r="L12">
-        <v>1.010494717514507</v>
+        <v>1.05739648700423</v>
       </c>
       <c r="M12">
-        <v>1.018661014892715</v>
+        <v>1.070360769399045</v>
       </c>
       <c r="N12">
-        <v>1.008962656244556</v>
+        <v>1.062571918840653</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9772748521970931</v>
+        <v>1.033016789118975</v>
       </c>
       <c r="D13">
-        <v>1.002875889574552</v>
+        <v>1.05319795906776</v>
       </c>
       <c r="E13">
-        <v>0.995757924058153</v>
+        <v>1.043435894446708</v>
       </c>
       <c r="F13">
-        <v>1.004097396138814</v>
+        <v>1.056628501116406</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036433856070243</v>
+        <v>1.069731518203104</v>
       </c>
       <c r="J13">
-        <v>1.007976854328589</v>
+        <v>1.061398931534508</v>
       </c>
       <c r="K13">
-        <v>1.017904349219137</v>
+        <v>1.067331469001095</v>
       </c>
       <c r="L13">
-        <v>1.010922540545159</v>
+        <v>1.057734298224397</v>
       </c>
       <c r="M13">
-        <v>1.019102743651287</v>
+        <v>1.070704996055058</v>
       </c>
       <c r="N13">
-        <v>1.009408297078297</v>
+        <v>1.062906239761446</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.979121893187282</v>
+        <v>1.034447310557354</v>
       </c>
       <c r="D14">
-        <v>1.004318003244812</v>
+        <v>1.054374023422754</v>
       </c>
       <c r="E14">
-        <v>0.9973269671018546</v>
+        <v>1.044694588315042</v>
       </c>
       <c r="F14">
-        <v>1.00571021783372</v>
+        <v>1.05790544778507</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036979149703225</v>
+        <v>1.070413398422833</v>
       </c>
       <c r="J14">
-        <v>1.009426716266128</v>
+        <v>1.062487791484454</v>
       </c>
       <c r="K14">
-        <v>1.019175807821035</v>
+        <v>1.068354267552601</v>
       </c>
       <c r="L14">
-        <v>1.012316504876644</v>
+        <v>1.058836068137542</v>
       </c>
       <c r="M14">
-        <v>1.020542073956696</v>
+        <v>1.071827811080744</v>
       </c>
       <c r="N14">
-        <v>1.010860217986088</v>
+        <v>1.063996646017415</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9802519893929491</v>
+        <v>1.035323860972576</v>
       </c>
       <c r="D15">
-        <v>1.005200586524734</v>
+        <v>1.055094782854511</v>
       </c>
       <c r="E15">
-        <v>0.9982872874000751</v>
+        <v>1.04546592913633</v>
       </c>
       <c r="F15">
-        <v>1.006697361825765</v>
+        <v>1.058688063993176</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037312524679497</v>
+        <v>1.070830968212058</v>
       </c>
       <c r="J15">
-        <v>1.010313808268195</v>
+        <v>1.06315487971922</v>
       </c>
       <c r="K15">
-        <v>1.019953703062985</v>
+        <v>1.068980887244586</v>
       </c>
       <c r="L15">
-        <v>1.013169467729</v>
+        <v>1.059511050021512</v>
       </c>
       <c r="M15">
-        <v>1.021422839394216</v>
+        <v>1.072515778353244</v>
       </c>
       <c r="N15">
-        <v>1.01174856976055</v>
+        <v>1.064664681593991</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9867134750382818</v>
+        <v>1.04035415499156</v>
       </c>
       <c r="D16">
-        <v>1.010250234177448</v>
+        <v>1.059232864992403</v>
       </c>
       <c r="E16">
-        <v>1.003782589558288</v>
+        <v>1.049893545403929</v>
       </c>
       <c r="F16">
-        <v>1.012346585164745</v>
+        <v>1.063181751036547</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039214628342818</v>
+        <v>1.073223441885386</v>
       </c>
       <c r="J16">
-        <v>1.015385834534455</v>
+        <v>1.06698141600738</v>
       </c>
       <c r="K16">
-        <v>1.024400709810596</v>
+        <v>1.072575333978779</v>
       </c>
       <c r="L16">
-        <v>1.018047404376522</v>
+        <v>1.063382621069695</v>
       </c>
       <c r="M16">
-        <v>1.026460406129373</v>
+        <v>1.076463220152426</v>
       </c>
       <c r="N16">
-        <v>1.016827798885877</v>
+        <v>1.068496652002589</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9906692639545673</v>
+        <v>1.043448853342643</v>
       </c>
       <c r="D17">
-        <v>1.013344368764248</v>
+        <v>1.061780173264379</v>
       </c>
       <c r="E17">
-        <v>1.007150624955878</v>
+        <v>1.052618344159041</v>
       </c>
       <c r="F17">
-        <v>1.015809314759293</v>
+        <v>1.065948381265582</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040375476319928</v>
+        <v>1.07469189632293</v>
       </c>
       <c r="J17">
-        <v>1.018490791785652</v>
+        <v>1.069333993976663</v>
       </c>
       <c r="K17">
-        <v>1.027122399580761</v>
+        <v>1.074785247706068</v>
       </c>
       <c r="L17">
-        <v>1.021034428774484</v>
+        <v>1.065762663511928</v>
       </c>
       <c r="M17">
-        <v>1.029545713490185</v>
+        <v>1.078891113152082</v>
       </c>
       <c r="N17">
-        <v>1.019937165532515</v>
+        <v>1.070852570902433</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9929433861547302</v>
+        <v>1.045232978740561</v>
       </c>
       <c r="D18">
-        <v>1.015124013728176</v>
+        <v>1.063249229525969</v>
       </c>
       <c r="E18">
-        <v>1.009088126898585</v>
+        <v>1.054189502371442</v>
       </c>
       <c r="F18">
-        <v>1.01780141296654</v>
+        <v>1.067544077329162</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041041473712354</v>
+        <v>1.07553722393175</v>
       </c>
       <c r="J18">
-        <v>1.020275660378872</v>
+        <v>1.070689698853088</v>
       </c>
       <c r="K18">
-        <v>1.028686695536047</v>
+        <v>1.076058744448631</v>
       </c>
       <c r="L18">
-        <v>1.022751809939876</v>
+        <v>1.067134111549348</v>
       </c>
       <c r="M18">
-        <v>1.031319786137409</v>
+        <v>1.080290566137196</v>
       </c>
       <c r="N18">
-        <v>1.021724568843864</v>
+        <v>1.072210201035285</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.993713333318083</v>
+        <v>1.045837846185217</v>
       </c>
       <c r="D19">
-        <v>1.015726686347879</v>
+        <v>1.063747362572191</v>
       </c>
       <c r="E19">
-        <v>1.00974431319299</v>
+        <v>1.054722213402602</v>
       </c>
       <c r="F19">
-        <v>1.018476109937173</v>
+        <v>1.068085178476909</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041266725419982</v>
+        <v>1.075823599120212</v>
       </c>
       <c r="J19">
-        <v>1.020879935549284</v>
+        <v>1.071149219568647</v>
       </c>
       <c r="K19">
-        <v>1.029216250046975</v>
+        <v>1.076490400652901</v>
       </c>
       <c r="L19">
-        <v>1.023333287710533</v>
+        <v>1.067598953979793</v>
       </c>
       <c r="M19">
-        <v>1.031920489257063</v>
+        <v>1.080764973678275</v>
       </c>
       <c r="N19">
-        <v>1.022329702154329</v>
+        <v>1.072670374322967</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9902483215264554</v>
+        <v>1.043119009177316</v>
       </c>
       <c r="D20">
-        <v>1.013015023512072</v>
+        <v>1.061508618457373</v>
       </c>
       <c r="E20">
-        <v>1.006792092554787</v>
+        <v>1.052327895070873</v>
       </c>
       <c r="F20">
-        <v>1.015440689169019</v>
+        <v>1.06565342972917</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040252088485852</v>
+        <v>1.074535512727091</v>
       </c>
       <c r="J20">
-        <v>1.018160399496894</v>
+        <v>1.069083307533287</v>
       </c>
       <c r="K20">
-        <v>1.026832815918695</v>
+        <v>1.07454976276791</v>
       </c>
       <c r="L20">
-        <v>1.020716553428684</v>
+        <v>1.065509059120501</v>
       </c>
       <c r="M20">
-        <v>1.029217359695099</v>
+        <v>1.078632365098609</v>
       </c>
       <c r="N20">
-        <v>1.01960630404881</v>
+        <v>1.070601528455553</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9785796490627154</v>
+        <v>1.034027071837511</v>
       </c>
       <c r="D21">
-        <v>1.003894585010337</v>
+        <v>1.054028508745885</v>
       </c>
       <c r="E21">
-        <v>0.9968662697521814</v>
+        <v>1.044324810312164</v>
       </c>
       <c r="F21">
-        <v>1.005236660169262</v>
+        <v>1.057530288689265</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036819119087237</v>
+        <v>1.070213137553656</v>
       </c>
       <c r="J21">
-        <v>1.009001072079779</v>
+        <v>1.062167944068707</v>
       </c>
       <c r="K21">
-        <v>1.018802547039295</v>
+        <v>1.06805382451775</v>
       </c>
       <c r="L21">
-        <v>1.011907255824552</v>
+        <v>1.058512431723092</v>
       </c>
       <c r="M21">
-        <v>1.020119496971939</v>
+        <v>1.071497973496315</v>
       </c>
       <c r="N21">
-        <v>1.010433969336173</v>
+        <v>1.063676344381651</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9709017674409319</v>
+        <v>1.028101561308031</v>
       </c>
       <c r="D22">
-        <v>0.9979038182375964</v>
+        <v>1.049159041019083</v>
       </c>
       <c r="E22">
-        <v>0.9903490116960308</v>
+        <v>1.039112304752</v>
       </c>
       <c r="F22">
-        <v>0.9985380249373842</v>
+        <v>1.052243572262308</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034548590425215</v>
+        <v>1.067384871444941</v>
       </c>
       <c r="J22">
-        <v>1.002974452807763</v>
+        <v>1.057656053180649</v>
       </c>
       <c r="K22">
-        <v>1.013516915585456</v>
+        <v>1.063815743139333</v>
       </c>
       <c r="L22">
-        <v>1.006114111991296</v>
+        <v>1.05394681705904</v>
       </c>
       <c r="M22">
-        <v>1.014138499580421</v>
+        <v>1.066846565046158</v>
       </c>
       <c r="N22">
-        <v>1.004398791573528</v>
+        <v>1.059158046091011</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9750065528638283</v>
+        <v>1.031263654388115</v>
       </c>
       <c r="D23">
-        <v>1.001105544440701</v>
+        <v>1.051757022306243</v>
       </c>
       <c r="E23">
-        <v>0.9938319053930019</v>
+        <v>1.041893556960126</v>
       </c>
       <c r="F23">
-        <v>1.002117720147892</v>
+        <v>1.05506404287771</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035763505233661</v>
+        <v>1.068895180600527</v>
       </c>
       <c r="J23">
-        <v>1.00619635185517</v>
+        <v>1.060064218246711</v>
       </c>
       <c r="K23">
-        <v>1.016342827535671</v>
+        <v>1.066077744929251</v>
       </c>
       <c r="L23">
-        <v>1.009210881385434</v>
+        <v>1.056383718466669</v>
       </c>
       <c r="M23">
-        <v>1.017335499222264</v>
+        <v>1.06932887066811</v>
       </c>
       <c r="N23">
-        <v>1.007625266087139</v>
+        <v>1.061569631027687</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9904386295205344</v>
+        <v>1.043268116116554</v>
       </c>
       <c r="D24">
-        <v>1.013163917742465</v>
+        <v>1.061631373970527</v>
       </c>
       <c r="E24">
-        <v>1.006954181056904</v>
+        <v>1.052459192486194</v>
       </c>
       <c r="F24">
-        <v>1.015607340310708</v>
+        <v>1.065786761180139</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040307876330924</v>
+        <v>1.074606210241911</v>
       </c>
       <c r="J24">
-        <v>1.018309770187</v>
+        <v>1.069196632819967</v>
       </c>
       <c r="K24">
-        <v>1.026963737779605</v>
+        <v>1.074656216052402</v>
       </c>
       <c r="L24">
-        <v>1.020860264248618</v>
+        <v>1.065623703754965</v>
       </c>
       <c r="M24">
-        <v>1.029365807231235</v>
+        <v>1.078749333640202</v>
       </c>
       <c r="N24">
-        <v>1.019755886862429</v>
+        <v>1.070715014677139</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007057329170476</v>
+        <v>1.05638397329535</v>
       </c>
       <c r="D25">
-        <v>1.026182005795134</v>
+        <v>1.072438969363216</v>
       </c>
       <c r="E25">
-        <v>1.021133115808868</v>
+        <v>1.064013592500677</v>
       </c>
       <c r="F25">
-        <v>1.030187807631476</v>
+        <v>1.077528862119574</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045149747577209</v>
+        <v>1.080797966259712</v>
       </c>
       <c r="J25">
-        <v>1.03134949809325</v>
+        <v>1.079152165950901</v>
       </c>
       <c r="K25">
-        <v>1.038387034483217</v>
+        <v>1.084007986078665</v>
       </c>
       <c r="L25">
-        <v>1.033411991842848</v>
+        <v>1.075693283932613</v>
       </c>
       <c r="M25">
-        <v>1.04233489801305</v>
+        <v>1.089032067436663</v>
       </c>
       <c r="N25">
-        <v>1.032814132677983</v>
+        <v>1.080684685807035</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.066278323345225</v>
+        <v>1.089903957704872</v>
       </c>
       <c r="D2">
-        <v>1.080603647651889</v>
+        <v>1.092945431346923</v>
       </c>
       <c r="E2">
-        <v>1.072735418433218</v>
+        <v>1.092264471883205</v>
       </c>
       <c r="F2">
-        <v>1.086404652093308</v>
+        <v>1.104236304247218</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.085428765940927</v>
+        <v>1.073478190317613</v>
       </c>
       <c r="J2">
-        <v>1.086642516609893</v>
+        <v>1.094737009875696</v>
       </c>
       <c r="K2">
-        <v>1.09104364673932</v>
+        <v>1.095586576172583</v>
       </c>
       <c r="L2">
-        <v>1.083266568600412</v>
+        <v>1.094907354187842</v>
       </c>
       <c r="M2">
-        <v>1.096778490860024</v>
+        <v>1.106848976647145</v>
       </c>
       <c r="N2">
-        <v>1.088185673623117</v>
+        <v>1.096291661997809</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.07317187916419</v>
+        <v>1.091259431272322</v>
       </c>
       <c r="D3">
-        <v>1.086297305498456</v>
+        <v>1.094071114200453</v>
       </c>
       <c r="E3">
-        <v>1.078813895080814</v>
+        <v>1.093478896407954</v>
       </c>
       <c r="F3">
-        <v>1.092597345637605</v>
+        <v>1.105485783000437</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.088631111820889</v>
+        <v>1.074014326944082</v>
       </c>
       <c r="J3">
-        <v>1.091848769577433</v>
+        <v>1.095755481156932</v>
       </c>
       <c r="K3">
-        <v>1.095933387614816</v>
+        <v>1.096532108786282</v>
       </c>
       <c r="L3">
-        <v>1.088528680918042</v>
+        <v>1.095941292596534</v>
       </c>
       <c r="M3">
-        <v>1.102168189255336</v>
+        <v>1.10792007710412</v>
       </c>
       <c r="N3">
-        <v>1.093399320067038</v>
+        <v>1.097311579625085</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.077509035637123</v>
+        <v>1.092135457746356</v>
       </c>
       <c r="D4">
-        <v>1.089881485089798</v>
+        <v>1.09479854640817</v>
       </c>
       <c r="E4">
-        <v>1.082638709674963</v>
+        <v>1.094263457120968</v>
       </c>
       <c r="F4">
-        <v>1.096497177846752</v>
+        <v>1.106293408140916</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.090634546868089</v>
+        <v>1.074359446319635</v>
       </c>
       <c r="J4">
-        <v>1.09511833909261</v>
+        <v>1.096412903088916</v>
       </c>
       <c r="K4">
-        <v>1.099003897488792</v>
+        <v>1.097142377704407</v>
       </c>
       <c r="L4">
-        <v>1.091832469035023</v>
+        <v>1.096608490950811</v>
       </c>
       <c r="M4">
-        <v>1.105555418074976</v>
+        <v>1.10861170678259</v>
       </c>
       <c r="N4">
-        <v>1.096673532745951</v>
+        <v>1.09796993517162</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.079304325500998</v>
+        <v>1.092503491361569</v>
       </c>
       <c r="D5">
-        <v>1.091365499870532</v>
+        <v>1.095104132493929</v>
       </c>
       <c r="E5">
-        <v>1.084221986769481</v>
+        <v>1.094592990505612</v>
       </c>
       <c r="F5">
-        <v>1.098112257175523</v>
+        <v>1.106632729038955</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.091461072050369</v>
+        <v>1.074504106454917</v>
       </c>
       <c r="J5">
-        <v>1.096470241970529</v>
+        <v>1.096688904537662</v>
       </c>
       <c r="K5">
-        <v>1.100273414573103</v>
+        <v>1.097398565999893</v>
       </c>
       <c r="L5">
-        <v>1.093198308908688</v>
+        <v>1.096888547108778</v>
       </c>
       <c r="M5">
-        <v>1.106956550553791</v>
+        <v>1.108902125833917</v>
       </c>
       <c r="N5">
-        <v>1.098027355481022</v>
+        <v>1.098246328574081</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.079604159189604</v>
+        <v>1.092565271426049</v>
       </c>
       <c r="D6">
-        <v>1.091613369276952</v>
+        <v>1.095155428563302</v>
       </c>
       <c r="E6">
-        <v>1.084486414147088</v>
+        <v>1.094648303374915</v>
       </c>
       <c r="F6">
-        <v>1.098382039784686</v>
+        <v>1.106689690617997</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.091598947643837</v>
+        <v>1.074528370488687</v>
       </c>
       <c r="J6">
-        <v>1.096695937031169</v>
+        <v>1.096735224291183</v>
       </c>
       <c r="K6">
-        <v>1.100485350748661</v>
+        <v>1.097441559612101</v>
       </c>
       <c r="L6">
-        <v>1.093426318106393</v>
+        <v>1.096935544429046</v>
       </c>
       <c r="M6">
-        <v>1.107190498163518</v>
+        <v>1.1089508685165</v>
       </c>
       <c r="N6">
-        <v>1.098253371054536</v>
+        <v>1.098292714106965</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.077533132707661</v>
+        <v>1.092140376397704</v>
       </c>
       <c r="D7">
-        <v>1.089901402577388</v>
+        <v>1.094802630549852</v>
       </c>
       <c r="E7">
-        <v>1.082659960848438</v>
+        <v>1.094267861519947</v>
       </c>
       <c r="F7">
-        <v>1.096518852924181</v>
+        <v>1.106297942962945</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.090645651780399</v>
+        <v>1.074361380954749</v>
       </c>
       <c r="J7">
-        <v>1.0951364907493</v>
+        <v>1.096416592517441</v>
       </c>
       <c r="K7">
-        <v>1.099020943295526</v>
+        <v>1.097145802349874</v>
       </c>
       <c r="L7">
-        <v>1.091850808664613</v>
+        <v>1.096612234775584</v>
       </c>
       <c r="M7">
-        <v>1.105574228441436</v>
+        <v>1.10861558871575</v>
       </c>
       <c r="N7">
-        <v>1.096691710180076</v>
+        <v>1.097973629839557</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.068634530576523</v>
+        <v>1.090362267792081</v>
       </c>
       <c r="D8">
-        <v>1.082549280814006</v>
+        <v>1.09332606192476</v>
       </c>
       <c r="E8">
-        <v>1.074812900056936</v>
+        <v>1.092675154266931</v>
       </c>
       <c r="F8">
-        <v>1.088520502815052</v>
+        <v>1.104658754142405</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.086525693370294</v>
+        <v>1.073659753536407</v>
       </c>
       <c r="J8">
-        <v>1.088423247163256</v>
+        <v>1.095081539882038</v>
       </c>
       <c r="K8">
-        <v>1.092716173109644</v>
+        <v>1.095906447054545</v>
       </c>
       <c r="L8">
-        <v>1.085066583707915</v>
+        <v>1.095257159510347</v>
       </c>
       <c r="M8">
-        <v>1.098621442783536</v>
+        <v>1.107211261219926</v>
       </c>
       <c r="N8">
-        <v>1.089968933018119</v>
+        <v>1.096636681276279</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.051934806149023</v>
+        <v>1.0872207139044</v>
       </c>
       <c r="D9">
-        <v>1.0687707308358</v>
+        <v>1.090716655826773</v>
       </c>
       <c r="E9">
-        <v>1.060093049664593</v>
+        <v>1.089858820041049</v>
       </c>
       <c r="F9">
-        <v>1.073542648312162</v>
+        <v>1.101763449015367</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.078703870581229</v>
+        <v>1.072409538977735</v>
       </c>
       <c r="J9">
-        <v>1.075778084996036</v>
+        <v>1.092716612321294</v>
       </c>
       <c r="K9">
-        <v>1.080838564900236</v>
+        <v>1.093710497431337</v>
       </c>
       <c r="L9">
-        <v>1.072280989808602</v>
+        <v>1.092855164737272</v>
       </c>
       <c r="M9">
-        <v>1.085545476236767</v>
+        <v>1.104725435361152</v>
       </c>
       <c r="N9">
-        <v>1.077305813270201</v>
+        <v>1.094268395247137</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.040001524159007</v>
+        <v>1.085120462121774</v>
       </c>
       <c r="D10">
-        <v>1.058942679436148</v>
+        <v>1.088971791965699</v>
       </c>
       <c r="E10">
-        <v>1.049583104483136</v>
+        <v>1.087974430314145</v>
       </c>
       <c r="F10">
-        <v>1.062866601549575</v>
+        <v>1.099828399401921</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.073055946439197</v>
+        <v>1.071566610870064</v>
       </c>
       <c r="J10">
-        <v>1.06671326950124</v>
+        <v>1.091131431768333</v>
       </c>
       <c r="K10">
-        <v>1.072323449255996</v>
+        <v>1.09223822488046</v>
       </c>
       <c r="L10">
-        <v>1.063111332960115</v>
+        <v>1.091244060018079</v>
       </c>
       <c r="M10">
-        <v>1.076186537170964</v>
+        <v>1.103060444250978</v>
       </c>
       <c r="N10">
-        <v>1.068228124697654</v>
+        <v>1.092680963555968</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.034614913190976</v>
+        <v>1.084209566758756</v>
       </c>
       <c r="D11">
-        <v>1.054511830272547</v>
+        <v>1.08821495060247</v>
       </c>
       <c r="E11">
-        <v>1.044842069614297</v>
+        <v>1.087156789956307</v>
       </c>
       <c r="F11">
-        <v>1.05805507964778</v>
+        <v>1.098989297123908</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.070493255629462</v>
+        <v>1.071199341472583</v>
       </c>
       <c r="J11">
-        <v>1.0626153499877</v>
+        <v>1.090442948720099</v>
       </c>
       <c r="K11">
-        <v>1.068474087571956</v>
+        <v>1.091598698027644</v>
       </c>
       <c r="L11">
-        <v>1.058965136970226</v>
+        <v>1.090544061076366</v>
       </c>
       <c r="M11">
-        <v>1.071959357498117</v>
+        <v>1.102337589232726</v>
       </c>
       <c r="N11">
-        <v>1.064124385668366</v>
+        <v>1.091991502782836</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.032578245120308</v>
+        <v>1.083870992503704</v>
       </c>
       <c r="D12">
-        <v>1.052837474025273</v>
+        <v>1.087933625872079</v>
       </c>
       <c r="E12">
-        <v>1.043050058224539</v>
+        <v>1.086852823357983</v>
       </c>
       <c r="F12">
-        <v>1.05623710588727</v>
+        <v>1.09867743010501</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.069522378996173</v>
+        <v>1.071062576641601</v>
       </c>
       <c r="J12">
-        <v>1.061065084714492</v>
+        <v>1.09018689702362</v>
       </c>
       <c r="K12">
-        <v>1.067017878431742</v>
+        <v>1.09136084123704</v>
       </c>
       <c r="L12">
-        <v>1.05739648700423</v>
+        <v>1.09028368796714</v>
       </c>
       <c r="M12">
-        <v>1.070360769399045</v>
+        <v>1.102068798269429</v>
       </c>
       <c r="N12">
-        <v>1.062571918840653</v>
+        <v>1.091735087463579</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.033016789118975</v>
+        <v>1.083943628205843</v>
       </c>
       <c r="D13">
-        <v>1.05319795906776</v>
+        <v>1.087993980107758</v>
       </c>
       <c r="E13">
-        <v>1.043435894446708</v>
+        <v>1.086918037007696</v>
       </c>
       <c r="F13">
-        <v>1.056628501116406</v>
+        <v>1.098744335182454</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.069731518203104</v>
+        <v>1.071091928800362</v>
       </c>
       <c r="J13">
-        <v>1.061398931534508</v>
+        <v>1.090241835464654</v>
       </c>
       <c r="K13">
-        <v>1.067331469001095</v>
+        <v>1.091411876331572</v>
       </c>
       <c r="L13">
-        <v>1.057734298224397</v>
+        <v>1.090339555356236</v>
       </c>
       <c r="M13">
-        <v>1.070704996055058</v>
+        <v>1.102126468058955</v>
       </c>
       <c r="N13">
-        <v>1.062906239761446</v>
+        <v>1.091790103923501</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.034447310557354</v>
+        <v>1.08418158477365</v>
       </c>
       <c r="D14">
-        <v>1.054374023422754</v>
+        <v>1.088191700320277</v>
       </c>
       <c r="E14">
-        <v>1.044694588315042</v>
+        <v>1.08713166928661</v>
       </c>
       <c r="F14">
-        <v>1.05790544778507</v>
+        <v>1.098963521943076</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.070413398422833</v>
+        <v>1.071188043494807</v>
       </c>
       <c r="J14">
-        <v>1.062487791484454</v>
+        <v>1.090421789929303</v>
       </c>
       <c r="K14">
-        <v>1.068354267552601</v>
+        <v>1.091579043018856</v>
       </c>
       <c r="L14">
-        <v>1.058836068137542</v>
+        <v>1.090522545973144</v>
       </c>
       <c r="M14">
-        <v>1.071827811080744</v>
+        <v>1.102315376838761</v>
       </c>
       <c r="N14">
-        <v>1.063996646017415</v>
+        <v>1.09197031394413</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.035323860972576</v>
+        <v>1.084328167389661</v>
       </c>
       <c r="D15">
-        <v>1.055094782854511</v>
+        <v>1.08831349561886</v>
       </c>
       <c r="E15">
-        <v>1.04546592913633</v>
+        <v>1.08726326076955</v>
       </c>
       <c r="F15">
-        <v>1.058688063993176</v>
+        <v>1.099098545206616</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.070830968212058</v>
+        <v>1.071247217183595</v>
       </c>
       <c r="J15">
-        <v>1.06315487971922</v>
+        <v>1.09053262348226</v>
       </c>
       <c r="K15">
-        <v>1.068980887244586</v>
+        <v>1.091681998990668</v>
       </c>
       <c r="L15">
-        <v>1.059511050021512</v>
+        <v>1.090635244375616</v>
       </c>
       <c r="M15">
-        <v>1.072515778353244</v>
+        <v>1.102431731152525</v>
       </c>
       <c r="N15">
-        <v>1.064664681593991</v>
+        <v>1.092081304893446</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.04035415499156</v>
+        <v>1.085180883717644</v>
       </c>
       <c r="D16">
-        <v>1.059232864992403</v>
+        <v>1.089021993201109</v>
       </c>
       <c r="E16">
-        <v>1.049893545403929</v>
+        <v>1.088028658431676</v>
       </c>
       <c r="F16">
-        <v>1.063181751036547</v>
+        <v>1.099884061888063</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.073223441885386</v>
+        <v>1.07159093714951</v>
       </c>
       <c r="J16">
-        <v>1.06698141600738</v>
+        <v>1.091177079713476</v>
       </c>
       <c r="K16">
-        <v>1.072575333978779</v>
+        <v>1.092280625197923</v>
       </c>
       <c r="L16">
-        <v>1.063382621069695</v>
+        <v>1.091290466092582</v>
       </c>
       <c r="M16">
-        <v>1.076463220152426</v>
+        <v>1.103108377279617</v>
       </c>
       <c r="N16">
-        <v>1.068496652002589</v>
+        <v>1.09272667632643</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.043448853342643</v>
+        <v>1.08571537173567</v>
       </c>
       <c r="D17">
-        <v>1.061780173264379</v>
+        <v>1.089466062946872</v>
       </c>
       <c r="E17">
-        <v>1.052618344159041</v>
+        <v>1.088508316878153</v>
       </c>
       <c r="F17">
-        <v>1.065948381265582</v>
+        <v>1.100376467587558</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.07469189632293</v>
+        <v>1.071805932370926</v>
       </c>
       <c r="J17">
-        <v>1.069333993976663</v>
+        <v>1.091580767498325</v>
       </c>
       <c r="K17">
-        <v>1.074785247706068</v>
+        <v>1.092655583073697</v>
       </c>
       <c r="L17">
-        <v>1.065762663511928</v>
+        <v>1.09170082881915</v>
       </c>
       <c r="M17">
-        <v>1.078891113152082</v>
+        <v>1.103532306867253</v>
       </c>
       <c r="N17">
-        <v>1.070852570902433</v>
+        <v>1.093130937394236</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.045232978740561</v>
+        <v>1.086026987884094</v>
       </c>
       <c r="D18">
-        <v>1.063249229525969</v>
+        <v>1.089724955809614</v>
       </c>
       <c r="E18">
-        <v>1.054189502371442</v>
+        <v>1.088787931093103</v>
       </c>
       <c r="F18">
-        <v>1.067544077329162</v>
+        <v>1.100663562790338</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.07553722393175</v>
+        <v>1.071931116031274</v>
       </c>
       <c r="J18">
-        <v>1.070689698853088</v>
+        <v>1.091816030463681</v>
       </c>
       <c r="K18">
-        <v>1.076058744448631</v>
+        <v>1.092874094735166</v>
       </c>
       <c r="L18">
-        <v>1.067134111549348</v>
+        <v>1.091939957146878</v>
       </c>
       <c r="M18">
-        <v>1.080290566137196</v>
+        <v>1.103779394531731</v>
       </c>
       <c r="N18">
-        <v>1.072210201035285</v>
+        <v>1.093366534459988</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.045837846185217</v>
+        <v>1.086133217086921</v>
       </c>
       <c r="D19">
-        <v>1.063747362572191</v>
+        <v>1.089813210425656</v>
       </c>
       <c r="E19">
-        <v>1.054722213402602</v>
+        <v>1.088883244914659</v>
       </c>
       <c r="F19">
-        <v>1.068085178476909</v>
+        <v>1.100761435184353</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.075823599120212</v>
+        <v>1.071973763288686</v>
       </c>
       <c r="J19">
-        <v>1.071149219568647</v>
+        <v>1.091896215049177</v>
       </c>
       <c r="K19">
-        <v>1.076490400652901</v>
+        <v>1.092948568625542</v>
       </c>
       <c r="L19">
-        <v>1.067598953979793</v>
+        <v>1.092021454976064</v>
       </c>
       <c r="M19">
-        <v>1.080764973678275</v>
+        <v>1.103863614087118</v>
       </c>
       <c r="N19">
-        <v>1.072670374322967</v>
+        <v>1.093446832916793</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.043119009177316</v>
+        <v>1.085658040927755</v>
       </c>
       <c r="D20">
-        <v>1.061508618457373</v>
+        <v>1.089418431479701</v>
       </c>
       <c r="E20">
-        <v>1.052327895070873</v>
+        <v>1.0884568709066</v>
       </c>
       <c r="F20">
-        <v>1.06565342972917</v>
+        <v>1.10032364922436</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.074535512727091</v>
+        <v>1.071782888133676</v>
       </c>
       <c r="J20">
-        <v>1.069083307533287</v>
+        <v>1.091537476473825</v>
       </c>
       <c r="K20">
-        <v>1.07454976276791</v>
+        <v>1.092615373834828</v>
       </c>
       <c r="L20">
-        <v>1.065509059120501</v>
+        <v>1.091656824536439</v>
       </c>
       <c r="M20">
-        <v>1.078632365098609</v>
+        <v>1.103486842227362</v>
       </c>
       <c r="N20">
-        <v>1.070601528455553</v>
+        <v>1.093087584891516</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.034027071837511</v>
+        <v>1.084111518813895</v>
       </c>
       <c r="D21">
-        <v>1.054028508745885</v>
+        <v>1.088133482205269</v>
       </c>
       <c r="E21">
-        <v>1.044324810312164</v>
+        <v>1.087068767083733</v>
       </c>
       <c r="F21">
-        <v>1.057530288689265</v>
+        <v>1.098898982108179</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.070213137553656</v>
+        <v>1.071159749647848</v>
       </c>
       <c r="J21">
-        <v>1.062167944068707</v>
+        <v>1.090368806651641</v>
       </c>
       <c r="K21">
-        <v>1.06805382451775</v>
+        <v>1.091529825132431</v>
       </c>
       <c r="L21">
-        <v>1.058512431723092</v>
+        <v>1.090468669838053</v>
       </c>
       <c r="M21">
-        <v>1.071497973496315</v>
+        <v>1.102259755965249</v>
       </c>
       <c r="N21">
-        <v>1.063676344381651</v>
+        <v>1.091917255424137</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.028101561308031</v>
+        <v>1.083137841741307</v>
       </c>
       <c r="D22">
-        <v>1.049159041019083</v>
+        <v>1.087324423459032</v>
       </c>
       <c r="E22">
-        <v>1.039112304752</v>
+        <v>1.086194512606173</v>
       </c>
       <c r="F22">
-        <v>1.052243572262308</v>
+        <v>1.098002152595803</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.067384871444941</v>
+        <v>1.070765962519898</v>
       </c>
       <c r="J22">
-        <v>1.057656053180649</v>
+        <v>1.089632172907317</v>
       </c>
       <c r="K22">
-        <v>1.063815743139333</v>
+        <v>1.090845513295484</v>
       </c>
       <c r="L22">
-        <v>1.05394681705904</v>
+        <v>1.089719531082494</v>
       </c>
       <c r="M22">
-        <v>1.066846565046158</v>
+        <v>1.101486555557192</v>
       </c>
       <c r="N22">
-        <v>1.059158046091011</v>
+        <v>1.091179575575403</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.031263654388115</v>
+        <v>1.083654133228514</v>
       </c>
       <c r="D23">
-        <v>1.051757022306243</v>
+        <v>1.08775343220755</v>
       </c>
       <c r="E23">
-        <v>1.041893556960126</v>
+        <v>1.086658115192265</v>
       </c>
       <c r="F23">
-        <v>1.05506404287771</v>
+        <v>1.098477683329588</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.068895180600527</v>
+        <v>1.070974906552145</v>
       </c>
       <c r="J23">
-        <v>1.060064218246711</v>
+        <v>1.090022852761285</v>
       </c>
       <c r="K23">
-        <v>1.066077744929251</v>
+        <v>1.09120845044881</v>
       </c>
       <c r="L23">
-        <v>1.056383718466669</v>
+        <v>1.090116864246335</v>
       </c>
       <c r="M23">
-        <v>1.06932887066811</v>
+        <v>1.101896604732625</v>
       </c>
       <c r="N23">
-        <v>1.061569631027687</v>
+        <v>1.091570810239575</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.043268116116554</v>
+        <v>1.085683946689453</v>
       </c>
       <c r="D24">
-        <v>1.061631373970527</v>
+        <v>1.089439954477024</v>
       </c>
       <c r="E24">
-        <v>1.052459192486194</v>
+        <v>1.088480117628315</v>
       </c>
       <c r="F24">
-        <v>1.065786761180139</v>
+        <v>1.100347515929516</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.074606210241911</v>
+        <v>1.071793301510359</v>
       </c>
       <c r="J24">
-        <v>1.069196632819967</v>
+        <v>1.091557038446044</v>
       </c>
       <c r="K24">
-        <v>1.074656216052402</v>
+        <v>1.092633543261138</v>
       </c>
       <c r="L24">
-        <v>1.065623703754965</v>
+        <v>1.091676708885897</v>
       </c>
       <c r="M24">
-        <v>1.078749333640202</v>
+        <v>1.103507386307216</v>
       </c>
       <c r="N24">
-        <v>1.070715014677139</v>
+        <v>1.09310717464398</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.05638397329535</v>
+        <v>1.088033895453</v>
       </c>
       <c r="D25">
-        <v>1.072438969363216</v>
+        <v>1.091392161095333</v>
       </c>
       <c r="E25">
-        <v>1.064013592500677</v>
+        <v>1.090588095437072</v>
       </c>
       <c r="F25">
-        <v>1.077528862119574</v>
+        <v>1.102512790994027</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.080797966259712</v>
+        <v>1.072734405415389</v>
       </c>
       <c r="J25">
-        <v>1.079152165950901</v>
+        <v>1.093329495063093</v>
       </c>
       <c r="K25">
-        <v>1.084007986078665</v>
+        <v>1.094279651867689</v>
       </c>
       <c r="L25">
-        <v>1.075693283932613</v>
+        <v>1.093477843056722</v>
       </c>
       <c r="M25">
-        <v>1.089032067436663</v>
+        <v>1.105369434246184</v>
       </c>
       <c r="N25">
-        <v>1.080684685807035</v>
+        <v>1.094882148352729</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.089903957704872</v>
+        <v>1.066278323345228</v>
       </c>
       <c r="D2">
-        <v>1.092945431346923</v>
+        <v>1.080603647651891</v>
       </c>
       <c r="E2">
-        <v>1.092264471883205</v>
+        <v>1.072735418433221</v>
       </c>
       <c r="F2">
-        <v>1.104236304247218</v>
+        <v>1.086404652093311</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.073478190317613</v>
+        <v>1.085428765940929</v>
       </c>
       <c r="J2">
-        <v>1.094737009875696</v>
+        <v>1.086642516609896</v>
       </c>
       <c r="K2">
-        <v>1.095586576172583</v>
+        <v>1.091043646739322</v>
       </c>
       <c r="L2">
-        <v>1.094907354187842</v>
+        <v>1.083266568600415</v>
       </c>
       <c r="M2">
-        <v>1.106848976647145</v>
+        <v>1.096778490860028</v>
       </c>
       <c r="N2">
-        <v>1.096291661997809</v>
+        <v>1.08818567362312</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.091259431272322</v>
+        <v>1.073171879164189</v>
       </c>
       <c r="D3">
-        <v>1.094071114200453</v>
+        <v>1.086297305498455</v>
       </c>
       <c r="E3">
-        <v>1.093478896407954</v>
+        <v>1.078813895080813</v>
       </c>
       <c r="F3">
-        <v>1.105485783000437</v>
+        <v>1.092597345637604</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.074014326944082</v>
+        <v>1.088631111820888</v>
       </c>
       <c r="J3">
-        <v>1.095755481156932</v>
+        <v>1.091848769577432</v>
       </c>
       <c r="K3">
-        <v>1.096532108786282</v>
+        <v>1.095933387614815</v>
       </c>
       <c r="L3">
-        <v>1.095941292596534</v>
+        <v>1.088528680918041</v>
       </c>
       <c r="M3">
-        <v>1.10792007710412</v>
+        <v>1.102168189255334</v>
       </c>
       <c r="N3">
-        <v>1.097311579625085</v>
+        <v>1.093399320067036</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.092135457746356</v>
+        <v>1.077509035637124</v>
       </c>
       <c r="D4">
-        <v>1.09479854640817</v>
+        <v>1.089881485089799</v>
       </c>
       <c r="E4">
-        <v>1.094263457120968</v>
+        <v>1.082638709674964</v>
       </c>
       <c r="F4">
-        <v>1.106293408140916</v>
+        <v>1.096497177846754</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.074359446319635</v>
+        <v>1.09063454686809</v>
       </c>
       <c r="J4">
-        <v>1.096412903088916</v>
+        <v>1.095118339092612</v>
       </c>
       <c r="K4">
-        <v>1.097142377704407</v>
+        <v>1.099003897488793</v>
       </c>
       <c r="L4">
-        <v>1.096608490950811</v>
+        <v>1.091832469035024</v>
       </c>
       <c r="M4">
-        <v>1.10861170678259</v>
+        <v>1.105555418074978</v>
       </c>
       <c r="N4">
-        <v>1.09796993517162</v>
+        <v>1.096673532745952</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.092503491361569</v>
+        <v>1.079304325500997</v>
       </c>
       <c r="D5">
-        <v>1.095104132493929</v>
+        <v>1.091365499870531</v>
       </c>
       <c r="E5">
-        <v>1.094592990505612</v>
+        <v>1.08422198676948</v>
       </c>
       <c r="F5">
-        <v>1.106632729038955</v>
+        <v>1.098112257175521</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.074504106454917</v>
+        <v>1.091461072050368</v>
       </c>
       <c r="J5">
-        <v>1.096688904537662</v>
+        <v>1.096470241970528</v>
       </c>
       <c r="K5">
-        <v>1.097398565999893</v>
+        <v>1.100273414573102</v>
       </c>
       <c r="L5">
-        <v>1.096888547108778</v>
+        <v>1.093198308908686</v>
       </c>
       <c r="M5">
-        <v>1.108902125833917</v>
+        <v>1.106956550553789</v>
       </c>
       <c r="N5">
-        <v>1.098246328574081</v>
+        <v>1.098027355481021</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.092565271426049</v>
+        <v>1.079604159189608</v>
       </c>
       <c r="D6">
-        <v>1.095155428563302</v>
+        <v>1.091613369276956</v>
       </c>
       <c r="E6">
-        <v>1.094648303374915</v>
+        <v>1.084486414147091</v>
       </c>
       <c r="F6">
-        <v>1.106689690617997</v>
+        <v>1.09838203978469</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.074528370488687</v>
+        <v>1.091598947643839</v>
       </c>
       <c r="J6">
-        <v>1.096735224291183</v>
+        <v>1.096695937031173</v>
       </c>
       <c r="K6">
-        <v>1.097441559612101</v>
+        <v>1.100485350748665</v>
       </c>
       <c r="L6">
-        <v>1.096935544429046</v>
+        <v>1.093426318106396</v>
       </c>
       <c r="M6">
-        <v>1.1089508685165</v>
+        <v>1.107190498163521</v>
       </c>
       <c r="N6">
-        <v>1.098292714106965</v>
+        <v>1.098253371054539</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.092140376397704</v>
+        <v>1.07753313270766</v>
       </c>
       <c r="D7">
-        <v>1.094802630549852</v>
+        <v>1.089901402577387</v>
       </c>
       <c r="E7">
-        <v>1.094267861519947</v>
+        <v>1.082659960848436</v>
       </c>
       <c r="F7">
-        <v>1.106297942962945</v>
+        <v>1.09651885292418</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.074361380954749</v>
+        <v>1.090645651780399</v>
       </c>
       <c r="J7">
-        <v>1.096416592517441</v>
+        <v>1.0951364907493</v>
       </c>
       <c r="K7">
-        <v>1.097145802349874</v>
+        <v>1.099020943295525</v>
       </c>
       <c r="L7">
-        <v>1.096612234775584</v>
+        <v>1.091850808664611</v>
       </c>
       <c r="M7">
-        <v>1.10861558871575</v>
+        <v>1.105574228441434</v>
       </c>
       <c r="N7">
-        <v>1.097973629839557</v>
+        <v>1.096691710180075</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.090362267792081</v>
+        <v>1.068634530576522</v>
       </c>
       <c r="D8">
-        <v>1.09332606192476</v>
+        <v>1.082549280814004</v>
       </c>
       <c r="E8">
-        <v>1.092675154266931</v>
+        <v>1.074812900056936</v>
       </c>
       <c r="F8">
-        <v>1.104658754142405</v>
+        <v>1.088520502815051</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.073659753536407</v>
+        <v>1.086525693370293</v>
       </c>
       <c r="J8">
-        <v>1.095081539882038</v>
+        <v>1.088423247163255</v>
       </c>
       <c r="K8">
-        <v>1.095906447054545</v>
+        <v>1.092716173109643</v>
       </c>
       <c r="L8">
-        <v>1.095257159510347</v>
+        <v>1.085066583707914</v>
       </c>
       <c r="M8">
-        <v>1.107211261219926</v>
+        <v>1.098621442783535</v>
       </c>
       <c r="N8">
-        <v>1.096636681276279</v>
+        <v>1.089968933018118</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.0872207139044</v>
+        <v>1.051934806149021</v>
       </c>
       <c r="D9">
-        <v>1.090716655826773</v>
+        <v>1.068770730835798</v>
       </c>
       <c r="E9">
-        <v>1.089858820041049</v>
+        <v>1.060093049664592</v>
       </c>
       <c r="F9">
-        <v>1.101763449015367</v>
+        <v>1.073542648312161</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.072409538977735</v>
+        <v>1.078703870581228</v>
       </c>
       <c r="J9">
-        <v>1.092716612321294</v>
+        <v>1.075778084996035</v>
       </c>
       <c r="K9">
-        <v>1.093710497431337</v>
+        <v>1.080838564900235</v>
       </c>
       <c r="L9">
-        <v>1.092855164737272</v>
+        <v>1.072280989808601</v>
       </c>
       <c r="M9">
-        <v>1.104725435361152</v>
+        <v>1.085545476236766</v>
       </c>
       <c r="N9">
-        <v>1.094268395247137</v>
+        <v>1.0773058132702</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.085120462121774</v>
+        <v>1.040001524159005</v>
       </c>
       <c r="D10">
-        <v>1.088971791965699</v>
+        <v>1.058942679436146</v>
       </c>
       <c r="E10">
-        <v>1.087974430314145</v>
+        <v>1.049583104483134</v>
       </c>
       <c r="F10">
-        <v>1.099828399401921</v>
+        <v>1.062866601549573</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.071566610870064</v>
+        <v>1.073055946439196</v>
       </c>
       <c r="J10">
-        <v>1.091131431768333</v>
+        <v>1.066713269501239</v>
       </c>
       <c r="K10">
-        <v>1.09223822488046</v>
+        <v>1.072323449255994</v>
       </c>
       <c r="L10">
-        <v>1.091244060018079</v>
+        <v>1.063111332960113</v>
       </c>
       <c r="M10">
-        <v>1.103060444250978</v>
+        <v>1.076186537170962</v>
       </c>
       <c r="N10">
-        <v>1.092680963555968</v>
+        <v>1.068228124697653</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.084209566758756</v>
+        <v>1.034614913190976</v>
       </c>
       <c r="D11">
-        <v>1.08821495060247</v>
+        <v>1.054511830272548</v>
       </c>
       <c r="E11">
-        <v>1.087156789956307</v>
+        <v>1.044842069614297</v>
       </c>
       <c r="F11">
-        <v>1.098989297123908</v>
+        <v>1.058055079647781</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.071199341472583</v>
+        <v>1.070493255629463</v>
       </c>
       <c r="J11">
-        <v>1.090442948720099</v>
+        <v>1.0626153499877</v>
       </c>
       <c r="K11">
-        <v>1.091598698027644</v>
+        <v>1.068474087571956</v>
       </c>
       <c r="L11">
-        <v>1.090544061076366</v>
+        <v>1.058965136970227</v>
       </c>
       <c r="M11">
-        <v>1.102337589232726</v>
+        <v>1.071959357498117</v>
       </c>
       <c r="N11">
-        <v>1.091991502782836</v>
+        <v>1.064124385668367</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.083870992503704</v>
+        <v>1.032578245120306</v>
       </c>
       <c r="D12">
-        <v>1.087933625872079</v>
+        <v>1.052837474025271</v>
       </c>
       <c r="E12">
-        <v>1.086852823357983</v>
+        <v>1.043050058224537</v>
       </c>
       <c r="F12">
-        <v>1.09867743010501</v>
+        <v>1.056237105887269</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.071062576641601</v>
+        <v>1.069522378996172</v>
       </c>
       <c r="J12">
-        <v>1.09018689702362</v>
+        <v>1.06106508471449</v>
       </c>
       <c r="K12">
-        <v>1.09136084123704</v>
+        <v>1.06701787843174</v>
       </c>
       <c r="L12">
-        <v>1.09028368796714</v>
+        <v>1.057396487004229</v>
       </c>
       <c r="M12">
-        <v>1.102068798269429</v>
+        <v>1.070360769399044</v>
       </c>
       <c r="N12">
-        <v>1.091735087463579</v>
+        <v>1.062571918840651</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.083943628205843</v>
+        <v>1.033016789118977</v>
       </c>
       <c r="D13">
-        <v>1.087993980107758</v>
+        <v>1.053197959067761</v>
       </c>
       <c r="E13">
-        <v>1.086918037007696</v>
+        <v>1.043435894446709</v>
       </c>
       <c r="F13">
-        <v>1.098744335182454</v>
+        <v>1.056628501116407</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.071091928800362</v>
+        <v>1.069731518203105</v>
       </c>
       <c r="J13">
-        <v>1.090241835464654</v>
+        <v>1.06139893153451</v>
       </c>
       <c r="K13">
-        <v>1.091411876331572</v>
+        <v>1.067331469001097</v>
       </c>
       <c r="L13">
-        <v>1.090339555356236</v>
+        <v>1.057734298224398</v>
       </c>
       <c r="M13">
-        <v>1.102126468058955</v>
+        <v>1.070704996055059</v>
       </c>
       <c r="N13">
-        <v>1.091790103923501</v>
+        <v>1.062906239761448</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.08418158477365</v>
+        <v>1.034447310557352</v>
       </c>
       <c r="D14">
-        <v>1.088191700320277</v>
+        <v>1.054374023422752</v>
       </c>
       <c r="E14">
-        <v>1.08713166928661</v>
+        <v>1.04469458831504</v>
       </c>
       <c r="F14">
-        <v>1.098963521943076</v>
+        <v>1.057905447785068</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.071188043494807</v>
+        <v>1.070413398422831</v>
       </c>
       <c r="J14">
-        <v>1.090421789929303</v>
+        <v>1.062487791484452</v>
       </c>
       <c r="K14">
-        <v>1.091579043018856</v>
+        <v>1.068354267552599</v>
       </c>
       <c r="L14">
-        <v>1.090522545973144</v>
+        <v>1.05883606813754</v>
       </c>
       <c r="M14">
-        <v>1.102315376838761</v>
+        <v>1.071827811080742</v>
       </c>
       <c r="N14">
-        <v>1.09197031394413</v>
+        <v>1.063996646017413</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.084328167389661</v>
+        <v>1.035323860972577</v>
       </c>
       <c r="D15">
-        <v>1.08831349561886</v>
+        <v>1.055094782854513</v>
       </c>
       <c r="E15">
-        <v>1.08726326076955</v>
+        <v>1.045465929136331</v>
       </c>
       <c r="F15">
-        <v>1.099098545206616</v>
+        <v>1.058688063993177</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.071247217183595</v>
+        <v>1.070830968212059</v>
       </c>
       <c r="J15">
-        <v>1.09053262348226</v>
+        <v>1.063154879719222</v>
       </c>
       <c r="K15">
-        <v>1.091681998990668</v>
+        <v>1.068980887244587</v>
       </c>
       <c r="L15">
-        <v>1.090635244375616</v>
+        <v>1.059511050021513</v>
       </c>
       <c r="M15">
-        <v>1.102431731152525</v>
+        <v>1.072515778353246</v>
       </c>
       <c r="N15">
-        <v>1.092081304893446</v>
+        <v>1.064664681593992</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.085180883717644</v>
+        <v>1.040354154991558</v>
       </c>
       <c r="D16">
-        <v>1.089021993201109</v>
+        <v>1.059232864992401</v>
       </c>
       <c r="E16">
-        <v>1.088028658431676</v>
+        <v>1.049893545403928</v>
       </c>
       <c r="F16">
-        <v>1.099884061888063</v>
+        <v>1.063181751036545</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.07159093714951</v>
+        <v>1.073223441885385</v>
       </c>
       <c r="J16">
-        <v>1.091177079713476</v>
+        <v>1.066981416007378</v>
       </c>
       <c r="K16">
-        <v>1.092280625197923</v>
+        <v>1.072575333978778</v>
       </c>
       <c r="L16">
-        <v>1.091290466092582</v>
+        <v>1.063382621069693</v>
       </c>
       <c r="M16">
-        <v>1.103108377279617</v>
+        <v>1.076463220152424</v>
       </c>
       <c r="N16">
-        <v>1.09272667632643</v>
+        <v>1.068496652002587</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.08571537173567</v>
+        <v>1.043448853342642</v>
       </c>
       <c r="D17">
-        <v>1.089466062946872</v>
+        <v>1.061780173264378</v>
       </c>
       <c r="E17">
-        <v>1.088508316878153</v>
+        <v>1.05261834415904</v>
       </c>
       <c r="F17">
-        <v>1.100376467587558</v>
+        <v>1.06594838126558</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.071805932370926</v>
+        <v>1.074691896322929</v>
       </c>
       <c r="J17">
-        <v>1.091580767498325</v>
+        <v>1.069333993976662</v>
       </c>
       <c r="K17">
-        <v>1.092655583073697</v>
+        <v>1.074785247706067</v>
       </c>
       <c r="L17">
-        <v>1.09170082881915</v>
+        <v>1.065762663511927</v>
       </c>
       <c r="M17">
-        <v>1.103532306867253</v>
+        <v>1.07889111315208</v>
       </c>
       <c r="N17">
-        <v>1.093130937394236</v>
+        <v>1.070852570902432</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.086026987884094</v>
+        <v>1.045232978740561</v>
       </c>
       <c r="D18">
-        <v>1.089724955809614</v>
+        <v>1.063249229525969</v>
       </c>
       <c r="E18">
-        <v>1.088787931093103</v>
+        <v>1.054189502371443</v>
       </c>
       <c r="F18">
-        <v>1.100663562790338</v>
+        <v>1.067544077329162</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.071931116031274</v>
+        <v>1.07553722393175</v>
       </c>
       <c r="J18">
-        <v>1.091816030463681</v>
+        <v>1.070689698853089</v>
       </c>
       <c r="K18">
-        <v>1.092874094735166</v>
+        <v>1.076058744448631</v>
       </c>
       <c r="L18">
-        <v>1.091939957146878</v>
+        <v>1.067134111549348</v>
       </c>
       <c r="M18">
-        <v>1.103779394531731</v>
+        <v>1.080290566137196</v>
       </c>
       <c r="N18">
-        <v>1.093366534459988</v>
+        <v>1.072210201035285</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.086133217086921</v>
+        <v>1.045837846185218</v>
       </c>
       <c r="D19">
-        <v>1.089813210425656</v>
+        <v>1.063747362572192</v>
       </c>
       <c r="E19">
-        <v>1.088883244914659</v>
+        <v>1.054722213402603</v>
       </c>
       <c r="F19">
-        <v>1.100761435184353</v>
+        <v>1.06808517847691</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.071973763288686</v>
+        <v>1.075823599120213</v>
       </c>
       <c r="J19">
-        <v>1.091896215049177</v>
+        <v>1.071149219568648</v>
       </c>
       <c r="K19">
-        <v>1.092948568625542</v>
+        <v>1.076490400652902</v>
       </c>
       <c r="L19">
-        <v>1.092021454976064</v>
+        <v>1.067598953979794</v>
       </c>
       <c r="M19">
-        <v>1.103863614087118</v>
+        <v>1.080764973678276</v>
       </c>
       <c r="N19">
-        <v>1.093446832916793</v>
+        <v>1.072670374322968</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.085658040927755</v>
+        <v>1.043119009177317</v>
       </c>
       <c r="D20">
-        <v>1.089418431479701</v>
+        <v>1.061508618457374</v>
       </c>
       <c r="E20">
-        <v>1.0884568709066</v>
+        <v>1.052327895070873</v>
       </c>
       <c r="F20">
-        <v>1.10032364922436</v>
+        <v>1.06565342972917</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.071782888133676</v>
+        <v>1.074535512727091</v>
       </c>
       <c r="J20">
-        <v>1.091537476473825</v>
+        <v>1.069083307533287</v>
       </c>
       <c r="K20">
-        <v>1.092615373834828</v>
+        <v>1.07454976276791</v>
       </c>
       <c r="L20">
-        <v>1.091656824536439</v>
+        <v>1.065509059120502</v>
       </c>
       <c r="M20">
-        <v>1.103486842227362</v>
+        <v>1.078632365098609</v>
       </c>
       <c r="N20">
-        <v>1.093087584891516</v>
+        <v>1.070601528455554</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.084111518813895</v>
+        <v>1.034027071837508</v>
       </c>
       <c r="D21">
-        <v>1.088133482205269</v>
+        <v>1.054028508745882</v>
       </c>
       <c r="E21">
-        <v>1.087068767083733</v>
+        <v>1.044324810312162</v>
       </c>
       <c r="F21">
-        <v>1.098898982108179</v>
+        <v>1.057530288689262</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.071159749647848</v>
+        <v>1.070213137553654</v>
       </c>
       <c r="J21">
-        <v>1.090368806651641</v>
+        <v>1.062167944068705</v>
       </c>
       <c r="K21">
-        <v>1.091529825132431</v>
+        <v>1.068053824517748</v>
       </c>
       <c r="L21">
-        <v>1.090468669838053</v>
+        <v>1.058512431723089</v>
       </c>
       <c r="M21">
-        <v>1.102259755965249</v>
+        <v>1.071497973496313</v>
       </c>
       <c r="N21">
-        <v>1.091917255424137</v>
+        <v>1.063676344381648</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.083137841741307</v>
+        <v>1.028101561308027</v>
       </c>
       <c r="D22">
-        <v>1.087324423459032</v>
+        <v>1.049159041019079</v>
       </c>
       <c r="E22">
-        <v>1.086194512606173</v>
+        <v>1.039112304751997</v>
       </c>
       <c r="F22">
-        <v>1.098002152595803</v>
+        <v>1.052243572262304</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.070765962519898</v>
+        <v>1.067384871444938</v>
       </c>
       <c r="J22">
-        <v>1.089632172907317</v>
+        <v>1.057656053180645</v>
       </c>
       <c r="K22">
-        <v>1.090845513295484</v>
+        <v>1.063815743139329</v>
       </c>
       <c r="L22">
-        <v>1.089719531082494</v>
+        <v>1.053946817059037</v>
       </c>
       <c r="M22">
-        <v>1.101486555557192</v>
+        <v>1.066846565046155</v>
       </c>
       <c r="N22">
-        <v>1.091179575575403</v>
+        <v>1.059158046091007</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.083654133228514</v>
+        <v>1.031263654388114</v>
       </c>
       <c r="D23">
-        <v>1.08775343220755</v>
+        <v>1.051757022306242</v>
       </c>
       <c r="E23">
-        <v>1.086658115192265</v>
+        <v>1.041893556960124</v>
       </c>
       <c r="F23">
-        <v>1.098477683329588</v>
+        <v>1.055064042877708</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.070974906552145</v>
+        <v>1.068895180600526</v>
       </c>
       <c r="J23">
-        <v>1.090022852761285</v>
+        <v>1.06006421824671</v>
       </c>
       <c r="K23">
-        <v>1.09120845044881</v>
+        <v>1.06607774492925</v>
       </c>
       <c r="L23">
-        <v>1.090116864246335</v>
+        <v>1.056383718466668</v>
       </c>
       <c r="M23">
-        <v>1.101896604732625</v>
+        <v>1.069328870668109</v>
       </c>
       <c r="N23">
-        <v>1.091570810239575</v>
+        <v>1.061569631027686</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.085683946689453</v>
+        <v>1.043268116116553</v>
       </c>
       <c r="D24">
-        <v>1.089439954477024</v>
+        <v>1.061631373970526</v>
       </c>
       <c r="E24">
-        <v>1.088480117628315</v>
+        <v>1.052459192486193</v>
       </c>
       <c r="F24">
-        <v>1.100347515929516</v>
+        <v>1.065786761180137</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.071793301510359</v>
+        <v>1.074606210241911</v>
       </c>
       <c r="J24">
-        <v>1.091557038446044</v>
+        <v>1.069196632819966</v>
       </c>
       <c r="K24">
-        <v>1.092633543261138</v>
+        <v>1.074656216052401</v>
       </c>
       <c r="L24">
-        <v>1.091676708885897</v>
+        <v>1.065623703754964</v>
       </c>
       <c r="M24">
-        <v>1.103507386307216</v>
+        <v>1.078749333640201</v>
       </c>
       <c r="N24">
-        <v>1.09310717464398</v>
+        <v>1.070715014677139</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.088033895453</v>
+        <v>1.056383973295351</v>
       </c>
       <c r="D25">
-        <v>1.091392161095333</v>
+        <v>1.072438969363217</v>
       </c>
       <c r="E25">
-        <v>1.090588095437072</v>
+        <v>1.064013592500678</v>
       </c>
       <c r="F25">
-        <v>1.102512790994027</v>
+        <v>1.077528862119576</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.072734405415389</v>
+        <v>1.080797966259713</v>
       </c>
       <c r="J25">
-        <v>1.093329495063093</v>
+        <v>1.079152165950903</v>
       </c>
       <c r="K25">
-        <v>1.094279651867689</v>
+        <v>1.084007986078667</v>
       </c>
       <c r="L25">
-        <v>1.093477843056722</v>
+        <v>1.075693283932614</v>
       </c>
       <c r="M25">
-        <v>1.105369434246184</v>
+        <v>1.089032067436664</v>
       </c>
       <c r="N25">
-        <v>1.094882148352729</v>
+        <v>1.080684685807037</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.066278323345228</v>
+        <v>1.011080904778957</v>
       </c>
       <c r="D2">
-        <v>1.080603647651891</v>
+        <v>1.031038371451714</v>
       </c>
       <c r="E2">
-        <v>1.072735418433221</v>
+        <v>1.026001284313018</v>
       </c>
       <c r="F2">
-        <v>1.086404652093311</v>
+        <v>1.037273620746932</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.085428765940929</v>
+        <v>1.047372516484475</v>
       </c>
       <c r="J2">
-        <v>1.086642516609896</v>
+        <v>1.032935164796766</v>
       </c>
       <c r="K2">
-        <v>1.091043646739322</v>
+        <v>1.042081586619488</v>
       </c>
       <c r="L2">
-        <v>1.083266568600415</v>
+        <v>1.037109885520882</v>
       </c>
       <c r="M2">
-        <v>1.096778490860028</v>
+        <v>1.048236995258885</v>
       </c>
       <c r="N2">
-        <v>1.08818567362312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014371767050797</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.046748709991449</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.040825609244751</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.073171879164189</v>
+        <v>1.015456182975176</v>
       </c>
       <c r="D3">
-        <v>1.086297305498455</v>
+        <v>1.033929647960334</v>
       </c>
       <c r="E3">
-        <v>1.078813895080813</v>
+        <v>1.029397042996916</v>
       </c>
       <c r="F3">
-        <v>1.092597345637604</v>
+        <v>1.040373684995057</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.088631111820888</v>
+        <v>1.048151042892981</v>
       </c>
       <c r="J3">
-        <v>1.091848769577432</v>
+        <v>1.035534185037011</v>
       </c>
       <c r="K3">
-        <v>1.095933387614815</v>
+        <v>1.044146045930967</v>
       </c>
       <c r="L3">
-        <v>1.088528680918041</v>
+        <v>1.039667108061183</v>
       </c>
       <c r="M3">
-        <v>1.102168189255334</v>
+        <v>1.050514779225178</v>
       </c>
       <c r="N3">
-        <v>1.093399320067036</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01528925651265</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.048551405629151</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04228269788062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.077509035637124</v>
+        <v>1.018234586207409</v>
       </c>
       <c r="D4">
-        <v>1.089881485089799</v>
+        <v>1.035769048453764</v>
       </c>
       <c r="E4">
-        <v>1.082638709674964</v>
+        <v>1.031559626227019</v>
       </c>
       <c r="F4">
-        <v>1.096497177846754</v>
+        <v>1.042349444557251</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.09063454686809</v>
+        <v>1.048635288326147</v>
       </c>
       <c r="J4">
-        <v>1.095118339092612</v>
+        <v>1.037183077504771</v>
       </c>
       <c r="K4">
-        <v>1.099003897488793</v>
+        <v>1.045454119759483</v>
       </c>
       <c r="L4">
-        <v>1.091832469035024</v>
+        <v>1.041291509915393</v>
       </c>
       <c r="M4">
-        <v>1.105555418074978</v>
+        <v>1.051962266157235</v>
       </c>
       <c r="N4">
-        <v>1.096673532745952</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015870795704382</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049696980990853</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.043208504658544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.079304325500997</v>
+        <v>1.019394900836948</v>
       </c>
       <c r="D5">
-        <v>1.091365499870531</v>
+        <v>1.036539988282494</v>
       </c>
       <c r="E5">
-        <v>1.08422198676948</v>
+        <v>1.032464816045754</v>
       </c>
       <c r="F5">
-        <v>1.098112257175521</v>
+        <v>1.043176805540886</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.091461072050368</v>
+        <v>1.048836684291131</v>
       </c>
       <c r="J5">
-        <v>1.096470241970528</v>
+        <v>1.037872990861165</v>
       </c>
       <c r="K5">
-        <v>1.100273414573102</v>
+        <v>1.046002476169577</v>
       </c>
       <c r="L5">
-        <v>1.093198308908686</v>
+        <v>1.041971408074037</v>
       </c>
       <c r="M5">
-        <v>1.106956550553789</v>
+        <v>1.052568368254745</v>
       </c>
       <c r="N5">
-        <v>1.098027355481021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01611457430274</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.050176663989348</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.043603371992912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.079604159189608</v>
+        <v>1.019594458745852</v>
       </c>
       <c r="D6">
-        <v>1.091613369276956</v>
+        <v>1.036675067942173</v>
       </c>
       <c r="E6">
-        <v>1.084486414147091</v>
+        <v>1.032621319185755</v>
       </c>
       <c r="F6">
-        <v>1.09838203978469</v>
+        <v>1.04331989922219</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.091598947643839</v>
+        <v>1.048873177193834</v>
       </c>
       <c r="J6">
-        <v>1.096695937031173</v>
+        <v>1.037993700295269</v>
       </c>
       <c r="K6">
-        <v>1.100485350748665</v>
+        <v>1.046100166511426</v>
       </c>
       <c r="L6">
-        <v>1.093426318106396</v>
+        <v>1.042090087504729</v>
       </c>
       <c r="M6">
-        <v>1.107190498163521</v>
+        <v>1.052674313083361</v>
       </c>
       <c r="N6">
-        <v>1.098253371054539</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016157941009368</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.050260511106993</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043681148417244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.07753313270766</v>
+        <v>1.018264824762105</v>
       </c>
       <c r="D7">
-        <v>1.089901402577387</v>
+        <v>1.035795697167138</v>
       </c>
       <c r="E7">
-        <v>1.082659960848436</v>
+        <v>1.03158521184742</v>
       </c>
       <c r="F7">
-        <v>1.09651885292418</v>
+        <v>1.042372880995602</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.090645651780399</v>
+        <v>1.048645944591225</v>
       </c>
       <c r="J7">
-        <v>1.0951364907493</v>
+        <v>1.037206655198614</v>
       </c>
       <c r="K7">
-        <v>1.099020943295525</v>
+        <v>1.045477610530916</v>
       </c>
       <c r="L7">
-        <v>1.091850808664611</v>
+        <v>1.041313930909515</v>
       </c>
       <c r="M7">
-        <v>1.105574228441434</v>
+        <v>1.051982608218987</v>
       </c>
       <c r="N7">
-        <v>1.096691710180075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01588110180465</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.049713080166637</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.043245132789857</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.068634530576522</v>
+        <v>1.012589345380103</v>
       </c>
       <c r="D8">
-        <v>1.082549280814004</v>
+        <v>1.032042639236908</v>
       </c>
       <c r="E8">
-        <v>1.074812900056936</v>
+        <v>1.027173321146801</v>
       </c>
       <c r="F8">
-        <v>1.088520502815051</v>
+        <v>1.038343277198919</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.086525693370293</v>
+        <v>1.047649755352874</v>
       </c>
       <c r="J8">
-        <v>1.088423247163255</v>
+        <v>1.033838555288511</v>
       </c>
       <c r="K8">
-        <v>1.092716173109643</v>
+        <v>1.042805384020393</v>
       </c>
       <c r="L8">
-        <v>1.085066583707914</v>
+        <v>1.037997374905119</v>
       </c>
       <c r="M8">
-        <v>1.098621442783535</v>
+        <v>1.049027753704634</v>
       </c>
       <c r="N8">
-        <v>1.089968933018118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014693396317176</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.047374536652776</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.0413602193814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.051934806149021</v>
+        <v>1.002140742980225</v>
       </c>
       <c r="D9">
-        <v>1.068770730835798</v>
+        <v>1.025152107741714</v>
       </c>
       <c r="E9">
-        <v>1.060093049664592</v>
+        <v>1.019099077430807</v>
       </c>
       <c r="F9">
-        <v>1.073542648312161</v>
+        <v>1.030981029205964</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.078703870581228</v>
+        <v>1.045728470887759</v>
       </c>
       <c r="J9">
-        <v>1.075778084996035</v>
+        <v>1.027618131915392</v>
       </c>
       <c r="K9">
-        <v>1.080838564900235</v>
+        <v>1.037849876852106</v>
       </c>
       <c r="L9">
-        <v>1.072280989808601</v>
+        <v>1.031889703130726</v>
       </c>
       <c r="M9">
-        <v>1.085545476236766</v>
+        <v>1.043590691430178</v>
       </c>
       <c r="N9">
-        <v>1.0773058132702</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012492447401979</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.043071494345356</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.037853189491159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040001524159005</v>
+        <v>0.9949491269838815</v>
       </c>
       <c r="D10">
-        <v>1.058942679436146</v>
+        <v>1.020457961334606</v>
       </c>
       <c r="E10">
-        <v>1.049583104483134</v>
+        <v>1.013609401509068</v>
       </c>
       <c r="F10">
-        <v>1.062866601549573</v>
+        <v>1.026022609572753</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.073055946439196</v>
+        <v>1.044379219160557</v>
       </c>
       <c r="J10">
-        <v>1.066713269501239</v>
+        <v>1.023364584053849</v>
       </c>
       <c r="K10">
-        <v>1.072323449255994</v>
+        <v>1.034467410684854</v>
       </c>
       <c r="L10">
-        <v>1.063111332960113</v>
+        <v>1.027737206057026</v>
       </c>
       <c r="M10">
-        <v>1.076186537170962</v>
+        <v>1.039937393108477</v>
       </c>
       <c r="N10">
-        <v>1.068228124697653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010995295173524</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.040231487361671</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035478370822779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034614913190976</v>
+        <v>0.9924609641167244</v>
       </c>
       <c r="D11">
-        <v>1.054511830272548</v>
+        <v>1.01903420092022</v>
       </c>
       <c r="E11">
-        <v>1.044842069614297</v>
+        <v>1.011958471168605</v>
       </c>
       <c r="F11">
-        <v>1.058055079647781</v>
+        <v>1.024839782241684</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.070493255629463</v>
+        <v>1.044082228105638</v>
       </c>
       <c r="J11">
-        <v>1.0626153499877</v>
+        <v>1.022150774184864</v>
       </c>
       <c r="K11">
-        <v>1.068474087571956</v>
+        <v>1.033605870904153</v>
       </c>
       <c r="L11">
-        <v>1.058965136970227</v>
+        <v>1.026658337775537</v>
       </c>
       <c r="M11">
-        <v>1.071959357498117</v>
+        <v>1.039307982670585</v>
       </c>
       <c r="N11">
-        <v>1.064124385668367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010651298412629</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.040168739987101</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.034902068382684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032578245120306</v>
+        <v>0.9917911335987021</v>
       </c>
       <c r="D12">
-        <v>1.052837474025271</v>
+        <v>1.018742536301051</v>
       </c>
       <c r="E12">
-        <v>1.043050058224537</v>
+        <v>1.011628977555102</v>
       </c>
       <c r="F12">
-        <v>1.056237105887269</v>
+        <v>1.024768555864613</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.069522378996172</v>
+        <v>1.044086052453742</v>
       </c>
       <c r="J12">
-        <v>1.06106508471449</v>
+        <v>1.021947016874075</v>
       </c>
       <c r="K12">
-        <v>1.06701787843174</v>
+        <v>1.033519257532911</v>
       </c>
       <c r="L12">
-        <v>1.057396487004229</v>
+        <v>1.026536725230063</v>
       </c>
       <c r="M12">
-        <v>1.070360769399044</v>
+        <v>1.039436131560531</v>
       </c>
       <c r="N12">
-        <v>1.062571918840651</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010646766973796</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.040595879334329</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.034840829920606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033016789118977</v>
+        <v>0.9924974752744307</v>
       </c>
       <c r="D13">
-        <v>1.053197959067761</v>
+        <v>1.019324605979607</v>
       </c>
       <c r="E13">
-        <v>1.043435894446709</v>
+        <v>1.012314074673767</v>
       </c>
       <c r="F13">
-        <v>1.056628501116407</v>
+        <v>1.025573904169113</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.069731518203105</v>
+        <v>1.044336600544886</v>
       </c>
       <c r="J13">
-        <v>1.06139893153451</v>
+        <v>1.022528988451133</v>
       </c>
       <c r="K13">
-        <v>1.067331469001097</v>
+        <v>1.034047887628241</v>
       </c>
       <c r="L13">
-        <v>1.057734298224398</v>
+        <v>1.027165843924777</v>
       </c>
       <c r="M13">
-        <v>1.070704996055059</v>
+        <v>1.040184572957912</v>
       </c>
       <c r="N13">
-        <v>1.062906239761448</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010913323245662</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.041463808997113</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.035212096375323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034447310557352</v>
+        <v>0.993615576614465</v>
       </c>
       <c r="D14">
-        <v>1.054374023422752</v>
+        <v>1.020128822628016</v>
       </c>
       <c r="E14">
-        <v>1.04469458831504</v>
+        <v>1.013253019597583</v>
       </c>
       <c r="F14">
-        <v>1.057905447785068</v>
+        <v>1.026534722414352</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.070413398422831</v>
+        <v>1.044623872533885</v>
       </c>
       <c r="J14">
-        <v>1.062487791484452</v>
+        <v>1.023292425814514</v>
       </c>
       <c r="K14">
-        <v>1.068354267552599</v>
+        <v>1.034697351508047</v>
       </c>
       <c r="L14">
-        <v>1.05883606813754</v>
+        <v>1.027945904645283</v>
       </c>
       <c r="M14">
-        <v>1.071827811080742</v>
+        <v>1.040989337434038</v>
       </c>
       <c r="N14">
-        <v>1.063996646017413</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011222916060087</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.04227296152776</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.035672712562513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035323860972577</v>
+        <v>0.9941940675779815</v>
       </c>
       <c r="D15">
-        <v>1.055094782854513</v>
+        <v>1.020523517968333</v>
       </c>
       <c r="E15">
-        <v>1.045465929136331</v>
+        <v>1.013712029141907</v>
       </c>
       <c r="F15">
-        <v>1.058688063993177</v>
+        <v>1.02697406466561</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.070830968212059</v>
+        <v>1.044751685569608</v>
       </c>
       <c r="J15">
-        <v>1.063154879719222</v>
+        <v>1.023657826564767</v>
       </c>
       <c r="K15">
-        <v>1.068980887244587</v>
+        <v>1.034998661301978</v>
       </c>
       <c r="L15">
-        <v>1.059511050021513</v>
+        <v>1.028309390437026</v>
       </c>
       <c r="M15">
-        <v>1.072515778353246</v>
+        <v>1.041335402599521</v>
       </c>
       <c r="N15">
-        <v>1.064664681593992</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011360882038697</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.042583960274831</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.035891615147409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040354154991558</v>
+        <v>0.9971066209944925</v>
       </c>
       <c r="D16">
-        <v>1.059232864992401</v>
+        <v>1.022404429449997</v>
       </c>
       <c r="E16">
-        <v>1.049893545403928</v>
+        <v>1.015909232496354</v>
       </c>
       <c r="F16">
-        <v>1.063181751036545</v>
+        <v>1.028945478139402</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.073223441885385</v>
+        <v>1.045290761387017</v>
       </c>
       <c r="J16">
-        <v>1.066981416007378</v>
+        <v>1.025358352900858</v>
       </c>
       <c r="K16">
-        <v>1.072575333978778</v>
+        <v>1.0363450884188</v>
       </c>
       <c r="L16">
-        <v>1.063382621069693</v>
+        <v>1.029961209478237</v>
       </c>
       <c r="M16">
-        <v>1.076463220152424</v>
+        <v>1.042775863627645</v>
       </c>
       <c r="N16">
-        <v>1.068496652002587</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011947338610208</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.043683863734503</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.036846745704503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.043448853342642</v>
+        <v>0.9987563494989704</v>
       </c>
       <c r="D17">
-        <v>1.061780173264378</v>
+        <v>1.023427119236275</v>
       </c>
       <c r="E17">
-        <v>1.05261834415904</v>
+        <v>1.017104042750482</v>
       </c>
       <c r="F17">
-        <v>1.06594838126558</v>
+        <v>1.029950994293659</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.074691896322929</v>
+        <v>1.045551292756415</v>
       </c>
       <c r="J17">
-        <v>1.069333993976662</v>
+        <v>1.026262403394095</v>
       </c>
       <c r="K17">
-        <v>1.074785247706067</v>
+        <v>1.037036487118514</v>
       </c>
       <c r="L17">
-        <v>1.065762663511927</v>
+        <v>1.030818678183316</v>
       </c>
       <c r="M17">
-        <v>1.07889111315208</v>
+        <v>1.043453491864007</v>
       </c>
       <c r="N17">
-        <v>1.070852570902432</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012234760986928</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.044090749929764</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.037338171729264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.045232978740561</v>
+        <v>0.9994582146780021</v>
       </c>
       <c r="D18">
-        <v>1.063249229525969</v>
+        <v>1.023782381133525</v>
       </c>
       <c r="E18">
-        <v>1.054189502371443</v>
+        <v>1.017519501268272</v>
       </c>
       <c r="F18">
-        <v>1.067544077329162</v>
+        <v>1.030174546694317</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.07553722393175</v>
+        <v>1.045586305058945</v>
       </c>
       <c r="J18">
-        <v>1.070689698853089</v>
+        <v>1.026541705646701</v>
       </c>
       <c r="K18">
-        <v>1.076058744448631</v>
+        <v>1.037202849689709</v>
       </c>
       <c r="L18">
-        <v>1.067134111549348</v>
+        <v>1.031042525700465</v>
       </c>
       <c r="M18">
-        <v>1.080290566137196</v>
+        <v>1.043491990931339</v>
       </c>
       <c r="N18">
-        <v>1.072210201035285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012280932340402</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.043884140032733</v>
+      </c>
+      <c r="Q18">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R18">
+        <v>1.037444176058592</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.045837846185218</v>
+        <v>0.9993307990877375</v>
       </c>
       <c r="D19">
-        <v>1.063747362572192</v>
+        <v>1.023564633517029</v>
       </c>
       <c r="E19">
-        <v>1.054722213402603</v>
+        <v>1.017253317070997</v>
       </c>
       <c r="F19">
-        <v>1.06808517847691</v>
+        <v>1.029710272073803</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.075823599120213</v>
+        <v>1.045435527969908</v>
       </c>
       <c r="J19">
-        <v>1.071149219568648</v>
+        <v>1.026284336645698</v>
       </c>
       <c r="K19">
-        <v>1.076490400652902</v>
+        <v>1.03692620945964</v>
       </c>
       <c r="L19">
-        <v>1.067598953979794</v>
+        <v>1.030717753140812</v>
       </c>
       <c r="M19">
-        <v>1.080764973678276</v>
+        <v>1.042973240878767</v>
       </c>
       <c r="N19">
-        <v>1.072670374322968</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.01212726716204</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.043149429003154</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.037254969854307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.043119009177317</v>
+        <v>0.9968564910355635</v>
       </c>
       <c r="D20">
-        <v>1.061508618457374</v>
+        <v>1.021718989277066</v>
       </c>
       <c r="E20">
-        <v>1.052327895070873</v>
+        <v>1.015069970517261</v>
       </c>
       <c r="F20">
-        <v>1.06565342972917</v>
+        <v>1.027343041543763</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.074535512727091</v>
+        <v>1.044755384624046</v>
       </c>
       <c r="J20">
-        <v>1.069083307533287</v>
+        <v>1.02450912981063</v>
       </c>
       <c r="K20">
-        <v>1.07454976276791</v>
+        <v>1.035390392684755</v>
       </c>
       <c r="L20">
-        <v>1.065509059120502</v>
+        <v>1.028852909353306</v>
       </c>
       <c r="M20">
-        <v>1.078632365098609</v>
+        <v>1.040921552286613</v>
       </c>
       <c r="N20">
-        <v>1.070601528455554</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011404773424287</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.040999817260875</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.036173015002726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034027071837508</v>
+        <v>0.9913131967707558</v>
       </c>
       <c r="D21">
-        <v>1.054028508745882</v>
+        <v>1.018070871173503</v>
       </c>
       <c r="E21">
-        <v>1.044324810312162</v>
+        <v>1.010806158544893</v>
       </c>
       <c r="F21">
-        <v>1.057530288689262</v>
+        <v>1.023435222649071</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.070213137553654</v>
+        <v>1.043663015872462</v>
       </c>
       <c r="J21">
-        <v>1.062167944068705</v>
+        <v>1.021178653590272</v>
       </c>
       <c r="K21">
-        <v>1.068053824517748</v>
+        <v>1.032717786665007</v>
       </c>
       <c r="L21">
-        <v>1.058512431723089</v>
+        <v>1.025585656784596</v>
       </c>
       <c r="M21">
-        <v>1.071497973496313</v>
+        <v>1.037985805820365</v>
       </c>
       <c r="N21">
-        <v>1.063676344381648</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.0102163209935</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.038635605337908</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034286621615446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028101561308027</v>
+        <v>0.9877773174549369</v>
       </c>
       <c r="D22">
-        <v>1.049159041019079</v>
+        <v>1.015754927956248</v>
       </c>
       <c r="E22">
-        <v>1.039112304751997</v>
+        <v>1.00810775044225</v>
       </c>
       <c r="F22">
-        <v>1.052243572262304</v>
+        <v>1.020983764426731</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.067384871444938</v>
+        <v>1.042961543985611</v>
       </c>
       <c r="J22">
-        <v>1.057656053180645</v>
+        <v>1.019063510837025</v>
       </c>
       <c r="K22">
-        <v>1.063815743139329</v>
+        <v>1.031020607004406</v>
       </c>
       <c r="L22">
-        <v>1.053946817059037</v>
+        <v>1.023520284302496</v>
       </c>
       <c r="M22">
-        <v>1.066846565046155</v>
+        <v>1.036150683507962</v>
       </c>
       <c r="N22">
-        <v>1.059158046091007</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009463219319598</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.037183223823713</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.033073127975526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031263654388114</v>
+        <v>0.9896444038986919</v>
       </c>
       <c r="D23">
-        <v>1.051757022306242</v>
+        <v>1.016971159027224</v>
       </c>
       <c r="E23">
-        <v>1.041893556960124</v>
+        <v>1.009529454888629</v>
       </c>
       <c r="F23">
-        <v>1.055064042877708</v>
+        <v>1.022275314944942</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.068895180600526</v>
+        <v>1.043327915105249</v>
       </c>
       <c r="J23">
-        <v>1.06006421824671</v>
+        <v>1.020175093407789</v>
       </c>
       <c r="K23">
-        <v>1.06607774492925</v>
+        <v>1.031908542788064</v>
       </c>
       <c r="L23">
-        <v>1.056383718466668</v>
+        <v>1.024605971466215</v>
       </c>
       <c r="M23">
-        <v>1.069328870668109</v>
+        <v>1.037115139864995</v>
       </c>
       <c r="N23">
-        <v>1.061569631027686</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009856769083428</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.037946529490382</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.033691290480167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.043268116116553</v>
+        <v>0.9968584865777534</v>
       </c>
       <c r="D24">
-        <v>1.061631373970526</v>
+        <v>1.021692894001321</v>
       </c>
       <c r="E24">
-        <v>1.052459192486193</v>
+        <v>1.015045084824383</v>
       </c>
       <c r="F24">
-        <v>1.065786761180137</v>
+        <v>1.027290254268537</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.074606210241911</v>
+        <v>1.04473156401468</v>
       </c>
       <c r="J24">
-        <v>1.069196632819966</v>
+        <v>1.024478005095597</v>
       </c>
       <c r="K24">
-        <v>1.074656216052401</v>
+        <v>1.035349474622393</v>
       </c>
       <c r="L24">
-        <v>1.065623703754964</v>
+        <v>1.028813044749146</v>
       </c>
       <c r="M24">
-        <v>1.078749333640201</v>
+        <v>1.040854492321121</v>
       </c>
       <c r="N24">
-        <v>1.070715014677139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011383145186033</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.040905980665786</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.036116689963557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.056383973295351</v>
+        <v>1.00491947048762</v>
       </c>
       <c r="D25">
-        <v>1.072438969363217</v>
+        <v>1.026991132706101</v>
       </c>
       <c r="E25">
-        <v>1.064013592500678</v>
+        <v>1.021243528321458</v>
       </c>
       <c r="F25">
-        <v>1.077528862119576</v>
+        <v>1.032934721878664</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.080797966259713</v>
+        <v>1.046256876900987</v>
       </c>
       <c r="J25">
-        <v>1.079152165950903</v>
+        <v>1.029282401520424</v>
       </c>
       <c r="K25">
-        <v>1.084007986078667</v>
+        <v>1.039184412326529</v>
       </c>
       <c r="L25">
-        <v>1.075693283932614</v>
+        <v>1.033520779495596</v>
       </c>
       <c r="M25">
-        <v>1.089032067436664</v>
+        <v>1.045042410760759</v>
       </c>
       <c r="N25">
-        <v>1.080684685807037</v>
+        <v>1.013085272066358</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.044220427874894</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.038825319281328</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011080904778957</v>
+        <v>1.010418734205308</v>
       </c>
       <c r="D2">
-        <v>1.031038371451714</v>
+        <v>1.029934650892553</v>
       </c>
       <c r="E2">
-        <v>1.026001284313018</v>
+        <v>1.025410185370399</v>
       </c>
       <c r="F2">
-        <v>1.037273620746932</v>
+        <v>1.036551260052227</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047372516484475</v>
+        <v>1.04695794657739</v>
       </c>
       <c r="J2">
-        <v>1.032935164796766</v>
+        <v>1.032292226462755</v>
       </c>
       <c r="K2">
-        <v>1.042081586619488</v>
+        <v>1.040992124902114</v>
       </c>
       <c r="L2">
-        <v>1.037109885520882</v>
+        <v>1.036526512349855</v>
       </c>
       <c r="M2">
-        <v>1.048236995258885</v>
+        <v>1.047523822746126</v>
       </c>
       <c r="N2">
-        <v>1.014371767050797</v>
+        <v>1.015410131925074</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.046748709991449</v>
+        <v>1.046184286386177</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040825609244751</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040064018683994</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022823903690807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015456182975176</v>
+        <v>1.01454499196018</v>
       </c>
       <c r="D3">
-        <v>1.033929647960334</v>
+        <v>1.032567425017878</v>
       </c>
       <c r="E3">
-        <v>1.029397042996916</v>
+        <v>1.028590283857362</v>
       </c>
       <c r="F3">
-        <v>1.040373684995057</v>
+        <v>1.039453438062508</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048151042892981</v>
+        <v>1.047623576198925</v>
       </c>
       <c r="J3">
-        <v>1.035534185037011</v>
+        <v>1.034646849038012</v>
       </c>
       <c r="K3">
-        <v>1.044146045930967</v>
+        <v>1.04279989068824</v>
       </c>
       <c r="L3">
-        <v>1.039667108061183</v>
+        <v>1.038869962610216</v>
       </c>
       <c r="M3">
-        <v>1.050514779225178</v>
+        <v>1.049605215464946</v>
       </c>
       <c r="N3">
-        <v>1.01528925651265</v>
+        <v>1.016068121961524</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048551405629151</v>
+        <v>1.047831554472378</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04228269788062</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041339325026706</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023217352605163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018234586207409</v>
+        <v>1.017167470545468</v>
       </c>
       <c r="D4">
-        <v>1.035769048453764</v>
+        <v>1.034244108803791</v>
       </c>
       <c r="E4">
-        <v>1.031559626227019</v>
+        <v>1.030617641567615</v>
       </c>
       <c r="F4">
-        <v>1.042349444557251</v>
+        <v>1.041304931399059</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048635288326147</v>
+        <v>1.048036722039088</v>
       </c>
       <c r="J4">
-        <v>1.037183077504771</v>
+        <v>1.036141996924527</v>
       </c>
       <c r="K4">
-        <v>1.045454119759483</v>
+        <v>1.043946084605296</v>
       </c>
       <c r="L4">
-        <v>1.041291509915393</v>
+        <v>1.040360065390375</v>
       </c>
       <c r="M4">
-        <v>1.051962266157235</v>
+        <v>1.050929146417801</v>
       </c>
       <c r="N4">
-        <v>1.015870795704382</v>
+        <v>1.016485676404766</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049696980990853</v>
+        <v>1.048879345797088</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043208504658544</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042150750477433</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023464353959189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019394900836948</v>
+        <v>1.018263075833457</v>
       </c>
       <c r="D5">
-        <v>1.036539988282494</v>
+        <v>1.034947409383243</v>
       </c>
       <c r="E5">
-        <v>1.032464816045754</v>
+        <v>1.031466670200511</v>
       </c>
       <c r="F5">
-        <v>1.043176805540886</v>
+        <v>1.042080671890603</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048836684291131</v>
+        <v>1.048208525221609</v>
       </c>
       <c r="J5">
-        <v>1.037872990861165</v>
+        <v>1.036767949742421</v>
       </c>
       <c r="K5">
-        <v>1.046002476169577</v>
+        <v>1.044427082485911</v>
       </c>
       <c r="L5">
-        <v>1.041971408074037</v>
+        <v>1.040984130015283</v>
       </c>
       <c r="M5">
-        <v>1.052568368254745</v>
+        <v>1.051483872336584</v>
       </c>
       <c r="N5">
-        <v>1.01611457430274</v>
+        <v>1.016660868763492</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.050176663989348</v>
+        <v>1.049318369012074</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043603371992912</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042498700782959</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02356795861679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019594458745852</v>
+        <v>1.018451415330244</v>
       </c>
       <c r="D6">
-        <v>1.036675067942173</v>
+        <v>1.035070850869185</v>
       </c>
       <c r="E6">
-        <v>1.032621319185755</v>
+        <v>1.031613430409279</v>
       </c>
       <c r="F6">
-        <v>1.04331989922219</v>
+        <v>1.042214848405207</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048873177193834</v>
+        <v>1.048239888212636</v>
       </c>
       <c r="J6">
-        <v>1.037993700295269</v>
+        <v>1.036877566211095</v>
       </c>
       <c r="K6">
-        <v>1.046100166511426</v>
+        <v>1.044513181033996</v>
       </c>
       <c r="L6">
-        <v>1.042090087504729</v>
+        <v>1.041093121741564</v>
       </c>
       <c r="M6">
-        <v>1.052674313083361</v>
+        <v>1.051580940854429</v>
       </c>
       <c r="N6">
-        <v>1.016157941009368</v>
+        <v>1.016692087893441</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050260511106993</v>
+        <v>1.04939519130676</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043681148417244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042569149997541</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023587136835795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018264824762105</v>
+        <v>1.017206353454988</v>
       </c>
       <c r="D7">
-        <v>1.035795697167138</v>
+        <v>1.034276542775094</v>
       </c>
       <c r="E7">
-        <v>1.03158521184742</v>
+        <v>1.030650495326685</v>
       </c>
       <c r="F7">
-        <v>1.042372880995602</v>
+        <v>1.041333843924553</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048645944591225</v>
+        <v>1.048050103271413</v>
       </c>
       <c r="J7">
-        <v>1.037206655198614</v>
+        <v>1.036173996306391</v>
       </c>
       <c r="K7">
-        <v>1.045477610530916</v>
+        <v>1.043975289713652</v>
       </c>
       <c r="L7">
-        <v>1.041313930909515</v>
+        <v>1.040389668982161</v>
       </c>
       <c r="M7">
-        <v>1.051982608218987</v>
+        <v>1.050954900368252</v>
       </c>
       <c r="N7">
-        <v>1.01588110180465</v>
+        <v>1.016522489536386</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049713080166637</v>
+        <v>1.048899728088461</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043245132789857</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042193418403139</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02347330489349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012589345380103</v>
+        <v>1.011873388050023</v>
       </c>
       <c r="D8">
-        <v>1.032042639236908</v>
+        <v>1.030873168004803</v>
       </c>
       <c r="E8">
-        <v>1.027173321146801</v>
+        <v>1.026535156013454</v>
       </c>
       <c r="F8">
-        <v>1.038343277198919</v>
+        <v>1.037573939057376</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047649755352874</v>
+        <v>1.047207339008871</v>
       </c>
       <c r="J8">
-        <v>1.033838555288511</v>
+        <v>1.033142686698596</v>
       </c>
       <c r="K8">
-        <v>1.042805384020393</v>
+        <v>1.04165057154971</v>
       </c>
       <c r="L8">
-        <v>1.037997374905119</v>
+        <v>1.037367298648078</v>
       </c>
       <c r="M8">
-        <v>1.049027753704634</v>
+        <v>1.048267909074301</v>
       </c>
       <c r="N8">
-        <v>1.014693396317176</v>
+        <v>1.015730188004546</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.047374536652776</v>
+        <v>1.046773175993478</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.0413602193814</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040554685472768</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022972667691487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002140742980225</v>
+        <v>1.002039091174967</v>
       </c>
       <c r="D9">
-        <v>1.025152107741714</v>
+        <v>1.024613065940791</v>
       </c>
       <c r="E9">
-        <v>1.019099077430807</v>
+        <v>1.018991591837818</v>
       </c>
       <c r="F9">
-        <v>1.030981029205964</v>
+        <v>1.030696868127634</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045728470887759</v>
+        <v>1.04556148008499</v>
       </c>
       <c r="J9">
-        <v>1.027618131915392</v>
+        <v>1.027520048788973</v>
       </c>
       <c r="K9">
-        <v>1.037849876852106</v>
+        <v>1.037319047486151</v>
       </c>
       <c r="L9">
-        <v>1.031889703130726</v>
+        <v>1.031783879152552</v>
       </c>
       <c r="M9">
-        <v>1.043590691430178</v>
+        <v>1.043310796167699</v>
       </c>
       <c r="N9">
-        <v>1.012492447401979</v>
+        <v>1.014166088214982</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.043071494345356</v>
+        <v>1.042849976764395</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037853189491159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03748858380907</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022014662901766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9949491269838815</v>
+        <v>0.9953273869233419</v>
       </c>
       <c r="D10">
-        <v>1.020457961334606</v>
+        <v>1.020392134960632</v>
       </c>
       <c r="E10">
-        <v>1.013609401509068</v>
+        <v>1.013913925197804</v>
       </c>
       <c r="F10">
-        <v>1.026022609572753</v>
+        <v>1.026109256370694</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044379219160557</v>
+        <v>1.044419440838974</v>
       </c>
       <c r="J10">
-        <v>1.023364584053849</v>
+        <v>1.023727627634416</v>
       </c>
       <c r="K10">
-        <v>1.034467410684854</v>
+        <v>1.034402712134636</v>
       </c>
       <c r="L10">
-        <v>1.027737206057026</v>
+        <v>1.028036423061391</v>
       </c>
       <c r="M10">
-        <v>1.039937393108477</v>
+        <v>1.040022576344668</v>
       </c>
       <c r="N10">
-        <v>1.010995295173524</v>
+        <v>1.013231132226831</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.040231487361671</v>
+        <v>1.040298900019116</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035478370822779</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035445033714983</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021368552386514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9924609641167244</v>
+        <v>0.993034479087988</v>
       </c>
       <c r="D11">
-        <v>1.01903420092022</v>
+        <v>1.019144528867927</v>
       </c>
       <c r="E11">
-        <v>1.011958471168605</v>
+        <v>1.012425198565467</v>
       </c>
       <c r="F11">
-        <v>1.024839782241684</v>
+        <v>1.025069164173269</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044082228105638</v>
+        <v>1.044194725740136</v>
       </c>
       <c r="J11">
-        <v>1.022150774184864</v>
+        <v>1.02269993057641</v>
       </c>
       <c r="K11">
-        <v>1.033605870904153</v>
+        <v>1.033714218263993</v>
       </c>
       <c r="L11">
-        <v>1.026658337775537</v>
+        <v>1.027116537242826</v>
       </c>
       <c r="M11">
-        <v>1.039307982670585</v>
+        <v>1.039533307674914</v>
       </c>
       <c r="N11">
-        <v>1.010651298412629</v>
+        <v>1.013237357494068</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040168739987101</v>
+        <v>1.040346969337393</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034902068382684</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034994289198134</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021277392498975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9917911335987021</v>
+        <v>0.9924053637079978</v>
       </c>
       <c r="D12">
-        <v>1.018742536301051</v>
+        <v>1.018886492694933</v>
       </c>
       <c r="E12">
-        <v>1.011628977555102</v>
+        <v>1.012126093365337</v>
       </c>
       <c r="F12">
-        <v>1.024768555864613</v>
+        <v>1.025025442201924</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044086052453742</v>
+        <v>1.044208164301009</v>
       </c>
       <c r="J12">
-        <v>1.021947016874075</v>
+        <v>1.022534656688143</v>
       </c>
       <c r="K12">
-        <v>1.033519257532911</v>
+        <v>1.03366058694133</v>
       </c>
       <c r="L12">
-        <v>1.026536725230063</v>
+        <v>1.027024606469491</v>
       </c>
       <c r="M12">
-        <v>1.039436131560531</v>
+        <v>1.039688402131187</v>
       </c>
       <c r="N12">
-        <v>1.010646766973796</v>
+        <v>1.013341208858894</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040595879334329</v>
+        <v>1.040795355025536</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034840829920606</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034956370916244</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021310272443745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9924974752744307</v>
+        <v>0.9930177490258506</v>
       </c>
       <c r="D13">
-        <v>1.019324605979607</v>
+        <v>1.019380851258111</v>
       </c>
       <c r="E13">
-        <v>1.012314074673767</v>
+        <v>1.01272667089117</v>
       </c>
       <c r="F13">
-        <v>1.025573904169113</v>
+        <v>1.025759124793077</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044336600544886</v>
+        <v>1.044414406944706</v>
       </c>
       <c r="J13">
-        <v>1.022528988451133</v>
+        <v>1.023026864404842</v>
       </c>
       <c r="K13">
-        <v>1.034047887628241</v>
+        <v>1.034103111351526</v>
       </c>
       <c r="L13">
-        <v>1.027165843924777</v>
+        <v>1.027570813942975</v>
       </c>
       <c r="M13">
-        <v>1.040184572957912</v>
+        <v>1.040366483078633</v>
       </c>
       <c r="N13">
-        <v>1.010913323245662</v>
+        <v>1.013495653641626</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041463808997113</v>
+        <v>1.04160761318241</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035212096375323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035266509626531</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021445504656135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.993615576614465</v>
+        <v>0.9940102438524129</v>
       </c>
       <c r="D14">
-        <v>1.020128822628016</v>
+        <v>1.020069888350453</v>
       </c>
       <c r="E14">
-        <v>1.013253019597583</v>
+        <v>1.013555687481219</v>
       </c>
       <c r="F14">
-        <v>1.026534722414352</v>
+        <v>1.026625949361592</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044623872533885</v>
+        <v>1.044647068778114</v>
       </c>
       <c r="J14">
-        <v>1.023292425814514</v>
+        <v>1.023670357802219</v>
       </c>
       <c r="K14">
-        <v>1.034697351508047</v>
+        <v>1.034639473866088</v>
       </c>
       <c r="L14">
-        <v>1.027945904645283</v>
+        <v>1.028243052255127</v>
       </c>
       <c r="M14">
-        <v>1.040989337434038</v>
+        <v>1.041078955435983</v>
       </c>
       <c r="N14">
-        <v>1.011222916060087</v>
+        <v>1.013628569066916</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04227296152776</v>
+        <v>1.042343797120353</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035672712562513</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035647289723746</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021587291445208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9941940675779815</v>
+        <v>0.9945295081703288</v>
       </c>
       <c r="D15">
-        <v>1.020523517968333</v>
+        <v>1.020410625539042</v>
       </c>
       <c r="E15">
-        <v>1.013712029141907</v>
+        <v>1.01396360205535</v>
       </c>
       <c r="F15">
-        <v>1.02697406466561</v>
+        <v>1.02702133853348</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044751685569608</v>
+        <v>1.044750196820211</v>
       </c>
       <c r="J15">
-        <v>1.023657826564767</v>
+        <v>1.023979171954426</v>
       </c>
       <c r="K15">
-        <v>1.034998661301978</v>
+        <v>1.03488777723312</v>
       </c>
       <c r="L15">
-        <v>1.028309390437026</v>
+        <v>1.028556411424307</v>
       </c>
       <c r="M15">
-        <v>1.041335402599521</v>
+        <v>1.041381849261559</v>
       </c>
       <c r="N15">
-        <v>1.011360882038697</v>
+        <v>1.013677889390779</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042583960274831</v>
+        <v>1.042620671545659</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035891615147409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035829281015388</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021647311401492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9971066209944925</v>
+        <v>0.9971824182310239</v>
       </c>
       <c r="D16">
-        <v>1.022404429449997</v>
+        <v>1.022053879376561</v>
       </c>
       <c r="E16">
-        <v>1.015909232496354</v>
+        <v>1.015940145855583</v>
       </c>
       <c r="F16">
-        <v>1.028945478139402</v>
+        <v>1.028800590731151</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045290761387017</v>
+        <v>1.045185253430344</v>
       </c>
       <c r="J16">
-        <v>1.025358352900858</v>
+        <v>1.025431128097017</v>
       </c>
       <c r="K16">
-        <v>1.0363450884188</v>
+        <v>1.036000499612551</v>
       </c>
       <c r="L16">
-        <v>1.029961209478237</v>
+        <v>1.029991588667883</v>
       </c>
       <c r="M16">
-        <v>1.042775863627645</v>
+        <v>1.042633399259921</v>
       </c>
       <c r="N16">
-        <v>1.011947338610208</v>
+        <v>1.013861871813898</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043683863734503</v>
+        <v>1.043571257191258</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036846745704503</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036619468300961</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021885295240349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9987563494989704</v>
+        <v>0.9987115965183757</v>
       </c>
       <c r="D17">
-        <v>1.023427119236275</v>
+        <v>1.022963746660977</v>
       </c>
       <c r="E17">
-        <v>1.017104042750482</v>
+        <v>1.017033818300291</v>
       </c>
       <c r="F17">
-        <v>1.029950994293659</v>
+        <v>1.029716197884908</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045551292756415</v>
+        <v>1.045398563771896</v>
       </c>
       <c r="J17">
-        <v>1.026262403394095</v>
+        <v>1.026219376366747</v>
       </c>
       <c r="K17">
-        <v>1.037036487118514</v>
+        <v>1.03658077196893</v>
       </c>
       <c r="L17">
-        <v>1.030818678183316</v>
+        <v>1.030749632315311</v>
       </c>
       <c r="M17">
-        <v>1.043453491864007</v>
+        <v>1.043222511577125</v>
       </c>
       <c r="N17">
-        <v>1.012234760986928</v>
+        <v>1.013964056043582</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044090749929764</v>
+        <v>1.043908160581459</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.037338171729264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037032569204013</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021995277993245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9994582146780021</v>
+        <v>0.9993867224175182</v>
       </c>
       <c r="D18">
-        <v>1.023782381133525</v>
+        <v>1.023292741871006</v>
       </c>
       <c r="E18">
-        <v>1.017519501268272</v>
+        <v>1.01742921995003</v>
       </c>
       <c r="F18">
-        <v>1.030174546694317</v>
+        <v>1.029919812417072</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045586305058945</v>
+        <v>1.04542604627196</v>
       </c>
       <c r="J18">
-        <v>1.026541705646701</v>
+        <v>1.026472918678706</v>
       </c>
       <c r="K18">
-        <v>1.037202849689709</v>
+        <v>1.036721170254808</v>
       </c>
       <c r="L18">
-        <v>1.031042525700465</v>
+        <v>1.030953734634929</v>
       </c>
       <c r="M18">
-        <v>1.043491990931339</v>
+        <v>1.043241330907962</v>
       </c>
       <c r="N18">
-        <v>1.012280932340402</v>
+        <v>1.013957081319464</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043884140032733</v>
+        <v>1.043685952796315</v>
       </c>
       <c r="Q18">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.037444176058592</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037119082651161</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021993879942024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9993307990877375</v>
+        <v>0.999304503394167</v>
       </c>
       <c r="D19">
-        <v>1.023564633517029</v>
+        <v>1.023117219381929</v>
       </c>
       <c r="E19">
-        <v>1.017253317070997</v>
+        <v>1.017205217865521</v>
       </c>
       <c r="F19">
-        <v>1.029710272073803</v>
+        <v>1.029490169260926</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045435527969908</v>
+        <v>1.045298736234504</v>
       </c>
       <c r="J19">
-        <v>1.026284336645698</v>
+        <v>1.02625903046264</v>
       </c>
       <c r="K19">
-        <v>1.03692620945964</v>
+        <v>1.036486033502024</v>
       </c>
       <c r="L19">
-        <v>1.030717753140812</v>
+        <v>1.030670444145885</v>
       </c>
       <c r="M19">
-        <v>1.042973240878767</v>
+        <v>1.042756643578697</v>
       </c>
       <c r="N19">
-        <v>1.01212726716204</v>
+        <v>1.013842669734222</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043149429003154</v>
+        <v>1.042978118209119</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037254969854307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036959846072104</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021900660201659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9968564910355635</v>
+        <v>0.9970744776580527</v>
       </c>
       <c r="D20">
-        <v>1.021718989277066</v>
+        <v>1.021503742477281</v>
       </c>
       <c r="E20">
-        <v>1.015069970517261</v>
+        <v>1.015236881115533</v>
       </c>
       <c r="F20">
-        <v>1.027343041543763</v>
+        <v>1.027309273782486</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044755384624046</v>
+        <v>1.044728716329581</v>
       </c>
       <c r="J20">
-        <v>1.02450912981063</v>
+        <v>1.024718640961172</v>
       </c>
       <c r="K20">
-        <v>1.035390392684755</v>
+        <v>1.035178727298947</v>
       </c>
       <c r="L20">
-        <v>1.028852909353306</v>
+        <v>1.029016997006543</v>
       </c>
       <c r="M20">
-        <v>1.040921552286613</v>
+        <v>1.040888338366014</v>
       </c>
       <c r="N20">
-        <v>1.011404773424287</v>
+        <v>1.013410360160349</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040999817260875</v>
+        <v>1.040973531983315</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036173015002726</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.036039852089335</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021543905288211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9913131967707558</v>
+        <v>0.9920658410814834</v>
       </c>
       <c r="D21">
-        <v>1.018070871173503</v>
+        <v>1.018344193984773</v>
       </c>
       <c r="E21">
-        <v>1.010806158544893</v>
+        <v>1.011433088552662</v>
       </c>
       <c r="F21">
-        <v>1.023435222649071</v>
+        <v>1.023799631329802</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043663015872462</v>
+        <v>1.043857069032536</v>
       </c>
       <c r="J21">
-        <v>1.021178653590272</v>
+        <v>1.021899072912629</v>
       </c>
       <c r="K21">
-        <v>1.032717786665007</v>
+        <v>1.032986169276944</v>
       </c>
       <c r="L21">
-        <v>1.025585656784596</v>
+        <v>1.026201047341273</v>
       </c>
       <c r="M21">
-        <v>1.037985805820365</v>
+        <v>1.038343718031472</v>
       </c>
       <c r="N21">
-        <v>1.0102163209935</v>
+        <v>1.01304634919352</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.038635605337908</v>
+        <v>1.038918869534838</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034286621615446</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034493206836348</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021055844233344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9877773174549369</v>
+        <v>0.9888719218128789</v>
       </c>
       <c r="D22">
-        <v>1.015754927956248</v>
+        <v>1.016341406168285</v>
       </c>
       <c r="E22">
-        <v>1.00810775044225</v>
+        <v>1.009029293978379</v>
       </c>
       <c r="F22">
-        <v>1.020983764426731</v>
+        <v>1.021603682606744</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042961543985611</v>
+        <v>1.04329746978092</v>
       </c>
       <c r="J22">
-        <v>1.019063510837025</v>
+        <v>1.020108428564565</v>
       </c>
       <c r="K22">
-        <v>1.031020607004406</v>
+        <v>1.031595941912814</v>
       </c>
       <c r="L22">
-        <v>1.023520284302496</v>
+        <v>1.024423976129368</v>
       </c>
       <c r="M22">
-        <v>1.036150683507962</v>
+        <v>1.036758980460696</v>
       </c>
       <c r="N22">
-        <v>1.009463219319598</v>
+        <v>1.012810769868602</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.037183223823713</v>
+        <v>1.037664652142796</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033073127975526</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033495453954607</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020746097266854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9896444038986919</v>
+        <v>0.9905401446369884</v>
       </c>
       <c r="D23">
-        <v>1.016971159027224</v>
+        <v>1.01737815865411</v>
       </c>
       <c r="E23">
-        <v>1.009529454888629</v>
+        <v>1.010279506689627</v>
       </c>
       <c r="F23">
-        <v>1.022275314944942</v>
+        <v>1.022747607830811</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043327915105249</v>
+        <v>1.043582097137737</v>
       </c>
       <c r="J23">
-        <v>1.020175093407789</v>
+        <v>1.021031404527839</v>
       </c>
       <c r="K23">
-        <v>1.031908542788064</v>
+        <v>1.032308009532142</v>
       </c>
       <c r="L23">
-        <v>1.024605971466215</v>
+        <v>1.025341878677474</v>
       </c>
       <c r="M23">
-        <v>1.037115139864995</v>
+        <v>1.037578809774538</v>
       </c>
       <c r="N23">
-        <v>1.009856769083428</v>
+        <v>1.012885444188633</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.037946529490382</v>
+        <v>1.038313494347439</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.033691290480167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.033988328095986</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020901467652788</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9968584865777534</v>
+        <v>0.9970807505102305</v>
       </c>
       <c r="D24">
-        <v>1.021692894001321</v>
+        <v>1.021481422488435</v>
       </c>
       <c r="E24">
-        <v>1.015045084824383</v>
+        <v>1.015216161149661</v>
       </c>
       <c r="F24">
-        <v>1.027290254268537</v>
+        <v>1.027259760134829</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04473156401468</v>
+        <v>1.044707363380832</v>
       </c>
       <c r="J24">
-        <v>1.024478005095597</v>
+        <v>1.024691639500363</v>
       </c>
       <c r="K24">
-        <v>1.035349474622393</v>
+        <v>1.035141517413865</v>
       </c>
       <c r="L24">
-        <v>1.028813044749146</v>
+        <v>1.028981231221629</v>
       </c>
       <c r="M24">
-        <v>1.040854492321121</v>
+        <v>1.040824497759971</v>
       </c>
       <c r="N24">
-        <v>1.011383145186033</v>
+        <v>1.013391300454475</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040905980665786</v>
+        <v>1.040882241994683</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036116689963557</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035983483384079</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021527687926712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00491947048762</v>
+        <v>1.004638101251138</v>
       </c>
       <c r="D25">
-        <v>1.026991132706101</v>
+        <v>1.026272997441833</v>
       </c>
       <c r="E25">
-        <v>1.021243528321458</v>
+        <v>1.020981130264891</v>
       </c>
       <c r="F25">
-        <v>1.032934721878664</v>
+        <v>1.032510829015301</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046256876900987</v>
+        <v>1.046011039697882</v>
       </c>
       <c r="J25">
-        <v>1.029282401520424</v>
+        <v>1.029010376664769</v>
       </c>
       <c r="K25">
-        <v>1.039184412326529</v>
+        <v>1.038476703697646</v>
       </c>
       <c r="L25">
-        <v>1.033520779495596</v>
+        <v>1.033262243688875</v>
       </c>
       <c r="M25">
-        <v>1.045042410760759</v>
+        <v>1.044624580863174</v>
       </c>
       <c r="N25">
-        <v>1.013085272066358</v>
+        <v>1.014552283812919</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.044220427874894</v>
+        <v>1.0438897451461</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038825319281328</v>
+        <v>1.038338445087837</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022274762101744</v>
       </c>
     </row>
   </sheetData>
